--- a/src/attributions/attributions_saliency_traj_385.xlsx
+++ b/src/attributions/attributions_saliency_traj_385.xlsx
@@ -2142,2278 +2142,2278 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.019499091460602e-07</v>
+        <v>0.0009316871874034405</v>
       </c>
       <c r="B4" t="n">
-        <v>3.099670493611484e-06</v>
+        <v>0.004824367351830006</v>
       </c>
       <c r="C4" t="n">
-        <v>5.712730626328266e-07</v>
+        <v>0.0008442746475338936</v>
       </c>
       <c r="D4" t="n">
-        <v>5.153050551598426e-06</v>
+        <v>0.0009234970202669501</v>
       </c>
       <c r="E4" t="n">
-        <v>7.544970230810577e-07</v>
+        <v>0.0001954428880708292</v>
       </c>
       <c r="F4" t="n">
-        <v>3.896045654983027e-07</v>
+        <v>0.005021276883780956</v>
       </c>
       <c r="G4" t="n">
-        <v>1.370852942272904e-07</v>
+        <v>9.344678255729377e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>1.139120513471426e-06</v>
+        <v>0.0002646560315042734</v>
       </c>
       <c r="I4" t="n">
-        <v>8.466744247925817e-07</v>
+        <v>0.000468667916720733</v>
       </c>
       <c r="J4" t="n">
-        <v>3.944080617657164e-08</v>
+        <v>0.002179263159632683</v>
       </c>
       <c r="K4" t="n">
-        <v>2.63748233919614e-06</v>
+        <v>0.002697101328521967</v>
       </c>
       <c r="L4" t="n">
-        <v>1.003817260425421e-06</v>
+        <v>0.0008872762555256486</v>
       </c>
       <c r="M4" t="n">
-        <v>3.982509042543825e-06</v>
+        <v>0.00117406016215682</v>
       </c>
       <c r="N4" t="n">
-        <v>7.350733994826442e-07</v>
+        <v>0.0002044025022769347</v>
       </c>
       <c r="O4" t="n">
-        <v>1.331887688138522e-06</v>
+        <v>0.00342643610201776</v>
       </c>
       <c r="P4" t="n">
-        <v>5.538714731301297e-07</v>
+        <v>0.0009344308637082577</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.670557819328678e-08</v>
+        <v>0.0006537266308441758</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44391185585846e-06</v>
+        <v>0.0003750759060494602</v>
       </c>
       <c r="S4" t="n">
-        <v>1.480375573237325e-07</v>
+        <v>4.676482785725966e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.705558870275127e-07</v>
+        <v>0.0006438911077566445</v>
       </c>
       <c r="U4" t="n">
-        <v>1.450518567480685e-07</v>
+        <v>0.0006031256634742022</v>
       </c>
       <c r="V4" t="n">
-        <v>1.343125290986791e-07</v>
+        <v>0.0005991194630041718</v>
       </c>
       <c r="W4" t="n">
-        <v>2.017698307099636e-06</v>
+        <v>0.001056049950420856</v>
       </c>
       <c r="X4" t="n">
-        <v>1.154582918161395e-08</v>
+        <v>0.0002382309903623536</v>
       </c>
       <c r="Y4" t="n">
-        <v>2.656384481269924e-07</v>
+        <v>0.0006602561916224658</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.114120777856442e-07</v>
+        <v>0.0004892952274531126</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.048852110192456e-07</v>
+        <v>9.677260823082179e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>8.238395707849122e-07</v>
+        <v>0.0008103825384750962</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.775769065825443e-07</v>
+        <v>0.0002872532932087779</v>
       </c>
       <c r="AD4" t="n">
-        <v>2.07179652988998e-07</v>
+        <v>0.001089543104171753</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.98765154791181e-07</v>
+        <v>0.0004428508109413087</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.913253981911112e-06</v>
+        <v>0.0007847188389860094</v>
       </c>
       <c r="AG4" t="n">
-        <v>9.215662544193037e-07</v>
+        <v>0.0004463557270355523</v>
       </c>
       <c r="AH4" t="n">
-        <v>2.386913706686755e-07</v>
+        <v>0.0007516243495047092</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.980853253120586e-07</v>
+        <v>0.000231879239436239</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.510921472610789e-08</v>
+        <v>0.000578526989556849</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.126842334997491e-06</v>
+        <v>2.398363540123682e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>4.186662749816605e-07</v>
+        <v>3.137864405289292e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.796238393581007e-07</v>
+        <v>0.0007054651505313814</v>
       </c>
       <c r="AN4" t="n">
-        <v>9.306976949119417e-07</v>
+        <v>0.0007639259565621614</v>
       </c>
       <c r="AO4" t="n">
-        <v>2.55148773220526e-08</v>
+        <v>0.0004021427303086966</v>
       </c>
       <c r="AP4" t="n">
-        <v>5.537132210520213e-07</v>
+        <v>0.0009164850926026702</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.715998448366008e-07</v>
+        <v>0.0006985109648667276</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.394784530679317e-07</v>
+        <v>0.0002092327777063474</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.509960547238734e-07</v>
+        <v>0.0008065145229920745</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.333501925022574e-06</v>
+        <v>0.0001451236748835072</v>
       </c>
       <c r="AU4" t="n">
-        <v>2.971138655993855e-06</v>
+        <v>0.002013820689171553</v>
       </c>
       <c r="AV4" t="n">
-        <v>4.272117166692624e-07</v>
+        <v>0.001409093849360943</v>
       </c>
       <c r="AW4" t="n">
-        <v>1.598463768459624e-06</v>
+        <v>0.0008016251376830041</v>
       </c>
       <c r="AX4" t="n">
-        <v>7.158094490478106e-07</v>
+        <v>0.0007307197665795684</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.758051884185988e-07</v>
+        <v>0.001540586585178971</v>
       </c>
       <c r="AZ4" t="n">
-        <v>6.861114343337249e-07</v>
+        <v>0.001105393399484456</v>
       </c>
       <c r="BA4" t="n">
-        <v>1.323260107710666e-06</v>
+        <v>0.0002268370444653556</v>
       </c>
       <c r="BB4" t="n">
-        <v>1.002481866407834e-07</v>
+        <v>0.001722209039144218</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.046227069423367e-07</v>
+        <v>0.00154808082152158</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.657448081004986e-07</v>
+        <v>0.001002623350359499</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.173765037445264e-07</v>
+        <v>0.0009761747787706554</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.510992544557666e-06</v>
+        <v>0.0004848015087191015</v>
       </c>
       <c r="BG4" t="n">
-        <v>4.068583052685426e-07</v>
+        <v>0.0005893519264645875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.769654659256048e-06</v>
+        <v>0.002349161775782704</v>
       </c>
       <c r="BI4" t="n">
-        <v>5.03839316934318e-07</v>
+        <v>0.001264201244339347</v>
       </c>
       <c r="BJ4" t="n">
-        <v>9.572203225616249e-07</v>
+        <v>0.0006391594652086496</v>
       </c>
       <c r="BK4" t="n">
-        <v>7.015710252744611e-07</v>
+        <v>0.0008606972987763584</v>
       </c>
       <c r="BL4" t="n">
-        <v>4.529967441158078e-07</v>
+        <v>0.0003281478711869568</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.756627057147853e-06</v>
+        <v>0.0006421873695217073</v>
       </c>
       <c r="BN4" t="n">
-        <v>3.601815592446656e-07</v>
+        <v>5.416043859440833e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>5.37081973561726e-07</v>
+        <v>3.498488513287157e-05</v>
       </c>
       <c r="BP4" t="n">
-        <v>9.112162615565467e-07</v>
+        <v>0.0008647459326311946</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.146784711636428e-07</v>
+        <v>0.0003741569234989583</v>
       </c>
       <c r="BR4" t="n">
-        <v>3.557842092050123e-07</v>
+        <v>0.0006068406510166824</v>
       </c>
       <c r="BS4" t="n">
-        <v>5.291823867992207e-09</v>
+        <v>0.0004290383658371866</v>
       </c>
       <c r="BT4" t="n">
-        <v>2.368330171975686e-07</v>
+        <v>0.0006674790638498962</v>
       </c>
       <c r="BU4" t="n">
-        <v>1.960439931281144e-06</v>
+        <v>0.0001523336250102147</v>
       </c>
       <c r="BV4" t="n">
-        <v>1.783352132633809e-07</v>
+        <v>0.001131448661908507</v>
       </c>
       <c r="BW4" t="n">
-        <v>4.752724294121435e-07</v>
+        <v>0.001035599154420197</v>
       </c>
       <c r="BX4" t="n">
-        <v>2.58144336839905e-06</v>
+        <v>0.0004239877453073859</v>
       </c>
       <c r="BY4" t="n">
-        <v>1.18773641588632e-07</v>
+        <v>0.001199404243379831</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2.635597411426716e-07</v>
+        <v>8.279021130874753e-07</v>
       </c>
       <c r="CA4" t="n">
-        <v>2.666843386123219e-07</v>
+        <v>0.0002664718776941299</v>
       </c>
       <c r="CB4" t="n">
-        <v>4.152275892010948e-07</v>
+        <v>1.566113496664912e-05</v>
       </c>
       <c r="CC4" t="n">
-        <v>4.607149435287283e-07</v>
+        <v>0.0004416555748321116</v>
       </c>
       <c r="CD4" t="n">
-        <v>1.062882233782148e-06</v>
+        <v>0.0001793777046259493</v>
       </c>
       <c r="CE4" t="n">
-        <v>6.519537691929145e-07</v>
+        <v>0.000489446974825114</v>
       </c>
       <c r="CF4" t="n">
-        <v>5.594550600562798e-08</v>
+        <v>0.0005919156246818602</v>
       </c>
       <c r="CG4" t="n">
-        <v>8.982146937341895e-07</v>
+        <v>7.853850547689945e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>4.598339842232235e-07</v>
+        <v>0.0004824438074138016</v>
       </c>
       <c r="CI4" t="n">
-        <v>1.078062297210636e-07</v>
+        <v>0.000856972998008132</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1.536202489660354e-07</v>
+        <v>9.955166024155915e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>2.811594583818078e-07</v>
+        <v>2.042078995145857e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>3.493695999168267e-07</v>
+        <v>0.0005739873740822077</v>
       </c>
       <c r="CM4" t="n">
-        <v>4.864689913119946e-07</v>
+        <v>0.0004738523275591433</v>
       </c>
       <c r="CN4" t="n">
-        <v>3.51755659266928e-07</v>
+        <v>0.001194139709696174</v>
       </c>
       <c r="CO4" t="n">
-        <v>5.793596073999652e-07</v>
+        <v>0.0007838242454454303</v>
       </c>
       <c r="CP4" t="n">
-        <v>1.54001190821873e-06</v>
+        <v>0.0002450261963531375</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1.160210103989812e-06</v>
+        <v>0.0003582613135222346</v>
       </c>
       <c r="CR4" t="n">
-        <v>2.081040747725638e-06</v>
+        <v>2.088294422719628e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>7.525968612753786e-07</v>
+        <v>1.607328886166215e-05</v>
       </c>
       <c r="CT4" t="n">
-        <v>9.029571970131656e-07</v>
+        <v>0.0001381714537274092</v>
       </c>
       <c r="CU4" t="n">
-        <v>3.901095908531715e-07</v>
+        <v>0.001216857228428125</v>
       </c>
       <c r="CV4" t="n">
-        <v>1.000937913886446e-06</v>
+        <v>2.222914190497249e-06</v>
       </c>
       <c r="CW4" t="n">
-        <v>6.897635103086941e-07</v>
+        <v>0.000568652874790132</v>
       </c>
       <c r="CX4" t="n">
-        <v>5.853818763057461e-08</v>
+        <v>0.0005096103996038437</v>
       </c>
       <c r="CY4" t="n">
-        <v>8.338996622114792e-07</v>
+        <v>0.0002459230017848313</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3.007880877703428e-07</v>
+        <v>0.0005492959753610194</v>
       </c>
       <c r="DA4" t="n">
-        <v>4.881228221620404e-08</v>
+        <v>0.0006649266579188406</v>
       </c>
       <c r="DB4" t="n">
-        <v>1.564703211442975e-07</v>
+        <v>0.0001759668521117419</v>
       </c>
       <c r="DC4" t="n">
-        <v>2.043158247033716e-07</v>
+        <v>5.724106813431717e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>3.603537379603949e-07</v>
+        <v>0.000531870755366981</v>
       </c>
       <c r="DE4" t="n">
-        <v>2.441619244564208e-06</v>
+        <v>0.0005000674282200634</v>
       </c>
       <c r="DF4" t="n">
-        <v>3.039423745576642e-06</v>
+        <v>0.0001080629299394786</v>
       </c>
       <c r="DG4" t="n">
-        <v>8.552249255444622e-07</v>
+        <v>0.0004207413003314286</v>
       </c>
       <c r="DH4" t="n">
-        <v>9.744564977154369e-07</v>
+        <v>0.001231145230121911</v>
       </c>
       <c r="DI4" t="n">
-        <v>1.140904942076304e-06</v>
+        <v>0.0001551622408442199</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1.292448814638192e-06</v>
+        <v>0.002139349700883031</v>
       </c>
       <c r="DK4" t="n">
-        <v>1.240485858033935e-06</v>
+        <v>0.0009390026098117232</v>
       </c>
       <c r="DL4" t="n">
-        <v>7.450468615388672e-07</v>
+        <v>0.0006362518179230392</v>
       </c>
       <c r="DM4" t="n">
-        <v>6.669417302873626e-07</v>
+        <v>0.001987890107557178</v>
       </c>
       <c r="DN4" t="n">
-        <v>7.814268201400409e-07</v>
+        <v>0.0007165991701185703</v>
       </c>
       <c r="DO4" t="n">
-        <v>7.984280046002823e-07</v>
+        <v>0.000200214417418465</v>
       </c>
       <c r="DP4" t="n">
-        <v>2.712804132443125e-07</v>
+        <v>0.0003012416418641806</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2.383556676477383e-07</v>
+        <v>8.248484664363787e-05</v>
       </c>
       <c r="DR4" t="n">
-        <v>1.402483576384839e-06</v>
+        <v>3.308737177576404e-06</v>
       </c>
       <c r="DS4" t="n">
-        <v>1.793048198805991e-07</v>
+        <v>4.303683090256527e-05</v>
       </c>
       <c r="DT4" t="n">
-        <v>1.941699849794531e-07</v>
+        <v>0.0005290283006615937</v>
       </c>
       <c r="DU4" t="n">
-        <v>8.788007335169823e-07</v>
+        <v>0.0003263299586251378</v>
       </c>
       <c r="DV4" t="n">
-        <v>4.218410367684555e-07</v>
+        <v>0.0006975966389290988</v>
       </c>
       <c r="DW4" t="n">
-        <v>4.766201300299144e-07</v>
+        <v>0.0004199037211947143</v>
       </c>
       <c r="DX4" t="n">
-        <v>9.867825383480522e-07</v>
+        <v>0.0004703826853074133</v>
       </c>
       <c r="DY4" t="n">
-        <v>5.62135369364114e-07</v>
+        <v>0.0002289737749379128</v>
       </c>
       <c r="DZ4" t="n">
-        <v>6.644849577241985e-07</v>
+        <v>0.0006300742970779538</v>
       </c>
       <c r="EA4" t="n">
-        <v>1.261469151359051e-07</v>
+        <v>0.0005910214968025684</v>
       </c>
       <c r="EB4" t="n">
-        <v>3.814904516730167e-07</v>
+        <v>1.907428668346256e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>1.057863059372721e-07</v>
+        <v>2.442665572743863e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>4.660670640532771e-07</v>
+        <v>8.921972039388493e-05</v>
       </c>
       <c r="EE4" t="n">
-        <v>4.549832510747365e-07</v>
+        <v>0.0006767389131709933</v>
       </c>
       <c r="EF4" t="n">
-        <v>8.476816901747952e-07</v>
+        <v>0.0002228709781775251</v>
       </c>
       <c r="EG4" t="n">
-        <v>4.559250044167129e-07</v>
+        <v>0.0005091751227155328</v>
       </c>
       <c r="EH4" t="n">
-        <v>4.141791123402072e-07</v>
+        <v>0.0002650596725288779</v>
       </c>
       <c r="EI4" t="n">
-        <v>1.231188434758224e-06</v>
+        <v>0.0007571959868073463</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1.434571458958089e-06</v>
+        <v>0.0006108189118094742</v>
       </c>
       <c r="EK4" t="n">
-        <v>7.320549855194258e-08</v>
+        <v>0.0003032696549780667</v>
       </c>
       <c r="EL4" t="n">
-        <v>3.467491183073435e-09</v>
+        <v>0.0005667459918186069</v>
       </c>
       <c r="EM4" t="n">
-        <v>4.213455326862459e-07</v>
+        <v>0.0001141737448051572</v>
       </c>
       <c r="EN4" t="n">
-        <v>2.307820921032544e-07</v>
+        <v>6.829823541920632e-05</v>
       </c>
       <c r="EO4" t="n">
-        <v>1.076939042832237e-06</v>
+        <v>0.0005029673338867724</v>
       </c>
       <c r="EP4" t="n">
-        <v>9.418873787581106e-07</v>
+        <v>4.421484482008964e-05</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1.946663132912363e-07</v>
+        <v>0.000157737493282184</v>
       </c>
       <c r="ER4" t="n">
-        <v>7.483194508495217e-07</v>
+        <v>0.0005181839223951101</v>
       </c>
       <c r="ES4" t="n">
-        <v>7.204258736237534e-07</v>
+        <v>0.000996264279820025</v>
       </c>
       <c r="ET4" t="n">
-        <v>5.85742668590683e-07</v>
+        <v>0.001516576274298131</v>
       </c>
       <c r="EU4" t="n">
-        <v>1.079627622857515e-07</v>
+        <v>0.0004665550077334046</v>
       </c>
       <c r="EV4" t="n">
-        <v>6.013846132191247e-08</v>
+        <v>0.0007081051589921117</v>
       </c>
       <c r="EW4" t="n">
-        <v>1.643487195224225e-07</v>
+        <v>0.001029796781949699</v>
       </c>
       <c r="EX4" t="n">
-        <v>8.329380420946109e-07</v>
+        <v>2.00525792024564e-05</v>
       </c>
       <c r="EY4" t="n">
-        <v>5.864407057742937e-07</v>
+        <v>0.0005810603033751249</v>
       </c>
       <c r="EZ4" t="n">
-        <v>4.681247389726195e-08</v>
+        <v>0.0002685734652914107</v>
       </c>
       <c r="FA4" t="n">
-        <v>6.569507036147115e-07</v>
+        <v>6.815462256781757e-06</v>
       </c>
       <c r="FB4" t="n">
-        <v>6.410784862964647e-07</v>
+        <v>0.0006220695795491338</v>
       </c>
       <c r="FC4" t="n">
-        <v>1.622917125132517e-07</v>
+        <v>0.0004647382593248039</v>
       </c>
       <c r="FD4" t="n">
-        <v>2.023093230718587e-07</v>
+        <v>0.0003059423179365695</v>
       </c>
       <c r="FE4" t="n">
-        <v>2.22984397169057e-07</v>
+        <v>0.0001468498958274722</v>
       </c>
       <c r="FF4" t="n">
-        <v>7.793496337171746e-08</v>
+        <v>0.0008052420453168452</v>
       </c>
       <c r="FG4" t="n">
-        <v>3.674276172205282e-07</v>
+        <v>0.0007168371812440455</v>
       </c>
       <c r="FH4" t="n">
-        <v>2.624213379931462e-07</v>
+        <v>0.0002724858350120485</v>
       </c>
       <c r="FI4" t="n">
-        <v>1.084148308905242e-07</v>
+        <v>0.0003898284630849957</v>
       </c>
       <c r="FJ4" t="n">
-        <v>4.162264986007358e-07</v>
+        <v>0.0009231818257831037</v>
       </c>
       <c r="FK4" t="n">
-        <v>9.727903034217888e-07</v>
+        <v>0.0004922297084704041</v>
       </c>
       <c r="FL4" t="n">
-        <v>4.01585111831082e-07</v>
+        <v>0.0008224548655562103</v>
       </c>
       <c r="FM4" t="n">
-        <v>3.908629366833338e-07</v>
+        <v>0.0001010385458357632</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.214751250699919e-07</v>
+        <v>9.862206934485584e-05</v>
       </c>
       <c r="FO4" t="n">
-        <v>1.114311885430652e-06</v>
+        <v>0.0007698533590883017</v>
       </c>
       <c r="FP4" t="n">
-        <v>9.733810202305904e-09</v>
+        <v>0.0004638370592147112</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3.807875827988028e-07</v>
+        <v>0.000868044444359839</v>
       </c>
       <c r="FR4" t="n">
-        <v>1.114510837396665e-06</v>
+        <v>0.000610307848546654</v>
       </c>
       <c r="FS4" t="n">
-        <v>2.300585038028657e-07</v>
+        <v>0.0003651244333013892</v>
       </c>
       <c r="FT4" t="n">
-        <v>3.45644650678878e-07</v>
+        <v>0.0005534600932151079</v>
       </c>
       <c r="FU4" t="n">
-        <v>5.76906529659027e-07</v>
+        <v>0.00196574185974896</v>
       </c>
       <c r="FV4" t="n">
-        <v>2.414408584172634e-07</v>
+        <v>0.0002072780625894666</v>
       </c>
       <c r="FW4" t="n">
-        <v>3.610468581882742e-07</v>
+        <v>4.848385651712306e-05</v>
       </c>
       <c r="FX4" t="n">
-        <v>3.022646239969617e-07</v>
+        <v>0.00074788584606722</v>
       </c>
       <c r="FY4" t="n">
-        <v>1.20945253456739e-06</v>
+        <v>0.001021735602989793</v>
       </c>
       <c r="FZ4" t="n">
-        <v>4.568147460304317e-07</v>
+        <v>0.0004503719974309206</v>
       </c>
       <c r="GA4" t="n">
-        <v>6.83753796693054e-07</v>
+        <v>0.0003799538244493306</v>
       </c>
       <c r="GB4" t="n">
-        <v>1.57159638547455e-06</v>
+        <v>0.0007552225724793971</v>
       </c>
       <c r="GC4" t="n">
-        <v>1.785689619282493e-06</v>
+        <v>0.001185073866508901</v>
       </c>
       <c r="GD4" t="n">
-        <v>1.848942474680371e-07</v>
+        <v>9.879967547021806e-05</v>
       </c>
       <c r="GE4" t="n">
-        <v>5.481600595658165e-08</v>
+        <v>0.0003170507261529565</v>
       </c>
       <c r="GF4" t="n">
-        <v>6.472301947724191e-07</v>
+        <v>0.0005881100660189986</v>
       </c>
       <c r="GG4" t="n">
-        <v>4.029257070214953e-07</v>
+        <v>0.0008486193837597966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.300126263638958e-05</v>
+        <v>0.00943941343575716</v>
       </c>
       <c r="B5" t="n">
-        <v>3.960596222896129e-05</v>
+        <v>0.08456570655107498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001361064933007583</v>
+        <v>0.002291683107614517</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000334353098878637</v>
+        <v>0.060014508664608</v>
       </c>
       <c r="E5" t="n">
-        <v>3.950922291551251e-06</v>
+        <v>0.02988081984221935</v>
       </c>
       <c r="F5" t="n">
-        <v>2.240641697426327e-05</v>
+        <v>0.02269182167947292</v>
       </c>
       <c r="G5" t="n">
-        <v>2.257437881780788e-05</v>
+        <v>0.01043481752276421</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001840348559198901</v>
+        <v>0.01766093634068966</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2596035200404e-05</v>
+        <v>0.0133523540571332</v>
       </c>
       <c r="J5" t="n">
-        <v>6.118637975305319e-05</v>
+        <v>0.01400037948042154</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001130965974880382</v>
+        <v>0.06653422862291336</v>
       </c>
       <c r="L5" t="n">
-        <v>3.345816730870865e-05</v>
+        <v>0.002900904277339578</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0002209199010394514</v>
+        <v>0.04507310688495636</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0001265978935407475</v>
+        <v>0.03545865043997765</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001857780298450962</v>
+        <v>0.03198371455073357</v>
       </c>
       <c r="P5" t="n">
-        <v>1.807055923563894e-06</v>
+        <v>0.007205353118479252</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0002323030348634347</v>
+        <v>0.007677408400923014</v>
       </c>
       <c r="R5" t="n">
-        <v>6.111040420364588e-05</v>
+        <v>0.01408479548990726</v>
       </c>
       <c r="S5" t="n">
-        <v>2.689343273232225e-05</v>
+        <v>0.003821393707767129</v>
       </c>
       <c r="T5" t="n">
-        <v>8.425927808275446e-05</v>
+        <v>0.005599202122539282</v>
       </c>
       <c r="U5" t="n">
-        <v>0.000108848609670531</v>
+        <v>0.005912675522267818</v>
       </c>
       <c r="V5" t="n">
-        <v>7.984466355992481e-05</v>
+        <v>0.01459635607898235</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0002186093042837456</v>
+        <v>0.03983259573578835</v>
       </c>
       <c r="X5" t="n">
-        <v>6.015134204062633e-06</v>
+        <v>0.001989959273487329</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.14797967398772e-05</v>
+        <v>0.01734848506748676</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.828402107814327e-05</v>
+        <v>0.01255863625556231</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.685902578989044e-06</v>
+        <v>0.01380181312561035</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0001236082025570795</v>
+        <v>0.006298976950347424</v>
       </c>
       <c r="AC5" t="n">
-        <v>3.866798215312883e-05</v>
+        <v>0.006987278815358877</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.777740054531023e-05</v>
+        <v>0.002166269579902291</v>
       </c>
       <c r="AE5" t="n">
-        <v>4.940412327414379e-05</v>
+        <v>0.005204451270401478</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.929718564497307e-05</v>
+        <v>0.01637542247772217</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.630847327760421e-05</v>
+        <v>0.013237907551229</v>
       </c>
       <c r="AH5" t="n">
-        <v>5.010007589589804e-05</v>
+        <v>0.003158987499773502</v>
       </c>
       <c r="AI5" t="n">
-        <v>3.433623351156712e-05</v>
+        <v>0.004186698235571384</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7.709355122642592e-05</v>
+        <v>0.006509654689580202</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.513454329455271e-05</v>
+        <v>0.002797647146508098</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.959900277550332e-05</v>
+        <v>0.01498142722994089</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.538700598757714e-05</v>
+        <v>0.004654768854379654</v>
       </c>
       <c r="AN5" t="n">
-        <v>5.291353591019288e-05</v>
+        <v>0.002506892196834087</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.735594747122377e-05</v>
+        <v>0.01591712236404419</v>
       </c>
       <c r="AP5" t="n">
-        <v>6.591211558770738e-07</v>
+        <v>0.01320705562829971</v>
       </c>
       <c r="AQ5" t="n">
-        <v>4.282690497348085e-06</v>
+        <v>0.001508890883997083</v>
       </c>
       <c r="AR5" t="n">
-        <v>2.11549413506873e-05</v>
+        <v>0.000228661869186908</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.827935011533555e-05</v>
+        <v>0.01158605236560106</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.673427560599521e-05</v>
+        <v>0.005520650651305914</v>
       </c>
       <c r="AU5" t="n">
-        <v>2.068126195808873e-05</v>
+        <v>0.03541399538516998</v>
       </c>
       <c r="AV5" t="n">
-        <v>9.758875967236236e-05</v>
+        <v>0.007958460599184036</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0001775905548129231</v>
+        <v>0.02472254261374474</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.588039958733134e-05</v>
+        <v>0.02214817702770233</v>
       </c>
       <c r="AY5" t="n">
-        <v>3.821691643679515e-05</v>
+        <v>0.0297909714281559</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.726725506363437e-05</v>
+        <v>0.01145278383046389</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0001113035250455141</v>
+        <v>0.009907873347401619</v>
       </c>
       <c r="BB5" t="n">
-        <v>4.230958802509122e-05</v>
+        <v>0.007225991226732731</v>
       </c>
       <c r="BC5" t="n">
-        <v>5.590610817307606e-05</v>
+        <v>0.01315098255872726</v>
       </c>
       <c r="BD5" t="n">
-        <v>2.663869236130267e-05</v>
+        <v>0.02260029688477516</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.267640179023147e-07</v>
+        <v>0.00781539548188448</v>
       </c>
       <c r="BF5" t="n">
-        <v>9.891048102872446e-05</v>
+        <v>0.004465703386813402</v>
       </c>
       <c r="BG5" t="n">
-        <v>4.199289105599746e-05</v>
+        <v>0.0167970284819603</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.292237084271619e-05</v>
+        <v>0.002486714627593756</v>
       </c>
       <c r="BI5" t="n">
-        <v>3.872695015161298e-05</v>
+        <v>0.01783518120646477</v>
       </c>
       <c r="BJ5" t="n">
-        <v>5.554080780711956e-05</v>
+        <v>0.002002125140279531</v>
       </c>
       <c r="BK5" t="n">
-        <v>5.091916136734653e-06</v>
+        <v>0.01279272045940161</v>
       </c>
       <c r="BL5" t="n">
-        <v>8.777988114161417e-05</v>
+        <v>0.004915021359920502</v>
       </c>
       <c r="BM5" t="n">
-        <v>5.053224231232889e-05</v>
+        <v>0.001021781354211271</v>
       </c>
       <c r="BN5" t="n">
-        <v>9.215971658704802e-06</v>
+        <v>0.004888123366981745</v>
       </c>
       <c r="BO5" t="n">
-        <v>5.38203084943234e-06</v>
+        <v>0.003594087902456522</v>
       </c>
       <c r="BP5" t="n">
-        <v>4.666829681809759e-06</v>
+        <v>0.004118479322642088</v>
       </c>
       <c r="BQ5" t="n">
-        <v>2.447105362080038e-05</v>
+        <v>0.008347473107278347</v>
       </c>
       <c r="BR5" t="n">
-        <v>1.490721842856146e-05</v>
+        <v>0.004455800168216228</v>
       </c>
       <c r="BS5" t="n">
-        <v>2.343793130421545e-05</v>
+        <v>0.008001269772648811</v>
       </c>
       <c r="BT5" t="n">
-        <v>1.675057319516782e-05</v>
+        <v>0.003189351642504334</v>
       </c>
       <c r="BU5" t="n">
-        <v>8.389731374336407e-05</v>
+        <v>0.007388092111796141</v>
       </c>
       <c r="BV5" t="n">
-        <v>5.208909897191916e-06</v>
+        <v>0.02528050355613232</v>
       </c>
       <c r="BW5" t="n">
-        <v>6.291715544648468e-05</v>
+        <v>0.003849174827337265</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.0001345945202047005</v>
+        <v>0.02804576605558395</v>
       </c>
       <c r="BY5" t="n">
-        <v>7.496754551539198e-05</v>
+        <v>0.02486377954483032</v>
       </c>
       <c r="BZ5" t="n">
-        <v>6.926319474587217e-05</v>
+        <v>0.001900582574307919</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.679647175478749e-05</v>
+        <v>0.002454583067446947</v>
       </c>
       <c r="CB5" t="n">
-        <v>9.41705220611766e-05</v>
+        <v>0.0106149660423398</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.934266765601933e-05</v>
+        <v>0.01417179219424725</v>
       </c>
       <c r="CD5" t="n">
-        <v>8.526149758836254e-05</v>
+        <v>0.001621371833607554</v>
       </c>
       <c r="CE5" t="n">
-        <v>2.999185562657658e-05</v>
+        <v>0.01149897370487452</v>
       </c>
       <c r="CF5" t="n">
-        <v>2.020722422457766e-05</v>
+        <v>0.006353694945573807</v>
       </c>
       <c r="CG5" t="n">
-        <v>6.414855306502432e-05</v>
+        <v>0.00946970097720623</v>
       </c>
       <c r="CH5" t="n">
-        <v>1.976603380171582e-05</v>
+        <v>0.003989853896200657</v>
       </c>
       <c r="CI5" t="n">
-        <v>2.20103788706183e-06</v>
+        <v>0.005552146583795547</v>
       </c>
       <c r="CJ5" t="n">
-        <v>1.742015047057066e-05</v>
+        <v>0.004543647170066833</v>
       </c>
       <c r="CK5" t="n">
-        <v>2.905034489231184e-05</v>
+        <v>0.002750577637925744</v>
       </c>
       <c r="CL5" t="n">
-        <v>1.052543893820257e-06</v>
+        <v>0.004734784364700317</v>
       </c>
       <c r="CM5" t="n">
-        <v>6.982152990531176e-05</v>
+        <v>0.005014520138502121</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.0001065252945409156</v>
+        <v>0.01137707196176052</v>
       </c>
       <c r="CO5" t="n">
-        <v>1.002260978566483e-05</v>
+        <v>0.002577626146376133</v>
       </c>
       <c r="CP5" t="n">
-        <v>4.466515019885264e-05</v>
+        <v>0.001609785133041441</v>
       </c>
       <c r="CQ5" t="n">
-        <v>5.670551036018878e-05</v>
+        <v>0.007091202773153782</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.000149190382217057</v>
+        <v>0.009130544029176235</v>
       </c>
       <c r="CS5" t="n">
-        <v>5.242056886345381e-06</v>
+        <v>0.01940368115901947</v>
       </c>
       <c r="CT5" t="n">
-        <v>6.076718636904843e-05</v>
+        <v>0.02442753873765469</v>
       </c>
       <c r="CU5" t="n">
-        <v>5.763842636952177e-05</v>
+        <v>0.002534596715122461</v>
       </c>
       <c r="CV5" t="n">
-        <v>8.597217674832791e-05</v>
+        <v>0.001521657104603946</v>
       </c>
       <c r="CW5" t="n">
-        <v>3.865045437123626e-05</v>
+        <v>0.01207151729613543</v>
       </c>
       <c r="CX5" t="n">
-        <v>2.878357554436661e-05</v>
+        <v>0.006027697585523129</v>
       </c>
       <c r="CY5" t="n">
-        <v>6.001413566991687e-05</v>
+        <v>0.01103021949529648</v>
       </c>
       <c r="CZ5" t="n">
-        <v>3.047932477784343e-05</v>
+        <v>0.00397934066131711</v>
       </c>
       <c r="DA5" t="n">
-        <v>1.098737993743271e-05</v>
+        <v>0.006627609021961689</v>
       </c>
       <c r="DB5" t="n">
-        <v>1.466576213715598e-05</v>
+        <v>0.004103646613657475</v>
       </c>
       <c r="DC5" t="n">
-        <v>2.386177038715687e-05</v>
+        <v>0.004382535815238953</v>
       </c>
       <c r="DD5" t="n">
-        <v>1.327788686467102e-05</v>
+        <v>0.004248461686074734</v>
       </c>
       <c r="DE5" t="n">
-        <v>9.866449545370415e-05</v>
+        <v>0.004217843525111675</v>
       </c>
       <c r="DF5" t="n">
-        <v>1.461146166548133e-05</v>
+        <v>0.02337045781314373</v>
       </c>
       <c r="DG5" t="n">
-        <v>5.702182534150779e-06</v>
+        <v>0.002981431549414992</v>
       </c>
       <c r="DH5" t="n">
-        <v>7.578136865049601e-05</v>
+        <v>0.04102211818099022</v>
       </c>
       <c r="DI5" t="n">
-        <v>6.419734563678503e-05</v>
+        <v>0.003262810874730349</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1.397046980855521e-05</v>
+        <v>0.009926289319992065</v>
       </c>
       <c r="DK5" t="n">
-        <v>7.542515231762081e-05</v>
+        <v>0.01534202694892883</v>
       </c>
       <c r="DL5" t="n">
-        <v>7.664662916795351e-06</v>
+        <v>0.01282777823507786</v>
       </c>
       <c r="DM5" t="n">
-        <v>4.270681893103756e-05</v>
+        <v>0.008001880720257759</v>
       </c>
       <c r="DN5" t="n">
-        <v>4.610154428519309e-05</v>
+        <v>0.00690622441470623</v>
       </c>
       <c r="DO5" t="n">
-        <v>3.528294109855779e-05</v>
+        <v>0.01443309336900711</v>
       </c>
       <c r="DP5" t="n">
-        <v>4.480042116483673e-05</v>
+        <v>0.003911864012479782</v>
       </c>
       <c r="DQ5" t="n">
-        <v>9.364497600472532e-06</v>
+        <v>0.01081492006778717</v>
       </c>
       <c r="DR5" t="n">
-        <v>3.129786273348145e-05</v>
+        <v>0.003025129437446594</v>
       </c>
       <c r="DS5" t="n">
-        <v>8.008756412891671e-05</v>
+        <v>0.006412726826965809</v>
       </c>
       <c r="DT5" t="n">
-        <v>2.710300213948358e-05</v>
+        <v>0.0001744558103382587</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.084688407601789e-05</v>
+        <v>5.05008501932025e-05</v>
       </c>
       <c r="DV5" t="n">
-        <v>9.230894647771493e-06</v>
+        <v>0.01329547259956598</v>
       </c>
       <c r="DW5" t="n">
-        <v>8.339447958860546e-07</v>
+        <v>0.001357056200504303</v>
       </c>
       <c r="DX5" t="n">
-        <v>8.507003076374531e-05</v>
+        <v>0.00210917042568326</v>
       </c>
       <c r="DY5" t="n">
-        <v>1.877991780929733e-05</v>
+        <v>0.006858617532998323</v>
       </c>
       <c r="DZ5" t="n">
-        <v>6.35185933788307e-05</v>
+        <v>0.002608700888231397</v>
       </c>
       <c r="EA5" t="n">
-        <v>9.889810826280154e-06</v>
+        <v>0.01364007964730263</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0001170080213341862</v>
+        <v>0.0003089585807174444</v>
       </c>
       <c r="EC5" t="n">
-        <v>5.029498424846679e-06</v>
+        <v>0.002160148695111275</v>
       </c>
       <c r="ED5" t="n">
-        <v>6.478728755610064e-05</v>
+        <v>0.005710839293897152</v>
       </c>
       <c r="EE5" t="n">
-        <v>2.654325726325624e-06</v>
+        <v>0.002712007146328688</v>
       </c>
       <c r="EF5" t="n">
-        <v>7.006606028880924e-05</v>
+        <v>0.006395545322448015</v>
       </c>
       <c r="EG5" t="n">
-        <v>8.203053766919766e-06</v>
+        <v>0.001936317537911236</v>
       </c>
       <c r="EH5" t="n">
-        <v>2.609286821098067e-05</v>
+        <v>0.009043687023222446</v>
       </c>
       <c r="EI5" t="n">
-        <v>6.115056748967618e-05</v>
+        <v>0.003946545533835888</v>
       </c>
       <c r="EJ5" t="n">
-        <v>9.542613406665623e-05</v>
+        <v>0.009178430773317814</v>
       </c>
       <c r="EK5" t="n">
-        <v>2.349892383790575e-05</v>
+        <v>0.004684644751250744</v>
       </c>
       <c r="EL5" t="n">
-        <v>9.236145160684828e-06</v>
+        <v>0.004289005417376757</v>
       </c>
       <c r="EM5" t="n">
-        <v>3.857001865981147e-05</v>
+        <v>0.0001734208781272173</v>
       </c>
       <c r="EN5" t="n">
-        <v>1.73571224877378e-05</v>
+        <v>0.003034873865544796</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0001116824787459336</v>
+        <v>0.001765798078849912</v>
       </c>
       <c r="EP5" t="n">
-        <v>2.004952330025844e-05</v>
+        <v>0.00613900413736701</v>
       </c>
       <c r="EQ5" t="n">
-        <v>5.317442264640704e-05</v>
+        <v>0.004356250166893005</v>
       </c>
       <c r="ER5" t="n">
-        <v>4.456708484212868e-05</v>
+        <v>0.009311179630458355</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.0001111645688069984</v>
+        <v>4.322570748627186e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>6.442275480367243e-05</v>
+        <v>0.02524866908788681</v>
       </c>
       <c r="EU5" t="n">
-        <v>6.546351869474165e-06</v>
+        <v>0.01500978507101536</v>
       </c>
       <c r="EV5" t="n">
-        <v>4.379845631774515e-05</v>
+        <v>0.01321273297071457</v>
       </c>
       <c r="EW5" t="n">
-        <v>1.776363023964223e-05</v>
+        <v>0.0007437802851200104</v>
       </c>
       <c r="EX5" t="n">
-        <v>7.375980203505605e-05</v>
+        <v>0.0006135245785117149</v>
       </c>
       <c r="EY5" t="n">
-        <v>3.05081412079744e-05</v>
+        <v>0.009073253720998764</v>
       </c>
       <c r="EZ5" t="n">
-        <v>2.348885391256772e-05</v>
+        <v>0.004709918051958084</v>
       </c>
       <c r="FA5" t="n">
-        <v>4.968563007423654e-05</v>
+        <v>0.01208101119846106</v>
       </c>
       <c r="FB5" t="n">
-        <v>2.872305594792124e-05</v>
+        <v>0.001420221175067127</v>
       </c>
       <c r="FC5" t="n">
-        <v>2.283718822582159e-05</v>
+        <v>0.006778535433113575</v>
       </c>
       <c r="FD5" t="n">
-        <v>8.82905806065537e-06</v>
+        <v>0.008405025117099285</v>
       </c>
       <c r="FE5" t="n">
-        <v>2.677613883861341e-05</v>
+        <v>0.004738106392323971</v>
       </c>
       <c r="FF5" t="n">
-        <v>3.902954631485045e-06</v>
+        <v>0.007515232544392347</v>
       </c>
       <c r="FG5" t="n">
-        <v>3.053805994568393e-05</v>
+        <v>0.001696369959972799</v>
       </c>
       <c r="FH5" t="n">
-        <v>2.456695983710233e-05</v>
+        <v>0.002621833700686693</v>
       </c>
       <c r="FI5" t="n">
-        <v>1.1530275514815e-05</v>
+        <v>0.0009910454973578453</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.207339118991513e-05</v>
+        <v>0.009488450363278389</v>
       </c>
       <c r="FK5" t="n">
-        <v>3.589183961594244e-06</v>
+        <v>0.01454681809991598</v>
       </c>
       <c r="FL5" t="n">
-        <v>1.720292493700981e-05</v>
+        <v>0.00469850841909647</v>
       </c>
       <c r="FM5" t="n">
-        <v>1.127229552366771e-06</v>
+        <v>0.003672368358820677</v>
       </c>
       <c r="FN5" t="n">
-        <v>1.921460352605209e-05</v>
+        <v>0.003527637803927064</v>
       </c>
       <c r="FO5" t="n">
-        <v>1.187317502626684e-05</v>
+        <v>0.001529868924990296</v>
       </c>
       <c r="FP5" t="n">
-        <v>2.698560820135754e-05</v>
+        <v>0.005481465719640255</v>
       </c>
       <c r="FQ5" t="n">
-        <v>6.442808080464602e-05</v>
+        <v>0.01244498044252396</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.0001058256166288629</v>
+        <v>0.004917821381241083</v>
       </c>
       <c r="FS5" t="n">
-        <v>4.144849299336784e-05</v>
+        <v>0.00130134099163115</v>
       </c>
       <c r="FT5" t="n">
-        <v>9.5976865850389e-06</v>
+        <v>0.006683101411908865</v>
       </c>
       <c r="FU5" t="n">
-        <v>1.815503674151842e-05</v>
+        <v>0.000672859197948128</v>
       </c>
       <c r="FV5" t="n">
-        <v>2.246824442408979e-05</v>
+        <v>0.002416378818452358</v>
       </c>
       <c r="FW5" t="n">
-        <v>5.756643804488704e-05</v>
+        <v>0.0007378706941381097</v>
       </c>
       <c r="FX5" t="n">
-        <v>4.59244147350546e-05</v>
+        <v>0.002849313896149397</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0001008269609883428</v>
+        <v>0.00480929296463728</v>
       </c>
       <c r="FZ5" t="n">
-        <v>2.579176361905411e-05</v>
+        <v>2.66142887994647e-06</v>
       </c>
       <c r="GA5" t="n">
-        <v>3.280686360085383e-05</v>
+        <v>0.0007667592726647854</v>
       </c>
       <c r="GB5" t="n">
-        <v>6.256187043618411e-05</v>
+        <v>0.00325990398414433</v>
       </c>
       <c r="GC5" t="n">
-        <v>1.37234092107974e-05</v>
+        <v>0.02749587781727314</v>
       </c>
       <c r="GD5" t="n">
-        <v>6.850039790151641e-05</v>
+        <v>0.01214607246220112</v>
       </c>
       <c r="GE5" t="n">
-        <v>2.148061685147695e-05</v>
+        <v>0.03889832273125648</v>
       </c>
       <c r="GF5" t="n">
-        <v>2.523646071495023e-05</v>
+        <v>0.003198789432644844</v>
       </c>
       <c r="GG5" t="n">
-        <v>2.10777898246306e-07</v>
+        <v>0.002091859932988882</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.480677122052022e-12</v>
+        <v>0.0006692362949252129</v>
       </c>
       <c r="B6" t="n">
-        <v>3.04172377389722e-13</v>
+        <v>7.875870505813509e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.759731358026706e-12</v>
+        <v>0.0005892572808079422</v>
       </c>
       <c r="D6" t="n">
-        <v>4.079986348770603e-12</v>
+        <v>0.000784568372182548</v>
       </c>
       <c r="E6" t="n">
-        <v>1.530519808112807e-11</v>
+        <v>0.001661069458350539</v>
       </c>
       <c r="F6" t="n">
-        <v>7.56645961164093e-12</v>
+        <v>0.001070658210664988</v>
       </c>
       <c r="G6" t="n">
-        <v>7.79565821618089e-12</v>
+        <v>0.000665802916046232</v>
       </c>
       <c r="H6" t="n">
-        <v>3.886711373753127e-13</v>
+        <v>1.684526796452701e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>3.821697298900251e-12</v>
+        <v>0.0007784388144500554</v>
       </c>
       <c r="J6" t="n">
-        <v>2.424188454142051e-12</v>
+        <v>0.0006135295261628926</v>
       </c>
       <c r="K6" t="n">
-        <v>2.308316949042877e-12</v>
+        <v>0.000816111802123487</v>
       </c>
       <c r="L6" t="n">
-        <v>4.49483115658178e-12</v>
+        <v>0.0006529234815388918</v>
       </c>
       <c r="M6" t="n">
-        <v>7.219802013180843e-13</v>
+        <v>1.725742549751885e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>5.373359743265915e-12</v>
+        <v>0.001620708731934428</v>
       </c>
       <c r="O6" t="n">
-        <v>1.363877543889003e-12</v>
+        <v>0.0008183798054233193</v>
       </c>
       <c r="P6" t="n">
-        <v>4.44123991055756e-12</v>
+        <v>3.469258081167936e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.467380016944579e-12</v>
+        <v>0.0002773004525806755</v>
       </c>
       <c r="R6" t="n">
-        <v>1.046834927770357e-11</v>
+        <v>0.0001026077225105837</v>
       </c>
       <c r="S6" t="n">
-        <v>1.131548630836643e-12</v>
+        <v>0.0004584219132084399</v>
       </c>
       <c r="T6" t="n">
-        <v>8.77800870185963e-13</v>
+        <v>0.0004834312712773681</v>
       </c>
       <c r="U6" t="n">
-        <v>4.259668139050543e-12</v>
+        <v>7.65070399211254e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>2.084800431248479e-13</v>
+        <v>0.0003743372508324683</v>
       </c>
       <c r="W6" t="n">
-        <v>8.0819318251657e-12</v>
+        <v>0.0006266623386181891</v>
       </c>
       <c r="X6" t="n">
-        <v>9.118013418948911e-13</v>
+        <v>0.000123247504234314</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.120886353848775e-12</v>
+        <v>5.75119411223568e-05</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.788262230632668e-12</v>
+        <v>0.0001286469923797995</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.21910099203093e-12</v>
+        <v>0.0005353469168767333</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.051180185245639e-12</v>
+        <v>0.0005090730264782906</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.06039578330414e-13</v>
+        <v>0.0006831266218796372</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.069753226973225e-12</v>
+        <v>0.0006418160046450794</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.535685749572135e-12</v>
+        <v>0.0001765010529197752</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.25173134546708e-12</v>
+        <v>0.001254960312508047</v>
       </c>
       <c r="AG6" t="n">
-        <v>4.924397478331399e-13</v>
+        <v>0.001185386208817363</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.064205998994709e-12</v>
+        <v>0.001389133743941784</v>
       </c>
       <c r="AI6" t="n">
-        <v>4.428844877640836e-12</v>
+        <v>0.0005270002293400466</v>
       </c>
       <c r="AJ6" t="n">
-        <v>4.014483515578371e-13</v>
+        <v>0.001252272515557706</v>
       </c>
       <c r="AK6" t="n">
-        <v>2.193302397340835e-12</v>
+        <v>0.0002542214351706207</v>
       </c>
       <c r="AL6" t="n">
-        <v>8.702655566669715e-13</v>
+        <v>0.0006595634622499347</v>
       </c>
       <c r="AM6" t="n">
-        <v>2.009637681960053e-12</v>
+        <v>2.554803359089419e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.507986861746916e-12</v>
+        <v>0.0006900111911818385</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.535833084655771e-12</v>
+        <v>0.0007046919781714678</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.436864945942752e-12</v>
+        <v>0.0002529243938624859</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.651159758184257e-13</v>
+        <v>0.0003888878272846341</v>
       </c>
       <c r="AR6" t="n">
-        <v>2.542437831445921e-12</v>
+        <v>9.028770728036761e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>9.848380791432909e-13</v>
+        <v>5.965328455204144e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.46749777328792e-12</v>
+        <v>0.0005092238425277174</v>
       </c>
       <c r="AU6" t="n">
-        <v>5.291263954765313e-12</v>
+        <v>0.0003956365690100938</v>
       </c>
       <c r="AV6" t="n">
-        <v>1.598015123005503e-12</v>
+        <v>0.0002559677814133465</v>
       </c>
       <c r="AW6" t="n">
-        <v>7.902223146671883e-12</v>
+        <v>0.0005821877275593579</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.377687894321689e-11</v>
+        <v>0.001454608980566263</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.319012157806169e-12</v>
+        <v>0.0004801159375347197</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.88600610823153e-12</v>
+        <v>0.001709241885691881</v>
       </c>
       <c r="BA6" t="n">
-        <v>2.487346916976718e-12</v>
+        <v>0.000788490695413202</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.028743930320264e-12</v>
+        <v>0.0004225207085255533</v>
       </c>
       <c r="BC6" t="n">
-        <v>2.42337833827877e-12</v>
+        <v>0.0009710315498523414</v>
       </c>
       <c r="BD6" t="n">
-        <v>7.455270667304503e-13</v>
+        <v>0.000184708449523896</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.580675260820508e-12</v>
+        <v>0.0004903955268673599</v>
       </c>
       <c r="BF6" t="n">
-        <v>9.237523940219816e-13</v>
+        <v>9.521888568997383e-05</v>
       </c>
       <c r="BG6" t="n">
-        <v>2.322072005164766e-12</v>
+        <v>0.0009530906681902707</v>
       </c>
       <c r="BH6" t="n">
-        <v>4.267102296506842e-12</v>
+        <v>0.00119502074085176</v>
       </c>
       <c r="BI6" t="n">
-        <v>2.451059971306235e-12</v>
+        <v>0.0004255731182638556</v>
       </c>
       <c r="BJ6" t="n">
-        <v>5.983710055224023e-12</v>
+        <v>0.0001430410629836842</v>
       </c>
       <c r="BK6" t="n">
-        <v>3.195685252879721e-12</v>
+        <v>0.0006612337310798466</v>
       </c>
       <c r="BL6" t="n">
-        <v>3.958730045161563e-12</v>
+        <v>3.207233385182917e-05</v>
       </c>
       <c r="BM6" t="n">
-        <v>4.25063196446418e-13</v>
+        <v>0.0006188927218317986</v>
       </c>
       <c r="BN6" t="n">
-        <v>4.21696098179547e-12</v>
+        <v>0.0002389785076957196</v>
       </c>
       <c r="BO6" t="n">
-        <v>4.636994781204162e-12</v>
+        <v>0.0008506074664182961</v>
       </c>
       <c r="BP6" t="n">
-        <v>8.357891202043222e-13</v>
+        <v>8.451248868368566e-05</v>
       </c>
       <c r="BQ6" t="n">
-        <v>5.807829803021469e-14</v>
+        <v>0.0004172443586867303</v>
       </c>
       <c r="BR6" t="n">
-        <v>9.675011443041615e-13</v>
+        <v>0.0005416931817308068</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.976675767512148e-12</v>
+        <v>0.0001513105089543387</v>
       </c>
       <c r="BT6" t="n">
-        <v>3.736027058467289e-13</v>
+        <v>0.0006105647189542651</v>
       </c>
       <c r="BU6" t="n">
-        <v>1.895241342336762e-12</v>
+        <v>0.0003592640568967909</v>
       </c>
       <c r="BV6" t="n">
-        <v>1.400555561283101e-12</v>
+        <v>6.737850344507024e-05</v>
       </c>
       <c r="BW6" t="n">
-        <v>2.251025321003963e-12</v>
+        <v>0.0005067215533927083</v>
       </c>
       <c r="BX6" t="n">
-        <v>5.602193622195051e-12</v>
+        <v>0.0003432472585700452</v>
       </c>
       <c r="BY6" t="n">
-        <v>8.55451473547042e-12</v>
+        <v>0.0007122259121388197</v>
       </c>
       <c r="BZ6" t="n">
-        <v>6.152377652474117e-12</v>
+        <v>2.024721470661461e-05</v>
       </c>
       <c r="CA6" t="n">
-        <v>5.625399234973627e-13</v>
+        <v>0.0003328458697069436</v>
       </c>
       <c r="CB6" t="n">
-        <v>2.277766191806363e-13</v>
+        <v>0.0004357853322289884</v>
       </c>
       <c r="CC6" t="n">
-        <v>8.850442622700128e-13</v>
+        <v>0.0004540047084446996</v>
       </c>
       <c r="CD6" t="n">
-        <v>1.719688302349864e-13</v>
+        <v>9.641404176363721e-05</v>
       </c>
       <c r="CE6" t="n">
-        <v>1.325152661213469e-12</v>
+        <v>0.000105852413980756</v>
       </c>
       <c r="CF6" t="n">
-        <v>6.428129513055825e-13</v>
+        <v>0.0001216516102431342</v>
       </c>
       <c r="CG6" t="n">
-        <v>6.608157489089439e-13</v>
+        <v>0.0003523661871440709</v>
       </c>
       <c r="CH6" t="n">
-        <v>3.268565106073762e-12</v>
+        <v>5.384604082792066e-05</v>
       </c>
       <c r="CI6" t="n">
-        <v>1.104490088797705e-12</v>
+        <v>5.610831067315303e-06</v>
       </c>
       <c r="CJ6" t="n">
-        <v>1.627398302922467e-12</v>
+        <v>7.05431739334017e-05</v>
       </c>
       <c r="CK6" t="n">
-        <v>1.506044637958337e-12</v>
+        <v>0.0001611890911590308</v>
       </c>
       <c r="CL6" t="n">
-        <v>4.221199670188802e-13</v>
+        <v>0.0002808426506817341</v>
       </c>
       <c r="CM6" t="n">
-        <v>4.040068193184032e-12</v>
+        <v>0.0001415081205777824</v>
       </c>
       <c r="CN6" t="n">
-        <v>7.331674330146587e-12</v>
+        <v>0.0003014640533365309</v>
       </c>
       <c r="CO6" t="n">
-        <v>2.757775344891522e-12</v>
+        <v>0.0002211735991295427</v>
       </c>
       <c r="CP6" t="n">
-        <v>3.263165779254784e-12</v>
+        <v>0.0004488500999286771</v>
       </c>
       <c r="CQ6" t="n">
-        <v>3.76336331889271e-12</v>
+        <v>0.0007440786575898528</v>
       </c>
       <c r="CR6" t="n">
-        <v>2.347621012518952e-12</v>
+        <v>0.0002039001265075058</v>
       </c>
       <c r="CS6" t="n">
-        <v>3.47859848565113e-12</v>
+        <v>0.0001031591673381627</v>
       </c>
       <c r="CT6" t="n">
-        <v>1.062774347693196e-11</v>
+        <v>0.0006139909964986145</v>
       </c>
       <c r="CU6" t="n">
-        <v>2.258906820276629e-12</v>
+        <v>0.0008466648869216442</v>
       </c>
       <c r="CV6" t="n">
-        <v>1.392825741894366e-14</v>
+        <v>0.0001163713313871995</v>
       </c>
       <c r="CW6" t="n">
-        <v>1.379957671569787e-12</v>
+        <v>0.0002421065437374637</v>
       </c>
       <c r="CX6" t="n">
-        <v>1.735713460980504e-12</v>
+        <v>1.8096649000654e-05</v>
       </c>
       <c r="CY6" t="n">
-        <v>1.349546342732655e-12</v>
+        <v>0.0003100454050581902</v>
       </c>
       <c r="CZ6" t="n">
-        <v>2.880117585396524e-12</v>
+        <v>5.404964394983836e-05</v>
       </c>
       <c r="DA6" t="n">
-        <v>6.502189195053965e-13</v>
+        <v>0.0002776279870886356</v>
       </c>
       <c r="DB6" t="n">
-        <v>4.751828813244485e-13</v>
+        <v>0.0001755940902512521</v>
       </c>
       <c r="DC6" t="n">
-        <v>2.091395849904143e-12</v>
+        <v>0.0002489859471097589</v>
       </c>
       <c r="DD6" t="n">
-        <v>1.984388266771178e-13</v>
+        <v>0.0002206358767580241</v>
       </c>
       <c r="DE6" t="n">
-        <v>1.264051905681962e-12</v>
+        <v>0.0004626928421203047</v>
       </c>
       <c r="DF6" t="n">
-        <v>1.533074448639704e-12</v>
+        <v>0.000881413696333766</v>
       </c>
       <c r="DG6" t="n">
-        <v>1.971725950913883e-12</v>
+        <v>0.0003212887968402356</v>
       </c>
       <c r="DH6" t="n">
-        <v>2.403925582900035e-12</v>
+        <v>0.0008422867394983768</v>
       </c>
       <c r="DI6" t="n">
-        <v>4.011471710363423e-12</v>
+        <v>0.0001018549373839051</v>
       </c>
       <c r="DJ6" t="n">
-        <v>3.601856443311013e-12</v>
+        <v>0.002147639868780971</v>
       </c>
       <c r="DK6" t="n">
-        <v>4.013515648298993e-12</v>
+        <v>0.0004792565887328237</v>
       </c>
       <c r="DL6" t="n">
-        <v>1.990165410942213e-12</v>
+        <v>0.000130994274513796</v>
       </c>
       <c r="DM6" t="n">
-        <v>3.202418582051725e-12</v>
+        <v>0.001625247648917139</v>
       </c>
       <c r="DN6" t="n">
-        <v>6.466025631590711e-13</v>
+        <v>0.0002197807771153748</v>
       </c>
       <c r="DO6" t="n">
-        <v>2.175306809681921e-12</v>
+        <v>0.0002231564139947295</v>
       </c>
       <c r="DP6" t="n">
-        <v>3.006044198283764e-12</v>
+        <v>8.644277841085568e-05</v>
       </c>
       <c r="DQ6" t="n">
-        <v>1.995214323619043e-12</v>
+        <v>0.000489811587613076</v>
       </c>
       <c r="DR6" t="n">
-        <v>4.433161303329936e-12</v>
+        <v>0.0007703559240326285</v>
       </c>
       <c r="DS6" t="n">
-        <v>4.435188761392483e-12</v>
+        <v>0.0003343358112033457</v>
       </c>
       <c r="DT6" t="n">
-        <v>9.059951140005795e-14</v>
+        <v>0.0007213586359284818</v>
       </c>
       <c r="DU6" t="n">
-        <v>6.183229275813495e-12</v>
+        <v>0.0002308100665686652</v>
       </c>
       <c r="DV6" t="n">
-        <v>1.650093256477803e-12</v>
+        <v>0.001563257654197514</v>
       </c>
       <c r="DW6" t="n">
-        <v>2.222374031763535e-13</v>
+        <v>0.0002684990176931024</v>
       </c>
       <c r="DX6" t="n">
-        <v>1.132757949939833e-12</v>
+        <v>6.059945008018985e-05</v>
       </c>
       <c r="DY6" t="n">
-        <v>7.960202592569021e-13</v>
+        <v>0.0002192923275288194</v>
       </c>
       <c r="DZ6" t="n">
-        <v>3.252696939917699e-12</v>
+        <v>0.000736404734198004</v>
       </c>
       <c r="EA6" t="n">
-        <v>1.0896078960973e-12</v>
+        <v>0.0001262040459550917</v>
       </c>
       <c r="EB6" t="n">
-        <v>9.307740125516495e-13</v>
+        <v>0.000192172170500271</v>
       </c>
       <c r="EC6" t="n">
-        <v>1.478593614732959e-12</v>
+        <v>0.0001861808705143631</v>
       </c>
       <c r="ED6" t="n">
-        <v>2.251327813410087e-12</v>
+        <v>0.000122038894915022</v>
       </c>
       <c r="EE6" t="n">
-        <v>1.164847190059104e-12</v>
+        <v>0.0002854740596376359</v>
       </c>
       <c r="EF6" t="n">
-        <v>8.591932504006805e-13</v>
+        <v>0.0001665378658799455</v>
       </c>
       <c r="EG6" t="n">
-        <v>4.048425006689116e-13</v>
+        <v>0.0001828436652431265</v>
       </c>
       <c r="EH6" t="n">
-        <v>1.177782914599246e-13</v>
+        <v>0.0001953659229911864</v>
       </c>
       <c r="EI6" t="n">
-        <v>2.691930879594739e-13</v>
+        <v>0.0009501521126367152</v>
       </c>
       <c r="EJ6" t="n">
-        <v>2.084229327754122e-13</v>
+        <v>9.923581092152745e-05</v>
       </c>
       <c r="EK6" t="n">
-        <v>1.44637231878908e-12</v>
+        <v>0.0009510422823950648</v>
       </c>
       <c r="EL6" t="n">
-        <v>2.034481741061689e-12</v>
+        <v>0.0006295132916420698</v>
       </c>
       <c r="EM6" t="n">
-        <v>1.505839832167954e-12</v>
+        <v>0.0002521157148294151</v>
       </c>
       <c r="EN6" t="n">
-        <v>1.82416191527035e-12</v>
+        <v>0.0002508994075469673</v>
       </c>
       <c r="EO6" t="n">
-        <v>2.724968688194718e-12</v>
+        <v>0.0004090539005119354</v>
       </c>
       <c r="EP6" t="n">
-        <v>4.040300808760139e-13</v>
+        <v>5.795027391286567e-06</v>
       </c>
       <c r="EQ6" t="n">
-        <v>3.728688365012278e-13</v>
+        <v>1.088436511054169e-05</v>
       </c>
       <c r="ER6" t="n">
-        <v>2.518091854822324e-12</v>
+        <v>7.099706999724731e-05</v>
       </c>
       <c r="ES6" t="n">
-        <v>2.607059533532574e-12</v>
+        <v>0.0001171836047433317</v>
       </c>
       <c r="ET6" t="n">
-        <v>5.27174332833058e-13</v>
+        <v>0.0003768215538002551</v>
       </c>
       <c r="EU6" t="n">
-        <v>1.939594969010972e-12</v>
+        <v>0.0003979026223532856</v>
       </c>
       <c r="EV6" t="n">
-        <v>2.128909245072141e-12</v>
+        <v>2.696312731131911e-05</v>
       </c>
       <c r="EW6" t="n">
-        <v>3.784385456916117e-13</v>
+        <v>0.0003213782329112291</v>
       </c>
       <c r="EX6" t="n">
-        <v>3.33898978344821e-13</v>
+        <v>0.0001460650528315455</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.092701233315618e-12</v>
+        <v>0.0001762986648827791</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.689174950088301e-12</v>
+        <v>0.0001687089097686112</v>
       </c>
       <c r="FA6" t="n">
-        <v>1.434047542173134e-12</v>
+        <v>0.0004536908818408847</v>
       </c>
       <c r="FB6" t="n">
-        <v>3.1258277216617e-12</v>
+        <v>6.269472214626148e-05</v>
       </c>
       <c r="FC6" t="n">
-        <v>1.630728836471071e-13</v>
+        <v>0.0001126639836002141</v>
       </c>
       <c r="FD6" t="n">
-        <v>3.920211323529127e-13</v>
+        <v>4.792719846591353e-05</v>
       </c>
       <c r="FE6" t="n">
-        <v>2.052105447375441e-12</v>
+        <v>5.694618812412955e-05</v>
       </c>
       <c r="FF6" t="n">
-        <v>9.403287610371125e-13</v>
+        <v>6.083982589188963e-05</v>
       </c>
       <c r="FG6" t="n">
-        <v>1.363187340785998e-12</v>
+        <v>0.0003371666825842112</v>
       </c>
       <c r="FH6" t="n">
-        <v>1.32939492747397e-12</v>
+        <v>0.0004839531902689487</v>
       </c>
       <c r="FI6" t="n">
-        <v>6.15251231038394e-13</v>
+        <v>0.000344266853062436</v>
       </c>
       <c r="FJ6" t="n">
-        <v>4.917452621315543e-13</v>
+        <v>0.0008771251887083054</v>
       </c>
       <c r="FK6" t="n">
-        <v>2.972800174430579e-12</v>
+        <v>0.0006010605720803142</v>
       </c>
       <c r="FL6" t="n">
-        <v>1.741233893182148e-12</v>
+        <v>0.0002536216343287379</v>
       </c>
       <c r="FM6" t="n">
-        <v>8.526344100158109e-14</v>
+        <v>0.0002324461820535362</v>
       </c>
       <c r="FN6" t="n">
-        <v>6.354909654060492e-12</v>
+        <v>5.526089807972312e-05</v>
       </c>
       <c r="FO6" t="n">
-        <v>6.166899673212822e-13</v>
+        <v>0.0008559784037061036</v>
       </c>
       <c r="FP6" t="n">
-        <v>1.274830935260596e-13</v>
+        <v>0.0008012608159333467</v>
       </c>
       <c r="FQ6" t="n">
-        <v>5.38188200602252e-13</v>
+        <v>0.0001198520767502487</v>
       </c>
       <c r="FR6" t="n">
-        <v>2.270694483136326e-12</v>
+        <v>0.0003809535701293498</v>
       </c>
       <c r="FS6" t="n">
-        <v>4.929072774939591e-12</v>
+        <v>9.264072286896408e-05</v>
       </c>
       <c r="FT6" t="n">
-        <v>9.206677087369997e-12</v>
+        <v>0.001925706630572677</v>
       </c>
       <c r="FU6" t="n">
-        <v>5.140085839600017e-12</v>
+        <v>0.001255380688235164</v>
       </c>
       <c r="FV6" t="n">
-        <v>2.228354653577291e-12</v>
+        <v>0.0004515677283052355</v>
       </c>
       <c r="FW6" t="n">
-        <v>1.519081301720737e-12</v>
+        <v>0.0004858689790125936</v>
       </c>
       <c r="FX6" t="n">
-        <v>1.829071399547799e-12</v>
+        <v>0.0006539645255543292</v>
       </c>
       <c r="FY6" t="n">
-        <v>3.659750996178046e-13</v>
+        <v>0.0004275969404261559</v>
       </c>
       <c r="FZ6" t="n">
-        <v>4.405672875129607e-12</v>
+        <v>0.0001331244711764157</v>
       </c>
       <c r="GA6" t="n">
-        <v>1.140772806079715e-12</v>
+        <v>0.0002347496629226953</v>
       </c>
       <c r="GB6" t="n">
-        <v>4.188905732699366e-12</v>
+        <v>0.0006562821799889207</v>
       </c>
       <c r="GC6" t="n">
-        <v>2.658403445293667e-12</v>
+        <v>0.0008876501815393567</v>
       </c>
       <c r="GD6" t="n">
-        <v>1.704836684150723e-12</v>
+        <v>0.0005588068161159754</v>
       </c>
       <c r="GE6" t="n">
-        <v>3.418448467004676e-12</v>
+        <v>0.00151327415369451</v>
       </c>
       <c r="GF6" t="n">
-        <v>1.475904576504761e-12</v>
+        <v>0.0005598473362624645</v>
       </c>
       <c r="GG6" t="n">
-        <v>1.196639792463983e-12</v>
+        <v>0.001880111638456583</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0001351471291854978</v>
+        <v>9.138433370026178e-07</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001280368014704436</v>
+        <v>3.864612153847702e-06</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008097931277006865</v>
+        <v>7.592616384499706e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001855583162978292</v>
+        <v>1.850742478382017e-06</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001108202341129072</v>
+        <v>1.659255985941854e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0008379638311453164</v>
+        <v>1.427166694156767e-06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002012131590163335</v>
+        <v>1.914340543862636e-07</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000141278316732496</v>
+        <v>6.622538535339118e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004901017528027296</v>
+        <v>2.887989012378966e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0005608817446045578</v>
+        <v>8.938248470258259e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0004232306964695454</v>
+        <v>1.90153400581039e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0007920484058558941</v>
+        <v>8.431011337961536e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>0.001513561699539423</v>
+        <v>2.980301360366866e-06</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0009969649836421013</v>
+        <v>3.266703970439266e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0004627443850040436</v>
+        <v>7.75547235321028e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>0.0003215799515601248</v>
+        <v>1.163597971753916e-06</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0008076713420450687</v>
+        <v>1.011998051581031e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0004967506392858922</v>
+        <v>3.054777607758297e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0001088459175662138</v>
+        <v>2.090682471589389e-08</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0002566581533756107</v>
+        <v>1.172674615190772e-06</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003912136016879231</v>
+        <v>1.056661858456209e-06</v>
       </c>
       <c r="V7" t="n">
-        <v>4.613102646544576e-07</v>
+        <v>4.142261502693145e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001509637921117246</v>
+        <v>5.10358745486883e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>2.966439205920324e-05</v>
+        <v>4.679711196331482e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.0002227623335784301</v>
+        <v>3.720964514286607e-08</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.182320556836203e-05</v>
+        <v>1.225112100655679e-06</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.668631375650875e-05</v>
+        <v>6.795614240218129e-07</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002909970353357494</v>
+        <v>1.851433495403398e-07</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.000291490345261991</v>
+        <v>1.668106961005833e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.0002684218343347311</v>
+        <v>2.743536924754153e-06</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.845603017311078e-07</v>
+        <v>1.174095473288617e-06</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.0002155441616196185</v>
+        <v>3.586280854506185e-07</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0004328991926740855</v>
+        <v>1.258377324120374e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.000166943107615225</v>
+        <v>4.80858091123082e-08</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0004218814719934016</v>
+        <v>3.425048475946824e-07</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0001692364457994699</v>
+        <v>1.420537500962382e-06</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.0003218237252440304</v>
+        <v>5.849676654179348e-07</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.648983980994672e-05</v>
+        <v>8.953265933087096e-07</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.403896259143949e-05</v>
+        <v>2.385881145983149e-07</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.000923336308915168</v>
+        <v>2.056987682408362e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0001819337921915576</v>
+        <v>2.031097778854019e-07</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0006315828650258482</v>
+        <v>1.584122514941555e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>3.997460589744151e-05</v>
+        <v>7.532726726822148e-07</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.000129839958390221</v>
+        <v>9.325272571913956e-07</v>
       </c>
       <c r="AS7" t="n">
-        <v>3.418316919123754e-05</v>
+        <v>4.767211407852301e-07</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.780258703045547e-05</v>
+        <v>1.603668238203682e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.000141354335937649</v>
+        <v>4.63847709397669e-06</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.000401012395741418</v>
+        <v>1.832750342600775e-07</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.001449067378416657</v>
+        <v>5.029476710660674e-07</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0007241347921080887</v>
+        <v>2.547491703808191e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.0001888587430585176</v>
+        <v>1.678943817751133e-06</v>
       </c>
       <c r="AZ7" t="n">
-        <v>3.106928488705307e-05</v>
+        <v>1.247563773176807e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.000485403899801895</v>
+        <v>5.798933671030682e-07</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.0001634628133615479</v>
+        <v>3.221694839794509e-07</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.0001606792502570897</v>
+        <v>2.065268205342363e-07</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.543343387311324e-06</v>
+        <v>1.877316208265256e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.0003550842520780861</v>
+        <v>1.776617750692822e-07</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.0009270933223888278</v>
+        <v>1.60625052103569e-06</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.000511025486048311</v>
+        <v>2.537400860092021e-06</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.0001143747722380795</v>
+        <v>7.132816790544894e-07</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.0003794693620875478</v>
+        <v>2.706075292735477e-07</v>
       </c>
       <c r="BJ7" t="n">
-        <v>6.922845204826444e-05</v>
+        <v>9.738633934830432e-07</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0001728746283333749</v>
+        <v>3.321255917398958e-06</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0005620686570182443</v>
+        <v>6.182581273606047e-07</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0001676149840932339</v>
+        <v>5.65653976991598e-07</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0001548192230984569</v>
+        <v>1.405065518156334e-06</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0002788465935736895</v>
+        <v>2.459892698425392e-07</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.0007416466251015663</v>
+        <v>2.558888581916108e-06</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0001980266824830323</v>
+        <v>8.228347496697097e-07</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0001941843511303887</v>
+        <v>4.643577256047138e-07</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0001331960083916783</v>
+        <v>6.315804057521746e-07</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0001559037918923423</v>
+        <v>1.410938637036452e-07</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0003516904544085264</v>
+        <v>5.257128066205041e-08</v>
       </c>
       <c r="BV7" t="n">
-        <v>5.782354855909944e-05</v>
+        <v>2.702176516322652e-06</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0002386128471698612</v>
+        <v>1.088567387341755e-06</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.001228991895914078</v>
+        <v>9.421327717973327e-08</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.0005054709617979825</v>
+        <v>9.963597591422513e-08</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0008986499160528183</v>
+        <v>5.876144086869317e-07</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.0001588216691743582</v>
+        <v>1.925295691762585e-07</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.0003185544046573341</v>
+        <v>3.405747008855542e-07</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0001527579152025282</v>
+        <v>8.255815941993205e-07</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0002741809585131705</v>
+        <v>7.661107304102188e-08</v>
       </c>
       <c r="CE7" t="n">
-        <v>7.844356150599197e-05</v>
+        <v>9.541837471260806e-07</v>
       </c>
       <c r="CF7" t="n">
-        <v>5.78855506319087e-05</v>
+        <v>8.541974239051342e-08</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0004584192065522075</v>
+        <v>3.975137019551767e-07</v>
       </c>
       <c r="CH7" t="n">
-        <v>6.348054739646614e-06</v>
+        <v>5.628515964417602e-08</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0001205850421683863</v>
+        <v>2.461753183524706e-07</v>
       </c>
       <c r="CJ7" t="n">
-        <v>8.998920384328812e-05</v>
+        <v>1.59979222758011e-07</v>
       </c>
       <c r="CK7" t="n">
-        <v>3.559513788786717e-05</v>
+        <v>4.442437955276546e-07</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0002050726325251162</v>
+        <v>5.385707595451095e-07</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0001033638109220192</v>
+        <v>1.202313455905824e-06</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.0001728781644487754</v>
+        <v>6.889670771670353e-07</v>
       </c>
       <c r="CO7" t="n">
-        <v>7.512465526815504e-05</v>
+        <v>1.197901013938463e-07</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.00114740221761167</v>
+        <v>1.85733583180081e-07</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0002273857971886173</v>
+        <v>2.122595788023318e-06</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.0008291436242870986</v>
+        <v>4.177909573854777e-08</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0001508199202362448</v>
+        <v>1.041220684783184e-06</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0004387065710034221</v>
+        <v>1.1275204769845e-06</v>
       </c>
       <c r="CU7" t="n">
-        <v>3.788468893617392e-05</v>
+        <v>6.642579819526873e-08</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0002407199935987592</v>
+        <v>3.940262160995189e-08</v>
       </c>
       <c r="CW7" t="n">
-        <v>5.094523294246756e-05</v>
+        <v>1.104546299757203e-06</v>
       </c>
       <c r="CX7" t="n">
-        <v>8.050574251683429e-05</v>
+        <v>3.823572569672251e-08</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.000423657416831702</v>
+        <v>3.819536118498945e-07</v>
       </c>
       <c r="CZ7" t="n">
-        <v>3.678971552290022e-06</v>
+        <v>1.584825923828248e-07</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.0001280541910091415</v>
+        <v>3.790666625036465e-08</v>
       </c>
       <c r="DB7" t="n">
-        <v>1.048868580255657e-05</v>
+        <v>1.822641024773475e-07</v>
       </c>
       <c r="DC7" t="n">
-        <v>5.699006578652188e-05</v>
+        <v>5.228295663073368e-07</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0002299478655913845</v>
+        <v>1.924023678157027e-07</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0004517817578744143</v>
+        <v>1.656281227724321e-07</v>
       </c>
       <c r="DF7" t="n">
-        <v>7.603091944474727e-06</v>
+        <v>3.118563654425088e-06</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.0001800423924578354</v>
+        <v>1.230074758495903e-06</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.0004674626979976892</v>
+        <v>2.2254664600041e-06</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.0007897522882558405</v>
+        <v>2.836208295775577e-06</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.0004534730978775769</v>
+        <v>9.82397409643454e-07</v>
       </c>
       <c r="DK7" t="n">
-        <v>2.644058258738369e-05</v>
+        <v>6.036107151885517e-07</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.0001744996407069266</v>
+        <v>2.577101668066462e-06</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.0001109516524593346</v>
+        <v>5.214708380663069e-07</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0001430960546713322</v>
+        <v>6.096563538449118e-07</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.0001623172720428556</v>
+        <v>3.823832344096445e-07</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0001208470348501578</v>
+        <v>3.621315443069761e-07</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0001943023526109755</v>
+        <v>2.992424299463892e-07</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.0001791119138943031</v>
+        <v>4.762846970152168e-07</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0003455543192103505</v>
+        <v>3.650961275525333e-07</v>
       </c>
       <c r="DT7" t="n">
-        <v>7.436035957653075e-06</v>
+        <v>9.796124231797876e-07</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0004305148322600871</v>
+        <v>7.825912007319857e-07</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0003466458001639694</v>
+        <v>4.20998134131878e-07</v>
       </c>
       <c r="DW7" t="n">
-        <v>3.80908531951718e-05</v>
+        <v>4.733108198706759e-07</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0003682184033095837</v>
+        <v>2.547994881751947e-07</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.0001021099669742398</v>
+        <v>3.40401612675123e-07</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0004651747003663331</v>
+        <v>6.929638516339764e-07</v>
       </c>
       <c r="EA7" t="n">
-        <v>8.470563625451177e-05</v>
+        <v>1.554193573838347e-07</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0002045077853836119</v>
+        <v>5.031238288211171e-07</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.0001308353384956717</v>
+        <v>3.986420438195637e-08</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.0001801305916160345</v>
+        <v>7.968853310558188e-07</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0002928606700152159</v>
+        <v>1.462425416320912e-06</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0003201570361852646</v>
+        <v>9.891898145042433e-08</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.0001558634685352445</v>
+        <v>2.274828716508637e-07</v>
       </c>
       <c r="EH7" t="n">
-        <v>5.654669439536519e-05</v>
+        <v>5.433815886135562e-07</v>
       </c>
       <c r="EI7" t="n">
-        <v>4.278976120986044e-05</v>
+        <v>5.954623816251114e-07</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.0002668414381332695</v>
+        <v>7.249647069329512e-07</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.0003335436340421438</v>
+        <v>8.483436175765746e-09</v>
       </c>
       <c r="EL7" t="n">
-        <v>7.812840340193361e-05</v>
+        <v>3.361524250067305e-07</v>
       </c>
       <c r="EM7" t="n">
-        <v>6.31102011539042e-07</v>
+        <v>6.808074317632418e-07</v>
       </c>
       <c r="EN7" t="n">
-        <v>9.480455628363416e-05</v>
+        <v>8.942928957367258e-07</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0007920839707367122</v>
+        <v>4.641564714802371e-07</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.000115545408334583</v>
+        <v>1.953610308191855e-06</v>
       </c>
       <c r="EQ7" t="n">
-        <v>5.410226731328294e-05</v>
+        <v>4.937729158882576e-08</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0002859353553503752</v>
+        <v>1.555270330300118e-07</v>
       </c>
       <c r="ES7" t="n">
-        <v>6.445475446525961e-05</v>
+        <v>6.338632374536246e-07</v>
       </c>
       <c r="ET7" t="n">
-        <v>3.234676114516333e-05</v>
+        <v>7.541381705777894e-07</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0001758651924319565</v>
+        <v>7.161796133914322e-07</v>
       </c>
       <c r="EV7" t="n">
-        <v>1.386841904604807e-05</v>
+        <v>7.294095638599174e-08</v>
       </c>
       <c r="EW7" t="n">
-        <v>7.446777453878894e-05</v>
+        <v>2.676787573818729e-07</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0002151127118850127</v>
+        <v>1.349768581349053e-07</v>
       </c>
       <c r="EY7" t="n">
-        <v>6.317038059933111e-05</v>
+        <v>1.195397089759354e-06</v>
       </c>
       <c r="EZ7" t="n">
-        <v>6.4694722823333e-05</v>
+        <v>3.530949470587075e-07</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0003093567211180925</v>
+        <v>3.253816771575657e-07</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.0001151521719293669</v>
+        <v>1.616867564280255e-07</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0001817654701881111</v>
+        <v>8.254922789774355e-08</v>
       </c>
       <c r="FD7" t="n">
-        <v>5.18857741553802e-05</v>
+        <v>2.416823576822935e-07</v>
       </c>
       <c r="FE7" t="n">
-        <v>5.519613114302047e-05</v>
+        <v>5.812382823933149e-07</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0001334682019660249</v>
+        <v>1.195284795585394e-07</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.000157813701662235</v>
+        <v>5.132188363177193e-08</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.0003866718616336584</v>
+        <v>9.120346931013046e-07</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.0002044052525889128</v>
+        <v>1.758735947987589e-07</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.0002606306225061417</v>
+        <v>4.558855266623141e-07</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0002928815374616534</v>
+        <v>7.671889079574612e-07</v>
       </c>
       <c r="FL7" t="n">
-        <v>4.477598122321069e-05</v>
+        <v>1.094517870114942e-06</v>
       </c>
       <c r="FM7" t="n">
-        <v>1.514683390269056e-05</v>
+        <v>2.665908915844284e-08</v>
       </c>
       <c r="FN7" t="n">
-        <v>7.54130887798965e-05</v>
+        <v>5.223844254942378e-07</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.0004584441776387393</v>
+        <v>1.759451606631046e-06</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.0001024778030114248</v>
+        <v>2.555287892391789e-07</v>
       </c>
       <c r="FQ7" t="n">
-        <v>4.607907612808049e-06</v>
+        <v>1.350074171568849e-06</v>
       </c>
       <c r="FR7" t="n">
-        <v>6.541713082697242e-05</v>
+        <v>1.576411818859924e-07</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.0002410564920864999</v>
+        <v>4.139867542107822e-07</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.0001251134963240474</v>
+        <v>1.38157474793843e-06</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0003201648942194879</v>
+        <v>7.127783874238958e-07</v>
       </c>
       <c r="FV7" t="n">
-        <v>2.884306741179898e-05</v>
+        <v>2.676922576938523e-07</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0003626424004323781</v>
+        <v>3.984209229201952e-07</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0003545573563314974</v>
+        <v>3.364762903856899e-07</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0002357982157263905</v>
+        <v>6.17761429566599e-07</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0002745348610915244</v>
+        <v>1.932081886479864e-06</v>
       </c>
       <c r="GA7" t="n">
-        <v>3.752985503524542e-05</v>
+        <v>1.753215030930733e-07</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.0007443210924975574</v>
+        <v>1.293362629439798e-06</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.0002872965415008366</v>
+        <v>2.354497155465651e-06</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.000196562337805517</v>
+        <v>5.993322247377364e-07</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0002266429946757853</v>
+        <v>1.608546540410316e-08</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.978842919925228e-05</v>
+        <v>9.04457806427672e-07</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0004814972053281963</v>
+        <v>8.339177526295316e-08</v>
       </c>
     </row>
     <row r="8">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>8.638852159492671e-05</v>
+        <v>0.01159733440726995</v>
       </c>
       <c r="B9" t="n">
-        <v>2.214775304310024e-05</v>
+        <v>0.1843063086271286</v>
       </c>
       <c r="C9" t="n">
-        <v>2.971031790366396e-06</v>
+        <v>0.00565106887370348</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002880785032175481</v>
+        <v>0.1891607344150543</v>
       </c>
       <c r="E9" t="n">
-        <v>1.068608708010288e-05</v>
+        <v>0.03849045559763908</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0001246265310328454</v>
+        <v>0.07810821384191513</v>
       </c>
       <c r="G9" t="n">
-        <v>4.206659650662914e-05</v>
+        <v>0.04004359990358353</v>
       </c>
       <c r="H9" t="n">
-        <v>5.021514516556635e-05</v>
+        <v>0.04145510122179985</v>
       </c>
       <c r="I9" t="n">
-        <v>7.99225308583118e-05</v>
+        <v>0.02996984496712685</v>
       </c>
       <c r="J9" t="n">
-        <v>7.283946615643799e-05</v>
+        <v>0.03091942518949509</v>
       </c>
       <c r="K9" t="n">
-        <v>1.43931720231194e-05</v>
+        <v>0.13551926612854</v>
       </c>
       <c r="L9" t="n">
-        <v>1.206012348120566e-05</v>
+        <v>0.008499911054968834</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0002666572690941393</v>
+        <v>0.1509588807821274</v>
       </c>
       <c r="N9" t="n">
-        <v>8.022394467843696e-05</v>
+        <v>0.09204260259866714</v>
       </c>
       <c r="O9" t="n">
-        <v>8.54456884553656e-05</v>
+        <v>0.1133671030402184</v>
       </c>
       <c r="P9" t="n">
-        <v>6.74317343509756e-05</v>
+        <v>0.01941839046776295</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001404350623488426</v>
+        <v>0.01237150374799967</v>
       </c>
       <c r="R9" t="n">
-        <v>5.353182132239453e-05</v>
+        <v>0.0456942543387413</v>
       </c>
       <c r="S9" t="n">
-        <v>3.698132059071213e-05</v>
+        <v>0.01320487353950739</v>
       </c>
       <c r="T9" t="n">
-        <v>3.353015927132219e-05</v>
+        <v>0.0140247605741024</v>
       </c>
       <c r="U9" t="n">
-        <v>9.506037713435944e-06</v>
+        <v>0.01117658708244562</v>
       </c>
       <c r="V9" t="n">
-        <v>4.830068064620718e-06</v>
+        <v>0.0520031750202179</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001638940157135949</v>
+        <v>0.05320911109447479</v>
       </c>
       <c r="X9" t="n">
-        <v>4.910097777610645e-05</v>
+        <v>0.00536155654117465</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.671375816338696e-05</v>
+        <v>0.03904753178358078</v>
       </c>
       <c r="Z9" t="n">
-        <v>5.758030602009967e-05</v>
+        <v>0.02937828376889229</v>
       </c>
       <c r="AA9" t="n">
-        <v>3.597951945266686e-05</v>
+        <v>0.0407327301800251</v>
       </c>
       <c r="AB9" t="n">
-        <v>3.415841274545528e-05</v>
+        <v>0.01311482395976782</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.742838114500046e-05</v>
+        <v>0.02065679430961609</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.192521813209169e-05</v>
+        <v>0.01696950197219849</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.528776505845599e-05</v>
+        <v>0.01501890178769827</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.43984245066531e-05</v>
+        <v>0.03381342068314552</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.113244019914418e-05</v>
+        <v>0.04221201688051224</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.899633444845676e-05</v>
+        <v>0.002605417743325233</v>
       </c>
       <c r="AI9" t="n">
-        <v>8.664627239340916e-05</v>
+        <v>0.01915187947452068</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.48249546327861e-05</v>
+        <v>0.01322059519588947</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.771824700990692e-06</v>
+        <v>3.102817572653294e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>1.452295055059949e-05</v>
+        <v>0.02723713777959347</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.772520019789226e-06</v>
+        <v>0.0151095874607563</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0001069219069904648</v>
+        <v>0.01254757679998875</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.706062878132798e-05</v>
+        <v>0.02453245222568512</v>
       </c>
       <c r="AP9" t="n">
-        <v>6.220745854079723e-05</v>
+        <v>0.03238767385482788</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.626390823934344e-06</v>
+        <v>0.001920741051435471</v>
       </c>
       <c r="AR9" t="n">
-        <v>6.723212209180929e-07</v>
+        <v>0.002612553536891937</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.148934981960338e-06</v>
+        <v>0.03217088431119919</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.877729457395617e-05</v>
+        <v>0.0361756831407547</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.980734123208094e-05</v>
+        <v>0.1306378841400146</v>
       </c>
       <c r="AV9" t="n">
-        <v>8.022856491152197e-06</v>
+        <v>0.020560622215271</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0001199091639136896</v>
+        <v>0.05763350799679756</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0001141804968938231</v>
+        <v>0.02483832277357578</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.910633914638311e-05</v>
+        <v>0.02489928714931011</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.847994594252668e-05</v>
+        <v>0.02325284481048584</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0001422533096047118</v>
+        <v>0.01727645844221115</v>
       </c>
       <c r="BB9" t="n">
-        <v>5.44165086466819e-05</v>
+        <v>0.03783561661839485</v>
       </c>
       <c r="BC9" t="n">
-        <v>4.633315620594658e-05</v>
+        <v>0.03488301113247871</v>
       </c>
       <c r="BD9" t="n">
-        <v>9.640613825467881e-06</v>
+        <v>0.01121322251856327</v>
       </c>
       <c r="BE9" t="n">
-        <v>9.446517651667818e-06</v>
+        <v>0.038853969424963</v>
       </c>
       <c r="BF9" t="n">
-        <v>0.0001760574377840385</v>
+        <v>0.0313369482755661</v>
       </c>
       <c r="BG9" t="n">
-        <v>6.53966490062885e-05</v>
+        <v>0.06614040583372116</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.033542791148648e-05</v>
+        <v>0.04816320538520813</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.694938691798598e-05</v>
+        <v>0.05312150344252586</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.790897840692196e-05</v>
+        <v>0.0123094217851758</v>
       </c>
       <c r="BK9" t="n">
-        <v>7.321754674194381e-05</v>
+        <v>0.02841702662408352</v>
       </c>
       <c r="BL9" t="n">
-        <v>6.121253682067618e-05</v>
+        <v>0.009274167940020561</v>
       </c>
       <c r="BM9" t="n">
-        <v>6.212030257302104e-06</v>
+        <v>0.03079488500952721</v>
       </c>
       <c r="BN9" t="n">
-        <v>4.065757093485445e-05</v>
+        <v>0.01105742808431387</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.426935978088295e-05</v>
+        <v>0.007446954026818275</v>
       </c>
       <c r="BP9" t="n">
-        <v>5.657670044456609e-05</v>
+        <v>0.01635989360511303</v>
       </c>
       <c r="BQ9" t="n">
-        <v>4.624745088221971e-06</v>
+        <v>0.01666179485619068</v>
       </c>
       <c r="BR9" t="n">
-        <v>1.348288969893474e-05</v>
+        <v>0.01279114745557308</v>
       </c>
       <c r="BS9" t="n">
-        <v>6.688526809739415e-06</v>
+        <v>0.01609349623322487</v>
       </c>
       <c r="BT9" t="n">
-        <v>1.079046342056245e-06</v>
+        <v>0.02135056257247925</v>
       </c>
       <c r="BU9" t="n">
-        <v>2.70493019343121e-05</v>
+        <v>0.03055419959127903</v>
       </c>
       <c r="BV9" t="n">
-        <v>7.599455420859158e-05</v>
+        <v>0.0679587721824646</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.273621794302016e-05</v>
+        <v>0.01407537795603275</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001706812909105793</v>
+        <v>0.05340342223644257</v>
       </c>
       <c r="BY9" t="n">
-        <v>7.159364758990705e-05</v>
+        <v>0.02852585539221764</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.705748091917485e-05</v>
+        <v>0.0002326589310541749</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.233851253346074e-05</v>
+        <v>0.001688949763774872</v>
       </c>
       <c r="CB9" t="n">
-        <v>6.630989446421154e-06</v>
+        <v>0.0273628868162632</v>
       </c>
       <c r="CC9" t="n">
-        <v>7.915898095234297e-06</v>
+        <v>0.05303442850708961</v>
       </c>
       <c r="CD9" t="n">
-        <v>5.606486956821755e-05</v>
+        <v>0.01260977238416672</v>
       </c>
       <c r="CE9" t="n">
-        <v>7.125575848476728e-06</v>
+        <v>0.02815109863877296</v>
       </c>
       <c r="CF9" t="n">
-        <v>1.707814772089478e-05</v>
+        <v>0.02510976605117321</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.534417869057506e-05</v>
+        <v>0.02851833403110504</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.049217982857954e-05</v>
+        <v>0.002558908658102155</v>
       </c>
       <c r="CI9" t="n">
-        <v>2.582834713393822e-05</v>
+        <v>0.01131438836455345</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.408733053016476e-07</v>
+        <v>0.006078315898776054</v>
       </c>
       <c r="CK9" t="n">
-        <v>2.153027162421495e-05</v>
+        <v>0.006281054113060236</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.230356767540798e-05</v>
+        <v>0.01905182376503944</v>
       </c>
       <c r="CM9" t="n">
-        <v>2.931183189502917e-05</v>
+        <v>0.0113410847261548</v>
       </c>
       <c r="CN9" t="n">
-        <v>6.627395487157628e-05</v>
+        <v>0.01152760069817305</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.0401230105781e-05</v>
+        <v>0.004730089101940393</v>
       </c>
       <c r="CP9" t="n">
-        <v>0.0001357470755465329</v>
+        <v>0.03737816587090492</v>
       </c>
       <c r="CQ9" t="n">
-        <v>2.210830643889494e-05</v>
+        <v>0.002565400674939156</v>
       </c>
       <c r="CR9" t="n">
-        <v>0.0001698248670436442</v>
+        <v>0.00406348705291748</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.648222314543091e-05</v>
+        <v>0.05006115511059761</v>
       </c>
       <c r="CT9" t="n">
-        <v>3.483865657472052e-05</v>
+        <v>0.0608440563082695</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0001044878590619192</v>
+        <v>0.005311650224030018</v>
       </c>
       <c r="CV9" t="n">
-        <v>6.348360329866409e-05</v>
+        <v>0.01313129253685474</v>
       </c>
       <c r="CW9" t="n">
-        <v>1.595576577528846e-05</v>
+        <v>0.02585416659712791</v>
       </c>
       <c r="CX9" t="n">
-        <v>2.99929433822399e-05</v>
+        <v>0.02407308481633663</v>
       </c>
       <c r="CY9" t="n">
-        <v>4.683807856054045e-05</v>
+        <v>0.03405803442001343</v>
       </c>
       <c r="CZ9" t="n">
-        <v>1.13232817966491e-05</v>
+        <v>0.006618225015699863</v>
       </c>
       <c r="DA9" t="n">
-        <v>2.551506804593373e-05</v>
+        <v>0.01434384379535913</v>
       </c>
       <c r="DB9" t="n">
-        <v>6.824746833444806e-06</v>
+        <v>0.009977361187338829</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.02156864159042e-05</v>
+        <v>0.01352670695632696</v>
       </c>
       <c r="DD9" t="n">
-        <v>1.911330946313683e-05</v>
+        <v>0.01547967176884413</v>
       </c>
       <c r="DE9" t="n">
-        <v>6.276409840211272e-05</v>
+        <v>0.002134258858859539</v>
       </c>
       <c r="DF9" t="n">
-        <v>5.14961539010983e-05</v>
+        <v>0.02176038734614849</v>
       </c>
       <c r="DG9" t="n">
-        <v>3.320782707305625e-05</v>
+        <v>0.01441620849072933</v>
       </c>
       <c r="DH9" t="n">
-        <v>1.494709249527659e-05</v>
+        <v>0.09654320776462555</v>
       </c>
       <c r="DI9" t="n">
-        <v>7.667148020118475e-05</v>
+        <v>0.01200918853282928</v>
       </c>
       <c r="DJ9" t="n">
-        <v>7.920449206721969e-06</v>
+        <v>0.02874550595879555</v>
       </c>
       <c r="DK9" t="n">
-        <v>3.689434379339218e-05</v>
+        <v>0.02689757198095322</v>
       </c>
       <c r="DL9" t="n">
-        <v>0.0001499662175774574</v>
+        <v>0.01605705544352531</v>
       </c>
       <c r="DM9" t="n">
-        <v>3.313519846415147e-05</v>
+        <v>0.007516094949096441</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.213804691564292e-05</v>
+        <v>0.01820283569395542</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.204919241601601e-05</v>
+        <v>0.01548007223755121</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.66619192896178e-05</v>
+        <v>0.001271536340937018</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.246574720425997e-05</v>
+        <v>0.03489398956298828</v>
       </c>
       <c r="DR9" t="n">
-        <v>9.019480785354972e-05</v>
+        <v>0.01512646116316319</v>
       </c>
       <c r="DS9" t="n">
-        <v>5.744356258219341e-06</v>
+        <v>0.01339990738779306</v>
       </c>
       <c r="DT9" t="n">
-        <v>3.829843626590446e-05</v>
+        <v>0.01014251261949539</v>
       </c>
       <c r="DU9" t="n">
-        <v>5.820820297230966e-05</v>
+        <v>0.0002002683468163013</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.278137278859504e-05</v>
+        <v>0.04418114200234413</v>
       </c>
       <c r="DW9" t="n">
-        <v>4.001328761660261e-06</v>
+        <v>0.008608399890363216</v>
       </c>
       <c r="DX9" t="n">
-        <v>1.653699837333988e-05</v>
+        <v>0.01540405303239822</v>
       </c>
       <c r="DY9" t="n">
-        <v>2.138602394552436e-05</v>
+        <v>0.04074981808662415</v>
       </c>
       <c r="DZ9" t="n">
-        <v>2.462390875734854e-05</v>
+        <v>0.01178280729800463</v>
       </c>
       <c r="EA9" t="n">
-        <v>4.171438195044175e-05</v>
+        <v>0.01032804977148771</v>
       </c>
       <c r="EB9" t="n">
-        <v>2.840449633367825e-05</v>
+        <v>0.01989052444696426</v>
       </c>
       <c r="EC9" t="n">
-        <v>7.262896360771265e-06</v>
+        <v>0.0120914401486516</v>
       </c>
       <c r="ED9" t="n">
-        <v>6.127265805844218e-08</v>
+        <v>0.007561148144304752</v>
       </c>
       <c r="EE9" t="n">
-        <v>7.938138878671452e-06</v>
+        <v>0.01152435038238764</v>
       </c>
       <c r="EF9" t="n">
-        <v>2.465004399709869e-05</v>
+        <v>0.0007426748052239418</v>
       </c>
       <c r="EG9" t="n">
-        <v>8.622693712823093e-06</v>
+        <v>0.01464186795055866</v>
       </c>
       <c r="EH9" t="n">
-        <v>1.982282810786273e-06</v>
+        <v>0.02188116312026978</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.0001000576303340495</v>
+        <v>0.01363140065222979</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.090601628879085e-05</v>
+        <v>0.02717372216284275</v>
       </c>
       <c r="EK9" t="n">
-        <v>3.341532283229753e-05</v>
+        <v>0.01427541207522154</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.52447830462188e-06</v>
+        <v>0.01378155592828989</v>
       </c>
       <c r="EM9" t="n">
-        <v>1.633594365557656e-05</v>
+        <v>0.0008962028659880161</v>
       </c>
       <c r="EN9" t="n">
-        <v>6.051818672858644e-06</v>
+        <v>0.002037327736616135</v>
       </c>
       <c r="EO9" t="n">
-        <v>8.879214874468744e-05</v>
+        <v>0.001602384261786938</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.025424565654248e-05</v>
+        <v>0.0285011138767004</v>
       </c>
       <c r="EQ9" t="n">
-        <v>2.98530494546867e-06</v>
+        <v>0.01700645312666893</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.974549195438158e-05</v>
+        <v>0.02205364219844341</v>
       </c>
       <c r="ES9" t="n">
-        <v>2.220235910499468e-05</v>
+        <v>0.01008371170610189</v>
       </c>
       <c r="ET9" t="n">
-        <v>2.59698163063149e-06</v>
+        <v>0.07429312914609909</v>
       </c>
       <c r="EU9" t="n">
-        <v>1.153999255620874e-05</v>
+        <v>0.04135472699999809</v>
       </c>
       <c r="EV9" t="n">
-        <v>3.545516665326431e-05</v>
+        <v>0.02321888320147991</v>
       </c>
       <c r="EW9" t="n">
-        <v>4.278902906662552e-06</v>
+        <v>0.006739349104464054</v>
       </c>
       <c r="EX9" t="n">
-        <v>5.162095112609677e-05</v>
+        <v>0.008298815228044987</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.180008439405356e-06</v>
+        <v>0.0209547933191061</v>
       </c>
       <c r="EZ9" t="n">
-        <v>2.678227610886097e-05</v>
+        <v>0.01840382814407349</v>
       </c>
       <c r="FA9" t="n">
-        <v>4.745510523207486e-05</v>
+        <v>0.0358041524887085</v>
       </c>
       <c r="FB9" t="n">
-        <v>3.480082159512676e-05</v>
+        <v>0.004135967697948217</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.096169166383334e-05</v>
+        <v>0.01219214126467705</v>
       </c>
       <c r="FD9" t="n">
-        <v>7.105356417014264e-06</v>
+        <v>0.01687974855303764</v>
       </c>
       <c r="FE9" t="n">
-        <v>2.573178335296689e-06</v>
+        <v>0.01189196668565273</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.817143013089662e-06</v>
+        <v>0.02449506148695946</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.115742583759129e-05</v>
+        <v>0.003559214528650045</v>
       </c>
       <c r="FH9" t="n">
-        <v>1.560696728120092e-05</v>
+        <v>0.009300832636654377</v>
       </c>
       <c r="FI9" t="n">
-        <v>4.162558980169706e-05</v>
+        <v>0.01485447678714991</v>
       </c>
       <c r="FJ9" t="n">
-        <v>1.37219712996739e-05</v>
+        <v>0.009863592684268951</v>
       </c>
       <c r="FK9" t="n">
-        <v>5.878082447452471e-05</v>
+        <v>0.0281806718558073</v>
       </c>
       <c r="FL9" t="n">
-        <v>4.584290581988171e-05</v>
+        <v>0.01151716150343418</v>
       </c>
       <c r="FM9" t="n">
-        <v>2.256097286590375e-05</v>
+        <v>0.005272210109978914</v>
       </c>
       <c r="FN9" t="n">
-        <v>1.180438084702473e-05</v>
+        <v>0.006347487680613995</v>
       </c>
       <c r="FO9" t="n">
-        <v>3.014953108504415e-05</v>
+        <v>0.01177823636680841</v>
       </c>
       <c r="FP9" t="n">
-        <v>2.80081330856774e-05</v>
+        <v>0.002077354583889246</v>
       </c>
       <c r="FQ9" t="n">
-        <v>2.37689346249681e-06</v>
+        <v>0.01098998729139566</v>
       </c>
       <c r="FR9" t="n">
-        <v>4.58937392977532e-06</v>
+        <v>0.03805073350667953</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001180081453640014</v>
+        <v>0.01764926873147488</v>
       </c>
       <c r="FT9" t="n">
-        <v>7.588236621813849e-05</v>
+        <v>0.0188201442360878</v>
       </c>
       <c r="FU9" t="n">
-        <v>9.037832933245227e-05</v>
+        <v>0.01689722016453743</v>
       </c>
       <c r="FV9" t="n">
-        <v>1.085665735445218e-05</v>
+        <v>0.01179972104728222</v>
       </c>
       <c r="FW9" t="n">
-        <v>2.040171602857299e-05</v>
+        <v>0.03029347211122513</v>
       </c>
       <c r="FX9" t="n">
-        <v>2.458145536365919e-05</v>
+        <v>0.007438533008098602</v>
       </c>
       <c r="FY9" t="n">
-        <v>4.374724085209891e-05</v>
+        <v>0.03268014639616013</v>
       </c>
       <c r="FZ9" t="n">
-        <v>7.369041122728959e-05</v>
+        <v>0.002169509185478091</v>
       </c>
       <c r="GA9" t="n">
-        <v>5.478507227962837e-05</v>
+        <v>0.02591873705387115</v>
       </c>
       <c r="GB9" t="n">
-        <v>8.117238758131862e-05</v>
+        <v>0.00268549844622612</v>
       </c>
       <c r="GC9" t="n">
-        <v>5.675046850228682e-05</v>
+        <v>0.009280694648623466</v>
       </c>
       <c r="GD9" t="n">
-        <v>5.463849447551183e-06</v>
+        <v>0.02399880439043045</v>
       </c>
       <c r="GE9" t="n">
-        <v>7.730042852926999e-06</v>
+        <v>0.1140863224864006</v>
       </c>
       <c r="GF9" t="n">
-        <v>8.015230559976771e-05</v>
+        <v>0.009208903647959232</v>
       </c>
       <c r="GG9" t="n">
-        <v>7.793795521138236e-05</v>
+        <v>0.01063999347388744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0005881626857444644</v>
+        <v>0.4768241941928864</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003077110508456826</v>
+        <v>2.101540327072144</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003484008484520018</v>
+        <v>0.2999093532562256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00870665255934</v>
+        <v>0.7276868224143982</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001280753058381379</v>
+        <v>0.4920451045036316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004505009856075048</v>
+        <v>0.3280230760574341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003352755913510919</v>
+        <v>0.1156080663204193</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004296416416764259</v>
+        <v>0.2485907822847366</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001012100256048143</v>
+        <v>0.1991948485374451</v>
       </c>
       <c r="J10" t="n">
-        <v>4.487566184252501e-05</v>
+        <v>0.7117965221405029</v>
       </c>
       <c r="K10" t="n">
-        <v>0.00202854024246335</v>
+        <v>1.552080512046814</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001045158132910728</v>
+        <v>0.0946439728140831</v>
       </c>
       <c r="M10" t="n">
-        <v>0.007142697460949421</v>
+        <v>0.5360439419746399</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003405680414289236</v>
+        <v>0.2811135351657867</v>
       </c>
       <c r="O10" t="n">
-        <v>0.00652657076716423</v>
+        <v>0.185700535774231</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002371878828853369</v>
+        <v>0.3328795433044434</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.007741213776171207</v>
+        <v>0.239370733499527</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0008169628563337028</v>
+        <v>0.06143816560506821</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002330364193767309</v>
+        <v>0.08081012964248657</v>
       </c>
       <c r="T10" t="n">
-        <v>0.001572717912495136</v>
+        <v>0.2142170369625092</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0004110024601686746</v>
+        <v>0.02402916550636292</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0005343332886695862</v>
+        <v>0.2999182641506195</v>
       </c>
       <c r="W10" t="n">
-        <v>0.005263788159936666</v>
+        <v>0.3931003510951996</v>
       </c>
       <c r="X10" t="n">
-        <v>0.002620391314849257</v>
+        <v>0.08831114321947098</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0002089455374516547</v>
+        <v>0.1991826295852661</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.00139291281811893</v>
+        <v>0.4211857616901398</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001001529511995614</v>
+        <v>0.1916453242301941</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0007365259225480258</v>
+        <v>0.1745698153972626</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.002013736637309194</v>
+        <v>0.1262324601411819</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.001871799933724105</v>
+        <v>0.3896163702011108</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.003632720559835434</v>
+        <v>0.01995748654007912</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0007884484948590398</v>
+        <v>0.2539646923542023</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.002207692246884108</v>
+        <v>0.317892998456955</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.002202907809987664</v>
+        <v>0.0364014208316803</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.00145755719859153</v>
+        <v>0.1203501895070076</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0005325507954694331</v>
+        <v>0.02874869480729103</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0001631767372600734</v>
+        <v>0.272471010684967</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0003008645435329527</v>
+        <v>0.02035520412027836</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0003167302347719669</v>
+        <v>0.00856928713619709</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.002193667460232973</v>
+        <v>0.1493473052978516</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.001808560336939991</v>
+        <v>0.2866906523704529</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.001389048411510885</v>
+        <v>0.2256805598735809</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0005027767620049417</v>
+        <v>0.02718766406178474</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0005577582633122802</v>
+        <v>0.02566963620483875</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0001418640749761835</v>
+        <v>0.1673124730587006</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0003781674313358963</v>
+        <v>0.0006862059235572815</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.001134176272898912</v>
+        <v>1.162028312683105</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.0004621053521987051</v>
+        <v>0.2527472674846649</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.002045674249529839</v>
+        <v>0.1092361286282539</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.002554839476943016</v>
+        <v>0.2343878000974655</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0002839211374521255</v>
+        <v>0.4563959836959839</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.004025993403047323</v>
+        <v>0.1356900930404663</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.003434162121266127</v>
+        <v>0.09149684011936188</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0004531838640104979</v>
+        <v>0.418231874704361</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0007149720331653953</v>
+        <v>0.3692283034324646</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.0006848059128969908</v>
+        <v>0.3936659395694733</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.001355307176709175</v>
+        <v>0.3391965925693512</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.005845344625413418</v>
+        <v>0.2144186645746231</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.004578771535307169</v>
+        <v>0.5659043788909912</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.00128382514230907</v>
+        <v>0.009705050848424435</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0008684966596774757</v>
+        <v>0.02585248276591301</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.056848774780519e-05</v>
+        <v>0.5028321743011475</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.0002926246379502118</v>
+        <v>0.1204149276018143</v>
       </c>
       <c r="BL10" t="n">
-        <v>2.919961116276681e-05</v>
+        <v>0.04865129292011261</v>
       </c>
       <c r="BM10" t="n">
-        <v>3.943688352592289e-05</v>
+        <v>0.6368036270141602</v>
       </c>
       <c r="BN10" t="n">
-        <v>6.789926555939019e-05</v>
+        <v>0.189355343580246</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.001475299475714564</v>
+        <v>0.2439803928136826</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.000901796855032444</v>
+        <v>0.009006224572658539</v>
       </c>
       <c r="BQ10" t="n">
-        <v>0.0006056815036572516</v>
+        <v>0.02679546549916267</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.001037148060277104</v>
+        <v>0.02520968206226826</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.001793557312339544</v>
+        <v>0.01009425893425941</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0004967609420418739</v>
+        <v>0.06678818166255951</v>
       </c>
       <c r="BU10" t="n">
-        <v>8.795165922492743e-05</v>
+        <v>0.07869666814804077</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.002074817661195993</v>
+        <v>0.6010829210281372</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0008369393763132393</v>
+        <v>0.2733942270278931</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.002803556621074677</v>
+        <v>0.181873619556427</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.001914549036882818</v>
+        <v>0.2585701048374176</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0009699629154056311</v>
+        <v>0.0795481950044632</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.001081259571947157</v>
+        <v>0.1863056719303131</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001990678254514933</v>
+        <v>0.04623475298285484</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.001172352582216263</v>
+        <v>0.3304594159126282</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.0003572604327928275</v>
+        <v>0.04036753624677658</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0008385250112041831</v>
+        <v>0.3753097057342529</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0002776590117719024</v>
+        <v>0.1455806940793991</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.001738700433634222</v>
+        <v>0.02533667162060738</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0004209197941236198</v>
+        <v>0.1057704463601112</v>
       </c>
       <c r="CI10" t="n">
-        <v>9.095573477679864e-05</v>
+        <v>0.01131173968315125</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0001988756121136248</v>
+        <v>0.04044258594512939</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.000399728276534006</v>
+        <v>0.06752991676330566</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0005874185590073466</v>
+        <v>0.1680604517459869</v>
       </c>
       <c r="CM10" t="n">
-        <v>3.401783760637045e-05</v>
+        <v>0.300919234752655</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.001808498869650066</v>
+        <v>0.03110276162624359</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.0008453713380731642</v>
+        <v>0.01793444156646729</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.002303738379850984</v>
+        <v>0.3113925457000732</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.003704073606058955</v>
+        <v>0.1402168422937393</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0007628360763192177</v>
+        <v>0.1094981953501701</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.0002438109659124166</v>
+        <v>0.1807921826839447</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001775745884515345</v>
+        <v>0.1370264291763306</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.001466022804379463</v>
+        <v>0.2035326212644577</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0001537923235446215</v>
+        <v>0.04662680998444557</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0001693930535111576</v>
+        <v>0.3188540935516357</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0001795636053429917</v>
+        <v>0.1556059718132019</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0009231154108420014</v>
+        <v>0.1466658711433411</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0005724982474930584</v>
+        <v>0.1629732549190521</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0006056845304556191</v>
+        <v>0.02089064754545689</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001092460297513753</v>
+        <v>0.09582416713237762</v>
       </c>
       <c r="DC10" t="n">
-        <v>8.260022877948359e-05</v>
+        <v>0.02109989523887634</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0008691355469636619</v>
+        <v>0.1082740873098373</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.002430400578305125</v>
+        <v>0.001519009470939636</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0001878231996670365</v>
+        <v>0.3817138969898224</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0004753927350975573</v>
+        <v>0.4476485252380371</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.002477525500580668</v>
+        <v>0.5689278244972229</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.003633950604125857</v>
+        <v>0.2987282872200012</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.0006303929258137941</v>
+        <v>0.4035350680351257</v>
       </c>
       <c r="DK10" t="n">
-        <v>0.002023214707151055</v>
+        <v>0.1598866432905197</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.002986048115417361</v>
+        <v>0.004542704671621323</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0007477140170522034</v>
+        <v>0.2129227519035339</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0003771266201511025</v>
+        <v>0.07100268453359604</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.002050339709967375</v>
+        <v>0.10549096763134</v>
       </c>
       <c r="DP10" t="n">
-        <v>9.370461339130998e-05</v>
+        <v>0.3034035563468933</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0003159830230288208</v>
+        <v>0.1166962087154388</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.0008153784438036382</v>
+        <v>0.01193367503583431</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.0003273290349170566</v>
+        <v>0.3919417262077332</v>
       </c>
       <c r="DT10" t="n">
-        <v>0.0003792848438024521</v>
+        <v>0.0951661616563797</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0015912662493065</v>
+        <v>0.2808532416820526</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0002303272485733032</v>
+        <v>0.09588623046875</v>
       </c>
       <c r="DW10" t="n">
-        <v>9.106396464630961e-05</v>
+        <v>0.1176909059286118</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.001412174664437771</v>
+        <v>0.1696338355541229</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0003090544196311384</v>
+        <v>0.1700934618711472</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.0008068538154475391</v>
+        <v>0.2370507419109344</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0007939139031805098</v>
+        <v>0.02034887485206127</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.001632225350476801</v>
+        <v>0.1871681809425354</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0007834522984921932</v>
+        <v>0.1317036747932434</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.00194634182844311</v>
+        <v>0.2543799579143524</v>
       </c>
       <c r="EE10" t="n">
-        <v>0.0008163288002833724</v>
+        <v>0.2224903255701065</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0004989530425518751</v>
+        <v>0.0820654034614563</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0007069187704473734</v>
+        <v>0.2878077030181885</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0007145348354242742</v>
+        <v>0.0624726228415966</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.00380080915056169</v>
+        <v>0.09748191386461258</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.0002354547614231706</v>
+        <v>0.02823194675147533</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.000578005681745708</v>
+        <v>0.0064881956204772</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0006932812975719571</v>
+        <v>0.02473636530339718</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0001722486049402505</v>
+        <v>0.06914043426513672</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0004798651789315045</v>
+        <v>0.2043403834104538</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0007146059069782495</v>
+        <v>0.1250996589660645</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0002816670166794211</v>
+        <v>0.2150013595819473</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0003829548368230462</v>
+        <v>0.02832543291151524</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0007360464660450816</v>
+        <v>0.06292832642793655</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.0003848153282888234</v>
+        <v>0.2532707750797272</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.002184611279517412</v>
+        <v>0.3605711758136749</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.000815463368780911</v>
+        <v>0.3514834642410278</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.0003835494280792773</v>
+        <v>0.08417607843875885</v>
       </c>
       <c r="EW10" t="n">
-        <v>6.081840547267348e-05</v>
+        <v>0.03331375867128372</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0002565791655797511</v>
+        <v>0.0156894326210022</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0003941532922908664</v>
+        <v>0.3447606265544891</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0001842392375692725</v>
+        <v>0.09213783591985703</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.001120302826166153</v>
+        <v>0.1166051030158997</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.000664960069116205</v>
+        <v>0.06163594871759415</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0006079775048419833</v>
+        <v>0.02984112501144409</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0001343092008028179</v>
+        <v>0.1155823543667793</v>
       </c>
       <c r="FE10" t="n">
-        <v>0.000339787860866636</v>
+        <v>0.02034449577331543</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.0002999165444634855</v>
+        <v>0.227027103304863</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0007932445732876658</v>
+        <v>0.1001014783978462</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0002005826099775732</v>
+        <v>0.05832698568701744</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0003357810783199966</v>
+        <v>0.1078099459409714</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0004708653723355383</v>
+        <v>0.2671985924243927</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0006600992055609822</v>
+        <v>0.05577125400304794</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.00119307916611433</v>
+        <v>0.03404702618718147</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0003485118795651942</v>
+        <v>0.06580384075641632</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.0005108467303216457</v>
+        <v>0.1392786055803299</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.001610552193596959</v>
+        <v>0.2307750284671783</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.003127065021544695</v>
+        <v>0.2510324120521545</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.0004401584446895868</v>
+        <v>0.1053277105093002</v>
       </c>
       <c r="FR10" t="n">
-        <v>0.001389629091136158</v>
+        <v>0.4600068628787994</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.0001411507837474346</v>
+        <v>0.2223362028598785</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.001637385925278068</v>
+        <v>0.03824559599161148</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0006559421308338642</v>
+        <v>0.06552752107381821</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.00113616744056344</v>
+        <v>0.2976703941822052</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.001175537589006126</v>
+        <v>0.03617972880601883</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0009790412150323391</v>
+        <v>0.1620360463857651</v>
       </c>
       <c r="FY10" t="n">
-        <v>6.818259134888649e-05</v>
+        <v>0.6349157094955444</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.0004614695499185473</v>
+        <v>0.08321836590766907</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0006454454851336777</v>
+        <v>0.3049256801605225</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.001181197469122708</v>
+        <v>0.05581892654299736</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0001489058340666816</v>
+        <v>0.09375064074993134</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0002189569204347208</v>
+        <v>0.2378468066453934</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.0003809421032201499</v>
+        <v>0.6340449452400208</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0004825142386835068</v>
+        <v>0.2594201564788818</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0005641310708597302</v>
+        <v>0.07772674411535263</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>7.085461550815353e-09</v>
+        <v>0.000871627067681402</v>
       </c>
       <c r="B11" t="n">
-        <v>3.012817018088754e-08</v>
+        <v>0.05527373030781746</v>
       </c>
       <c r="C11" t="n">
-        <v>1.910252400705303e-09</v>
+        <v>0.004489256534725428</v>
       </c>
       <c r="D11" t="n">
-        <v>3.430344364119264e-08</v>
+        <v>0.02270861156284809</v>
       </c>
       <c r="E11" t="n">
-        <v>8.426686548546058e-08</v>
+        <v>0.02986342087388039</v>
       </c>
       <c r="F11" t="n">
-        <v>4.64050344817224e-08</v>
+        <v>0.0228981077671051</v>
       </c>
       <c r="G11" t="n">
-        <v>2.68052708918276e-08</v>
+        <v>0.0007471852004528046</v>
       </c>
       <c r="H11" t="n">
-        <v>1.393307602626237e-08</v>
+        <v>0.02151578292250633</v>
       </c>
       <c r="I11" t="n">
-        <v>1.980466457496277e-09</v>
+        <v>0.0002896753139793873</v>
       </c>
       <c r="J11" t="n">
-        <v>1.698468032884648e-08</v>
+        <v>0.0003596520982682705</v>
       </c>
       <c r="K11" t="n">
-        <v>5.638080935455037e-08</v>
+        <v>0.04709902033209801</v>
       </c>
       <c r="L11" t="n">
-        <v>1.079839329065635e-08</v>
+        <v>0.004319678992033005</v>
       </c>
       <c r="M11" t="n">
-        <v>3.428981898423444e-08</v>
+        <v>0.01179379690438509</v>
       </c>
       <c r="N11" t="n">
-        <v>9.107894527460303e-08</v>
+        <v>0.0172688215970993</v>
       </c>
       <c r="O11" t="n">
-        <v>3.794951464186624e-09</v>
+        <v>0.02262644097208977</v>
       </c>
       <c r="P11" t="n">
-        <v>2.761880324442245e-08</v>
+        <v>0.0004774206317961216</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.290311229558029e-08</v>
+        <v>0.0005389992147684097</v>
       </c>
       <c r="R11" t="n">
-        <v>3.210365306927088e-09</v>
+        <v>0.0007684816373512149</v>
       </c>
       <c r="S11" t="n">
-        <v>2.418453881603e-09</v>
+        <v>0.0009385916055180132</v>
       </c>
       <c r="T11" t="n">
-        <v>6.480674663578156e-09</v>
+        <v>0.005692641250789165</v>
       </c>
       <c r="U11" t="n">
-        <v>6.439747401998375e-09</v>
+        <v>0.0001122226094594225</v>
       </c>
       <c r="V11" t="n">
-        <v>2.120008701922416e-08</v>
+        <v>0.008984122425317764</v>
       </c>
       <c r="W11" t="n">
-        <v>6.280359343691089e-08</v>
+        <v>0.0163477249443531</v>
       </c>
       <c r="X11" t="n">
-        <v>8.106641580241103e-09</v>
+        <v>0.002746326848864555</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.019052303126045e-08</v>
+        <v>0.003559442702680826</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.758654105150526e-08</v>
+        <v>0.007044228725135326</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.395360271772006e-08</v>
+        <v>0.003316044341772795</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.279973347427358e-09</v>
+        <v>0.001838373020291328</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.958492531656702e-09</v>
+        <v>0.003520023543387651</v>
       </c>
       <c r="AD11" t="n">
-        <v>4.611284687427997e-09</v>
+        <v>0.002610457362607121</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.442916186533694e-08</v>
+        <v>0.0003802743158303201</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.478135444216605e-09</v>
+        <v>0.002961411839351058</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.121289550098936e-08</v>
+        <v>0.002018508967012167</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.31045277038811e-09</v>
+        <v>0.007608463056385517</v>
       </c>
       <c r="AI11" t="n">
-        <v>4.182863833079864e-09</v>
+        <v>0.006031028926372528</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.558906781440328e-09</v>
+        <v>0.005688913632184267</v>
       </c>
       <c r="AK11" t="n">
-        <v>7.893104836398379e-09</v>
+        <v>0.007446793373674154</v>
       </c>
       <c r="AL11" t="n">
-        <v>2.713816193988805e-08</v>
+        <v>0.009801439940929413</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.361671080919336e-09</v>
+        <v>0.001556153176352382</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.840051997552109e-08</v>
+        <v>0.0007503253873437643</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.601895505132234e-08</v>
+        <v>0.001599661423824728</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.638495916722604e-08</v>
+        <v>0.009665586054325104</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7.607785512675491e-10</v>
+        <v>0.0007937666960060596</v>
       </c>
       <c r="AR11" t="n">
-        <v>4.99675589793469e-09</v>
+        <v>0.004222266841679811</v>
       </c>
       <c r="AS11" t="n">
-        <v>9.580908510997688e-09</v>
+        <v>0.004729572683572769</v>
       </c>
       <c r="AT11" t="n">
-        <v>4.497347383392025e-09</v>
+        <v>0.00559316948056221</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.139007524552653e-08</v>
+        <v>0.03895207494497299</v>
       </c>
       <c r="AV11" t="n">
-        <v>8.038483656491735e-09</v>
+        <v>0.006458209827542305</v>
       </c>
       <c r="AW11" t="n">
-        <v>7.317507311199734e-08</v>
+        <v>0.003980579786002636</v>
       </c>
       <c r="AX11" t="n">
-        <v>3.456329267237379e-08</v>
+        <v>0.01008285768330097</v>
       </c>
       <c r="AY11" t="n">
-        <v>4.616085291786476e-10</v>
+        <v>0.01783483102917671</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.481522708488228e-09</v>
+        <v>0.00802493654191494</v>
       </c>
       <c r="BA11" t="n">
-        <v>2.937209941933361e-08</v>
+        <v>0.005227920133620501</v>
       </c>
       <c r="BB11" t="n">
-        <v>3.094111633572538e-08</v>
+        <v>0.0005512097850441933</v>
       </c>
       <c r="BC11" t="n">
-        <v>7.969465087853678e-09</v>
+        <v>0.001576979411765933</v>
       </c>
       <c r="BD11" t="n">
-        <v>9.124427435835969e-09</v>
+        <v>0.01592816971242428</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.501745477445638e-09</v>
+        <v>0.004907352849841118</v>
       </c>
       <c r="BF11" t="n">
-        <v>3.018526939513322e-08</v>
+        <v>0.0008689663372933865</v>
       </c>
       <c r="BG11" t="n">
-        <v>6.84649066329257e-08</v>
+        <v>0.01181135885417461</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.502825952570674e-08</v>
+        <v>0.00484195351600647</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.848196700711014e-08</v>
+        <v>0.007873054593801498</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2.351029060321252e-08</v>
+        <v>0.002633516443893313</v>
       </c>
       <c r="BK11" t="n">
-        <v>2.04069596776435e-08</v>
+        <v>0.002372370334342122</v>
       </c>
       <c r="BL11" t="n">
-        <v>2.008007093934339e-08</v>
+        <v>0.009368190541863441</v>
       </c>
       <c r="BM11" t="n">
-        <v>1.361911294850415e-08</v>
+        <v>0.01392688695341349</v>
       </c>
       <c r="BN11" t="n">
-        <v>8.184802169353134e-09</v>
+        <v>0.005514521151781082</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.305859420597244e-08</v>
+        <v>0.0006035999394953251</v>
       </c>
       <c r="BP11" t="n">
-        <v>4.306298961864741e-08</v>
+        <v>0.008053567260503769</v>
       </c>
       <c r="BQ11" t="n">
-        <v>7.066377261111256e-09</v>
+        <v>0.002020506421104074</v>
       </c>
       <c r="BR11" t="n">
-        <v>3.789386937569361e-08</v>
+        <v>0.002011000877246261</v>
       </c>
       <c r="BS11" t="n">
-        <v>4.773778172761922e-08</v>
+        <v>0.007049624342471361</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.77046288740712e-09</v>
+        <v>0.002461838303133845</v>
       </c>
       <c r="BU11" t="n">
-        <v>1.244114677945163e-08</v>
+        <v>0.005609631538391113</v>
       </c>
       <c r="BV11" t="n">
-        <v>2.406177479485905e-09</v>
+        <v>0.0261840783059597</v>
       </c>
       <c r="BW11" t="n">
-        <v>9.268746659074623e-09</v>
+        <v>0.009145035408437252</v>
       </c>
       <c r="BX11" t="n">
-        <v>4.958734933779851e-08</v>
+        <v>0.005274001508951187</v>
       </c>
       <c r="BY11" t="n">
-        <v>9.150974200622386e-09</v>
+        <v>0.00589842488989234</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1.560164797353991e-08</v>
+        <v>0.00229166354984045</v>
       </c>
       <c r="CA11" t="n">
-        <v>9.455384919476728e-09</v>
+        <v>0.00153657328337431</v>
       </c>
       <c r="CB11" t="n">
-        <v>1.527910775678265e-08</v>
+        <v>0.002046192763373256</v>
       </c>
       <c r="CC11" t="n">
-        <v>2.297581147558958e-08</v>
+        <v>0.003326809965074062</v>
       </c>
       <c r="CD11" t="n">
-        <v>2.187522607499659e-09</v>
+        <v>0.0002307189279235899</v>
       </c>
       <c r="CE11" t="n">
-        <v>7.125688927800411e-09</v>
+        <v>0.008015654981136322</v>
       </c>
       <c r="CF11" t="n">
-        <v>7.080090291822216e-09</v>
+        <v>0.002202897798269987</v>
       </c>
       <c r="CG11" t="n">
-        <v>9.802464617791884e-09</v>
+        <v>0.004966751672327518</v>
       </c>
       <c r="CH11" t="n">
-        <v>1.259330950631465e-08</v>
+        <v>0.002911679446697235</v>
       </c>
       <c r="CI11" t="n">
-        <v>3.320256070082905e-09</v>
+        <v>0.003566736821085215</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1.303526397933297e-09</v>
+        <v>0.005125177558511496</v>
       </c>
       <c r="CK11" t="n">
-        <v>7.396259604774968e-09</v>
+        <v>0.004555278457701206</v>
       </c>
       <c r="CL11" t="n">
-        <v>3.226924283339372e-09</v>
+        <v>0.00300579285249114</v>
       </c>
       <c r="CM11" t="n">
-        <v>1.135566662924248e-08</v>
+        <v>0.01093961950391531</v>
       </c>
       <c r="CN11" t="n">
-        <v>6.408496844301226e-09</v>
+        <v>0.01065057329833508</v>
       </c>
       <c r="CO11" t="n">
-        <v>1.696469631440323e-10</v>
+        <v>0.003163264831528068</v>
       </c>
       <c r="CP11" t="n">
-        <v>6.384430406569663e-08</v>
+        <v>0.006658039055764675</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1.866499665936772e-08</v>
+        <v>0.009863045066595078</v>
       </c>
       <c r="CR11" t="n">
-        <v>2.959352585207853e-08</v>
+        <v>0.003320666262879968</v>
       </c>
       <c r="CS11" t="n">
-        <v>2.340306082260213e-08</v>
+        <v>0.01121805887669325</v>
       </c>
       <c r="CT11" t="n">
-        <v>3.424457517553492e-08</v>
+        <v>0.009446902200579643</v>
       </c>
       <c r="CU11" t="n">
-        <v>2.444642888121962e-08</v>
+        <v>0.0002414397022221237</v>
       </c>
       <c r="CV11" t="n">
-        <v>7.792899658909391e-11</v>
+        <v>0.0002689865650609136</v>
       </c>
       <c r="CW11" t="n">
-        <v>1.059036858208628e-09</v>
+        <v>0.006391956005245447</v>
       </c>
       <c r="CX11" t="n">
-        <v>5.461577856635813e-10</v>
+        <v>0.003281905315816402</v>
       </c>
       <c r="CY11" t="n">
-        <v>9.351877494623295e-09</v>
+        <v>0.006945039145648479</v>
       </c>
       <c r="CZ11" t="n">
-        <v>1.292167972621883e-08</v>
+        <v>0.00156028859782964</v>
       </c>
       <c r="DA11" t="n">
-        <v>4.688256449725259e-09</v>
+        <v>0.004621804226189852</v>
       </c>
       <c r="DB11" t="n">
-        <v>8.606877877070929e-09</v>
+        <v>0.004164178855717182</v>
       </c>
       <c r="DC11" t="n">
-        <v>8.22811507816823e-09</v>
+        <v>0.005824487656354904</v>
       </c>
       <c r="DD11" t="n">
-        <v>8.072902346611954e-10</v>
+        <v>0.001621984643861651</v>
       </c>
       <c r="DE11" t="n">
-        <v>1.785029546397254e-08</v>
+        <v>0.002414644928649068</v>
       </c>
       <c r="DF11" t="n">
-        <v>2.080229499767938e-08</v>
+        <v>0.005463371518999338</v>
       </c>
       <c r="DG11" t="n">
-        <v>1.67024993835696e-09</v>
+        <v>8.196750422939658e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>4.053832469708141e-08</v>
+        <v>0.03087308816611767</v>
       </c>
       <c r="DI11" t="n">
-        <v>4.139203824138349e-08</v>
+        <v>0.01507731154561043</v>
       </c>
       <c r="DJ11" t="n">
-        <v>2.502050300279279e-08</v>
+        <v>0.0001439156476408243</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.792607034507455e-08</v>
+        <v>0.01145337987691164</v>
       </c>
       <c r="DL11" t="n">
-        <v>4.203753078968475e-08</v>
+        <v>0.007570247631520033</v>
       </c>
       <c r="DM11" t="n">
-        <v>1.531388704734127e-08</v>
+        <v>0.01210888847708702</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.115484238312092e-08</v>
+        <v>0.001727799652144313</v>
       </c>
       <c r="DO11" t="n">
-        <v>8.809452722857714e-09</v>
+        <v>0.004326509777456522</v>
       </c>
       <c r="DP11" t="n">
-        <v>1.795321447062292e-09</v>
+        <v>0.004106673412024975</v>
       </c>
       <c r="DQ11" t="n">
-        <v>1.73329848252024e-08</v>
+        <v>0.0006969347014091909</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.629426549243362e-08</v>
+        <v>0.003926869947463274</v>
       </c>
       <c r="DS11" t="n">
-        <v>4.177177714836944e-08</v>
+        <v>0.00387114891782403</v>
       </c>
       <c r="DT11" t="n">
-        <v>9.457374439136856e-09</v>
+        <v>0.001203077146783471</v>
       </c>
       <c r="DU11" t="n">
-        <v>1.279335215542687e-08</v>
+        <v>0.000231768935918808</v>
       </c>
       <c r="DV11" t="n">
-        <v>1.144666939012495e-08</v>
+        <v>0.0001331631792709231</v>
       </c>
       <c r="DW11" t="n">
-        <v>3.585532981631445e-09</v>
+        <v>0.0001075859181582928</v>
       </c>
       <c r="DX11" t="n">
-        <v>1.498317381276593e-08</v>
+        <v>0.001449491363018751</v>
       </c>
       <c r="DY11" t="n">
-        <v>5.696748850425593e-09</v>
+        <v>0.0003992370329797268</v>
       </c>
       <c r="DZ11" t="n">
-        <v>7.31172544732317e-09</v>
+        <v>3.093434497714043e-05</v>
       </c>
       <c r="EA11" t="n">
-        <v>3.088966415987215e-09</v>
+        <v>0.0005089526530355215</v>
       </c>
       <c r="EB11" t="n">
-        <v>2.188753178700154e-08</v>
+        <v>5.865644197911024e-05</v>
       </c>
       <c r="EC11" t="n">
-        <v>1.152027917505904e-09</v>
+        <v>0.0004933672025799751</v>
       </c>
       <c r="ED11" t="n">
-        <v>1.167285201830737e-08</v>
+        <v>0.003004653612151742</v>
       </c>
       <c r="EE11" t="n">
-        <v>9.85205694803426e-10</v>
+        <v>0.004871156066656113</v>
       </c>
       <c r="EF11" t="n">
-        <v>9.250223698131776e-09</v>
+        <v>0.00195153511594981</v>
       </c>
       <c r="EG11" t="n">
-        <v>1.011036054876513e-08</v>
+        <v>0.006535833701491356</v>
       </c>
       <c r="EH11" t="n">
-        <v>1.800760074388563e-08</v>
+        <v>0.001543362508527935</v>
       </c>
       <c r="EI11" t="n">
-        <v>3.743561549640617e-08</v>
+        <v>0.002300423802807927</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.852184894346465e-08</v>
+        <v>0.005315630231052637</v>
       </c>
       <c r="EK11" t="n">
-        <v>7.068072349625254e-09</v>
+        <v>1.377519220113754e-05</v>
       </c>
       <c r="EL11" t="n">
-        <v>1.569156538039351e-08</v>
+        <v>0.002989220898598433</v>
       </c>
       <c r="EM11" t="n">
-        <v>3.702114170778259e-09</v>
+        <v>0.002091657835990191</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.205604682752437e-08</v>
+        <v>0.001393439248204231</v>
       </c>
       <c r="EO11" t="n">
-        <v>3.508156254383721e-08</v>
+        <v>0.002906652167439461</v>
       </c>
       <c r="EP11" t="n">
-        <v>1.122261217290088e-08</v>
+        <v>0.002762732794508338</v>
       </c>
       <c r="EQ11" t="n">
-        <v>5.993937346460143e-09</v>
+        <v>0.007752304896712303</v>
       </c>
       <c r="ER11" t="n">
-        <v>1.1625532536641e-08</v>
+        <v>0.00685561029240489</v>
       </c>
       <c r="ES11" t="n">
-        <v>2.673255572460675e-08</v>
+        <v>0.00112590123899281</v>
       </c>
       <c r="ET11" t="n">
-        <v>8.123201666876412e-09</v>
+        <v>0.008865788578987122</v>
       </c>
       <c r="EU11" t="n">
-        <v>2.066583348891982e-08</v>
+        <v>0.004820303060114384</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.439317731666279e-08</v>
+        <v>0.01408933103084564</v>
       </c>
       <c r="EW11" t="n">
-        <v>1.158776896659219e-08</v>
+        <v>0.0008961122366599739</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.071582378386893e-09</v>
+        <v>0.0001278618001379073</v>
       </c>
       <c r="EY11" t="n">
-        <v>4.498810213249271e-09</v>
+        <v>0.005562079604715109</v>
       </c>
       <c r="EZ11" t="n">
-        <v>2.439257684727636e-10</v>
+        <v>0.002233549486845732</v>
       </c>
       <c r="FA11" t="n">
-        <v>2.529217724145383e-09</v>
+        <v>0.005581142380833626</v>
       </c>
       <c r="FB11" t="n">
-        <v>1.978753694231727e-08</v>
+        <v>0.002386541338637471</v>
       </c>
       <c r="FC11" t="n">
-        <v>7.30052995834285e-09</v>
+        <v>0.004081825725734234</v>
       </c>
       <c r="FD11" t="n">
-        <v>8.382521343719418e-09</v>
+        <v>0.006443929858505726</v>
       </c>
       <c r="FE11" t="n">
-        <v>1.146135453211627e-08</v>
+        <v>0.005554224830120802</v>
       </c>
       <c r="FF11" t="n">
-        <v>7.448716310420878e-09</v>
+        <v>0.003192902076989412</v>
       </c>
       <c r="FG11" t="n">
-        <v>2.936699594613401e-08</v>
+        <v>0.0001170384930446744</v>
       </c>
       <c r="FH11" t="n">
-        <v>2.339124449690644e-08</v>
+        <v>0.008113186806440353</v>
       </c>
       <c r="FI11" t="n">
-        <v>1.360209900269638e-08</v>
+        <v>0.004776547197252512</v>
       </c>
       <c r="FJ11" t="n">
-        <v>2.729985482119446e-08</v>
+        <v>0.00946011021733284</v>
       </c>
       <c r="FK11" t="n">
-        <v>1.320755771416771e-08</v>
+        <v>0.000326965848216787</v>
       </c>
       <c r="FL11" t="n">
-        <v>4.63292471053478e-09</v>
+        <v>0.002416534582152963</v>
       </c>
       <c r="FM11" t="n">
-        <v>5.408220538072328e-09</v>
+        <v>0.00348278833553195</v>
       </c>
       <c r="FN11" t="n">
-        <v>3.430381667612892e-08</v>
+        <v>0.001649546436965466</v>
       </c>
       <c r="FO11" t="n">
-        <v>1.536816451874756e-09</v>
+        <v>0.001568765030242503</v>
       </c>
       <c r="FP11" t="n">
-        <v>1.131043880775451e-08</v>
+        <v>0.006527521181851625</v>
       </c>
       <c r="FQ11" t="n">
-        <v>1.235476787542211e-08</v>
+        <v>0.005396829452365637</v>
       </c>
       <c r="FR11" t="n">
-        <v>3.689025307451743e-09</v>
+        <v>0.004950166679918766</v>
       </c>
       <c r="FS11" t="n">
-        <v>3.335053122555109e-09</v>
+        <v>0.005975850857794285</v>
       </c>
       <c r="FT11" t="n">
-        <v>5.30391801589758e-08</v>
+        <v>0.01221734657883644</v>
       </c>
       <c r="FU11" t="n">
-        <v>9.221132302172919e-09</v>
+        <v>0.004950555041432381</v>
       </c>
       <c r="FV11" t="n">
-        <v>4.611604431659089e-09</v>
+        <v>0.00537430215626955</v>
       </c>
       <c r="FW11" t="n">
-        <v>3.831967987366625e-08</v>
+        <v>0.000458085210993886</v>
       </c>
       <c r="FX11" t="n">
-        <v>3.701614792461783e-09</v>
+        <v>0.003344845725223422</v>
       </c>
       <c r="FY11" t="n">
-        <v>4.107738149627949e-09</v>
+        <v>0.006603523157536983</v>
       </c>
       <c r="FZ11" t="n">
-        <v>1.844526309469074e-08</v>
+        <v>0.0007819291204214096</v>
       </c>
       <c r="GA11" t="n">
-        <v>8.766281922589769e-09</v>
+        <v>0.00690671568736434</v>
       </c>
       <c r="GB11" t="n">
-        <v>4.109921292183571e-08</v>
+        <v>0.003560028504580259</v>
       </c>
       <c r="GC11" t="n">
-        <v>6.609118230471722e-08</v>
+        <v>0.002482859650626779</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.315222064590671e-08</v>
+        <v>0.01041580829769373</v>
       </c>
       <c r="GE11" t="n">
-        <v>8.787417904443373e-09</v>
+        <v>0.01764898747205734</v>
       </c>
       <c r="GF11" t="n">
-        <v>1.403644489528233e-08</v>
+        <v>0.002300465945154428</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.41294131950076e-09</v>
+        <v>0.001994593068957329</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.09832257777452469</v>
+        <v>0.02367243729531765</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3574112355709076</v>
+        <v>1.042468190193176</v>
       </c>
       <c r="C12" t="n">
-        <v>0.05598987638950348</v>
+        <v>0.04294146597385406</v>
       </c>
       <c r="D12" t="n">
-        <v>1.326816439628601</v>
+        <v>0.7006877064704895</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1272716671228409</v>
+        <v>0.07837875187397003</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3864980340003967</v>
+        <v>0.3400913178920746</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1360091269016266</v>
+        <v>0.052462138235569</v>
       </c>
       <c r="H12" t="n">
-        <v>1.190624237060547</v>
+        <v>0.0835411548614502</v>
       </c>
       <c r="I12" t="n">
-        <v>0.420621931552887</v>
+        <v>0.2148065119981766</v>
       </c>
       <c r="J12" t="n">
-        <v>0.05177731066942215</v>
+        <v>0.1330017298460007</v>
       </c>
       <c r="K12" t="n">
-        <v>0.3341778218746185</v>
+        <v>0.8534032106399536</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1106220036745071</v>
+        <v>0.05472272634506226</v>
       </c>
       <c r="M12" t="n">
-        <v>1.186525106430054</v>
+        <v>0.5706012845039368</v>
       </c>
       <c r="N12" t="n">
-        <v>0.609413206577301</v>
+        <v>0.1014537215232849</v>
       </c>
       <c r="O12" t="n">
-        <v>0.20818892121315</v>
+        <v>0.3970203697681427</v>
       </c>
       <c r="P12" t="n">
-        <v>0.027115598320961</v>
+        <v>0.0003013387322425842</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.655800580978394</v>
+        <v>0.08986611664295197</v>
       </c>
       <c r="R12" t="n">
-        <v>0.3461944460868835</v>
+        <v>0.2235502451658249</v>
       </c>
       <c r="S12" t="n">
-        <v>0.1340880990028381</v>
+        <v>0.05458686128258705</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2049943953752518</v>
+        <v>0.0677468478679657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1771172285079956</v>
+        <v>0.04624659568071365</v>
       </c>
       <c r="V12" t="n">
-        <v>0.09325951337814331</v>
+        <v>0.2186452746391296</v>
       </c>
       <c r="W12" t="n">
-        <v>0.9809264540672302</v>
+        <v>0.2766126096248627</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2317948937416077</v>
+        <v>0.05361912027001381</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1689020097255707</v>
+        <v>0.05140651762485504</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.650759220123291</v>
+        <v>0.2336638569831848</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01468116044998169</v>
+        <v>0.1649985909461975</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1165528446435928</v>
+        <v>0.04426632449030876</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.157220646739006</v>
+        <v>0.05549758300185204</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1757088452577591</v>
+        <v>0.1918518841266632</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.464959055185318</v>
+        <v>0.08944990485906601</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.2468191534280777</v>
+        <v>0.1032877564430237</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.2277196198701859</v>
+        <v>0.1422277539968491</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.3491285145282745</v>
+        <v>0.03677241131663322</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.4517906308174133</v>
+        <v>0.05212659388780594</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.02904389426112175</v>
+        <v>0.2012284845113754</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.01303998380899429</v>
+        <v>0.02421001344919205</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.0217929407954216</v>
+        <v>0.1644964665174484</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.09986922889947891</v>
+        <v>0.040586918592453</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.275751918554306</v>
+        <v>0.03287248313426971</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.4597888290882111</v>
+        <v>0.04018786549568176</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.05856021121144295</v>
+        <v>0.0873962864279747</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.1601566225290298</v>
+        <v>0.01458167843520641</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.07721249759197235</v>
+        <v>0.1060689985752106</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.06024939566850662</v>
+        <v>0.08033669739961624</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.114246740937233</v>
+        <v>0.08068713545799255</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.07194698601961136</v>
+        <v>0.5476930737495422</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.09944593906402588</v>
+        <v>0.0729660838842392</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.6998906135559082</v>
+        <v>0.2754755020141602</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.1851156651973724</v>
+        <v>0.1829617321491241</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.2482291460037231</v>
+        <v>0.09261956810951233</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.2240749895572662</v>
+        <v>0.007030606269836426</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.3742107748985291</v>
+        <v>0.03777094930410385</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.1516160070896149</v>
+        <v>0.1616399735212326</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.2188722342252731</v>
+        <v>0.066243976354599</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.003893576562404633</v>
+        <v>0.287243127822876</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.1310187131166458</v>
+        <v>0.1421267539262772</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.6906031966209412</v>
+        <v>0.1273522228002548</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.1178629621863365</v>
+        <v>0.1727296561002731</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04752202704548836</v>
+        <v>0.05307551473379135</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.07356812804937363</v>
+        <v>0.09564757347106934</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.1922426819801331</v>
+        <v>0.06976400315761566</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.04034982249140739</v>
+        <v>0.07060833275318146</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.2984493374824524</v>
+        <v>0.07032348215579987</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.0128841707482934</v>
+        <v>0.07826536893844604</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.06291484087705612</v>
+        <v>0.06613416969776154</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.006879076361656189</v>
+        <v>0.002714067697525024</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.1852682679891586</v>
+        <v>0.08306632936000824</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.1054027527570724</v>
+        <v>0.02073179185390472</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.2472894191741943</v>
+        <v>0.004435542970895767</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.1571456640958786</v>
+        <v>0.07141474634408951</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.06732566654682159</v>
+        <v>0.003517472185194492</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.1304830312728882</v>
+        <v>0.1382146775722504</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.07065205276012421</v>
+        <v>0.3449277579784393</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.002990009263157845</v>
+        <v>0.008315674960613251</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.3206198811531067</v>
+        <v>0.2612435221672058</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.3994317054748535</v>
+        <v>0.07610806822776794</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.4745519459247589</v>
+        <v>0.01670119911432266</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.2577289938926697</v>
+        <v>0.01465246826410294</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.5721399188041687</v>
+        <v>0.0752611830830574</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.09512323141098022</v>
+        <v>0.2236268222332001</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.1057425886392593</v>
+        <v>0.06305235624313354</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.04196616634726524</v>
+        <v>0.1209813058376312</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.03501832112669945</v>
+        <v>0.0831926167011261</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.2619033455848694</v>
+        <v>0.1373631805181503</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.03018647432327271</v>
+        <v>0.03513121232390404</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.07768294215202332</v>
+        <v>0.05468503385782242</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.03644847869873047</v>
+        <v>0.03637921810150146</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.2649091184139252</v>
+        <v>0.001385407522320747</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.05249876528978348</v>
+        <v>0.07590502500534058</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.07942244410514832</v>
+        <v>0.05309967696666718</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.32935830950737</v>
+        <v>0.03595171123743057</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.1174744963645935</v>
+        <v>0.0005491974297910929</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.2783445417881012</v>
+        <v>0.05659899860620499</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.02708978950977325</v>
+        <v>0.08933059871196747</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.519311785697937</v>
+        <v>0.07197991758584976</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.07721258699893951</v>
+        <v>0.1759936660528183</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.165831059217453</v>
+        <v>0.1682679504156113</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.1800206899642944</v>
+        <v>0.01275412645190954</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.1334702521562576</v>
+        <v>0.05699017643928528</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.01042916998267174</v>
+        <v>0.1216694489121437</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.005010470747947693</v>
+        <v>0.07874810695648193</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.2262397408485413</v>
+        <v>0.1574068814516068</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.008360940963029861</v>
+        <v>0.01633571647107601</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.1107407361268997</v>
+        <v>0.07578114420175552</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0106428749859333</v>
+        <v>0.0486934706568718</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.28125</v>
+        <v>0.03875835239887238</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.051503736525774</v>
+        <v>0.02255665697157383</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.2340662032365799</v>
+        <v>0.02186198718845844</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.1839441061019897</v>
+        <v>0.1883316487073898</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.1418160945177078</v>
+        <v>0.03091122768819332</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.1541652977466583</v>
+        <v>0.3840963542461395</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.271932452917099</v>
+        <v>0.004366859793663025</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.318606436252594</v>
+        <v>0.2518943846225739</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.05042901262640953</v>
+        <v>0.0618588924407959</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.1108221039175987</v>
+        <v>0.06450705975294113</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.008144132792949677</v>
+        <v>0.09200175851583481</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.03467296436429024</v>
+        <v>0.09927881509065628</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.1519646495580673</v>
+        <v>0.06608079373836517</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.04610226675868034</v>
+        <v>0.0227730106562376</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.004694744944572449</v>
+        <v>0.1632488518953323</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.2062990367412567</v>
+        <v>0.04276400059461594</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.2328866422176361</v>
+        <v>0.1615815609693527</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.2250757366418839</v>
+        <v>0.08985473215579987</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.2856915891170502</v>
+        <v>0.04493806883692741</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.05684793740510941</v>
+        <v>0.1548442244529724</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.2287073284387589</v>
+        <v>0.01961128227412701</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.2321619838476181</v>
+        <v>0.03707528114318848</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.1062517836689949</v>
+        <v>0.08393397182226181</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.2205768674612045</v>
+        <v>0.0818725973367691</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.1212593466043472</v>
+        <v>0.008092531934380531</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.1606503576040268</v>
+        <v>0.008001015521585941</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.110207162797451</v>
+        <v>0.05385307967662811</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.1412537395954132</v>
+        <v>0.08523111045360565</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.01835372671484947</v>
+        <v>0.1079636812210083</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.1015999838709831</v>
+        <v>0.001985833048820496</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.1976233869791031</v>
+        <v>0.0705716460943222</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.001021658070385456</v>
+        <v>0.06275778263807297</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.4537648558616638</v>
+        <v>0.02340051159262657</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.2624348998069763</v>
+        <v>0.01431307941675186</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.2738877534866333</v>
+        <v>0.118129089474678</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.08779798448085785</v>
+        <v>0.0116752739995718</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.381964772939682</v>
+        <v>0.04654867947101593</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.07991266250610352</v>
+        <v>0.05198346823453903</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.3145379722118378</v>
+        <v>0.04221127182245255</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.03450202196836472</v>
+        <v>0.02513034828007221</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.1692671477794647</v>
+        <v>0.06604260206222534</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.05805572867393494</v>
+        <v>0.1405754834413528</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.03695129603147507</v>
+        <v>0.02945690415799618</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.03056154400110245</v>
+        <v>0.354884922504425</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.01795765198767185</v>
+        <v>0.1337805986404419</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.229087233543396</v>
+        <v>0.1015758961439133</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.09843816608190536</v>
+        <v>0.02702845260500908</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.1229416951537132</v>
+        <v>0.06311475485563278</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.007180275395512581</v>
+        <v>0.1109348386526108</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0091739222407341</v>
+        <v>0.06697322428226471</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.2190224230289459</v>
+        <v>0.1715685278177261</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.1010761111974716</v>
+        <v>0.03666886314749718</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.1256274580955505</v>
+        <v>0.06087040528655052</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.009623540565371513</v>
+        <v>0.0893552303314209</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.2646563649177551</v>
+        <v>0.01300721243023872</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.04173862561583519</v>
+        <v>0.06092144921422005</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.1139453053474426</v>
+        <v>0.02588377892971039</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.2644639611244202</v>
+        <v>0.1224729716777802</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.274057924747467</v>
+        <v>0.01471590809524059</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.0103798434138298</v>
+        <v>0.0281361248344183</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.02290857955813408</v>
+        <v>0.01356884744018316</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.06806328147649765</v>
+        <v>0.05225445702672005</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.1866599768400192</v>
+        <v>0.0131540410220623</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.1926066279411316</v>
+        <v>0.03690232709050179</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.01609766855835915</v>
+        <v>0.02400760725140572</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.3222185671329498</v>
+        <v>0.03004399687051773</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.1113780587911606</v>
+        <v>0.1707676500082016</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.06994225829839706</v>
+        <v>0.2421951442956924</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.292399525642395</v>
+        <v>0.08913583308458328</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.3228825032711029</v>
+        <v>0.05728186666965485</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.06446688622236252</v>
+        <v>0.04694265127182007</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.1016176640987396</v>
+        <v>0.1273722499608994</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.3404252529144287</v>
+        <v>0.06699904799461365</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.2361852079629898</v>
+        <v>0.02201259881258011</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.09328049421310425</v>
+        <v>0.0541781522333622</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.4055727124214172</v>
+        <v>0.01228875853121281</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.1162193268537521</v>
+        <v>0.04677191749215126</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.3267633616924286</v>
+        <v>0.04801671952009201</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.2880443632602692</v>
+        <v>0.2984520196914673</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.004969673696905375</v>
+        <v>0.08741463720798492</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.1776698231697083</v>
+        <v>0.433158814907074</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.07188250124454498</v>
+        <v>0.07433415949344635</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.233758270740509</v>
+        <v>0.00401661591604352</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.01631773263216019</v>
+        <v>0.001152306096628308</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01558967679738998</v>
+        <v>0.1859030276536942</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05632653087377548</v>
+        <v>0.02944035828113556</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1580401211977005</v>
+        <v>0.1094501316547394</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1149097457528114</v>
+        <v>0.113378718495369</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4973788261413574</v>
+        <v>0.01432031206786633</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1491209864616394</v>
+        <v>0.03287604451179504</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8426371216773987</v>
+        <v>0.02878508903086185</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03005660139024258</v>
+        <v>0.01484389510005713</v>
       </c>
       <c r="J13" t="n">
-        <v>0.02233942225575447</v>
+        <v>0.003689268603920937</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07903628796339035</v>
+        <v>0.1399886310100555</v>
       </c>
       <c r="L13" t="n">
-        <v>0.04454390704631805</v>
+        <v>0.01674675010144711</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09258920699357986</v>
+        <v>0.1025132387876511</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1392043828964233</v>
+        <v>0.1051052063703537</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4420510232448578</v>
+        <v>0.004394654650241137</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1184510588645935</v>
+        <v>0.03725317493081093</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.9189563989639282</v>
+        <v>0.0070567955262959</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1025542914867401</v>
+        <v>0.002784762997180223</v>
       </c>
       <c r="S13" t="n">
-        <v>0.05041033029556274</v>
+        <v>0.001940323039889336</v>
       </c>
       <c r="T13" t="n">
-        <v>0.08293481916189194</v>
+        <v>0.03820222243666649</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01673143357038498</v>
+        <v>0.007282661274075508</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07408831268548965</v>
+        <v>0.01031661964952946</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1703698188066483</v>
+        <v>0.003133559599518776</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08134885877370834</v>
+        <v>0.02279440127313137</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.06072711199522018</v>
+        <v>0.0253216028213501</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1883677095174789</v>
+        <v>0.01485534757375717</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.04595093429088593</v>
+        <v>0.01298052258789539</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1258454769849777</v>
+        <v>0.01401413604617119</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.0354308970272541</v>
+        <v>0.03353129327297211</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.002265077084302902</v>
+        <v>0.005358275957405567</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1661617606878281</v>
+        <v>0.00720249954611063</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.147097110748291</v>
+        <v>0.005563626997172832</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.01633140631020069</v>
+        <v>0.001026274636387825</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.3000183701515198</v>
+        <v>0.01870066300034523</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0506400465965271</v>
+        <v>0.01478740014135838</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01985029689967632</v>
+        <v>0.004710107110440731</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0826227143406868</v>
+        <v>0.009177949279546738</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0001727379858493805</v>
+        <v>0.03466643765568733</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.1336991190910339</v>
+        <v>0.008806068450212479</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.05896618962287903</v>
+        <v>0.003540170378983021</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.317302942276001</v>
+        <v>0.01197823695838451</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.03344731032848358</v>
+        <v>0.02403857372701168</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.001731031574308872</v>
+        <v>0.01927252858877182</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.05081801116466522</v>
+        <v>0.008755316026508808</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.01521097775548697</v>
+        <v>0.004110287874937057</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1145688444375992</v>
+        <v>0.01332620158791542</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2182262092828751</v>
+        <v>0.1289993524551392</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.03428735211491585</v>
+        <v>0.007036515045911074</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.1013259738683701</v>
+        <v>0.02615018747746944</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.01530590653419495</v>
+        <v>0.03506200760602951</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.2937228381633759</v>
+        <v>0.003998283296823502</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.002411570399999619</v>
+        <v>0.006293910555541515</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.3637088537216187</v>
+        <v>0.008088104426860809</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.06250334531068802</v>
+        <v>0.01615085266530514</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0601034015417099</v>
+        <v>0.008101514540612698</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0117614921182394</v>
+        <v>0.01922458223998547</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.02906278893351555</v>
+        <v>0.0217759795486927</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1030810922384262</v>
+        <v>0.04283144325017929</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1284407526254654</v>
+        <v>0.06548000872135162</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0006177355535328388</v>
+        <v>0.01541823521256447</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.2418123334646225</v>
+        <v>0.03048755042254925</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.2043290436267853</v>
+        <v>0.005366703029721975</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.02830030210316181</v>
+        <v>0.007264872547239065</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.03605076298117638</v>
+        <v>0.02976888045668602</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.1265453398227692</v>
+        <v>0.01957409828901291</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.02858960628509521</v>
+        <v>0.0007733448292128742</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.04713214933872223</v>
+        <v>0.01276056468486786</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.002293103840202093</v>
+        <v>0.02029687725007534</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.07539436966180801</v>
+        <v>0.02431316487491131</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.1733559668064117</v>
+        <v>0.0004757540300488472</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.05334680154919624</v>
+        <v>0.006532586179673672</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.04501431807875633</v>
+        <v>0.01542333234101534</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.05580110102891922</v>
+        <v>0.0117410309612751</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.02778931148350239</v>
+        <v>0.07946700602769852</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.01822980493307114</v>
+        <v>0.03411521762609482</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.04774706065654755</v>
+        <v>0.01477280538529158</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.01595165207982063</v>
+        <v>0.01529834885150194</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.1840038448572159</v>
+        <v>0.01941649988293648</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.08044607937335968</v>
+        <v>0.008180515840649605</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.2823364734649658</v>
+        <v>0.004837255924940109</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.02124615758657455</v>
+        <v>0.003540578298270702</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.03314904496073723</v>
+        <v>0.002240715082734823</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.03004252538084984</v>
+        <v>0.02951470762491226</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.02286152914166451</v>
+        <v>0.001235574600286782</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.06865650415420532</v>
+        <v>0.01348490454256535</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.04529936984181404</v>
+        <v>0.009283203631639481</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0828859731554985</v>
+        <v>0.009501398541033268</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.02431179583072662</v>
+        <v>0.007552544586360455</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.142317071557045</v>
+        <v>0.00272427243180573</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.001554942224174738</v>
+        <v>0.001706773415207863</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.1185353249311447</v>
+        <v>0.04026986286044121</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.06023009866476059</v>
+        <v>0.003754265140742064</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.03641683608293533</v>
+        <v>0.00581153342500329</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.074730284512043</v>
+        <v>0.008100914768874645</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1447674930095673</v>
+        <v>0.03024975024163723</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.1542163789272308</v>
+        <v>0.002381920581683517</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.1402517408132553</v>
+        <v>0.01727557554841042</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.1046876087784767</v>
+        <v>0.03043325431644917</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.07045821100473404</v>
+        <v>0.003549785818904638</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.04293323308229446</v>
+        <v>0.002002604771405458</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.04703364148736</v>
+        <v>0.02592967078089714</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.02156104892492294</v>
+        <v>0.00158135499805212</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.05507483333349228</v>
+        <v>0.01756124757230282</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.04254389181733131</v>
+        <v>0.002781759714707732</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.08923143893480301</v>
+        <v>0.01657997258007526</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.006338312290608883</v>
+        <v>0.005499468185007572</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.1781490594148636</v>
+        <v>0.0009208843694068491</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.001085531199350953</v>
+        <v>0.004482507240027189</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.3957555890083313</v>
+        <v>0.02225997671484947</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.4549117088317871</v>
+        <v>0.04108859226107597</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.07880283892154694</v>
+        <v>0.001729167066514492</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.07837984710931778</v>
+        <v>0.02579369768500328</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.01174827478826046</v>
+        <v>0.03746331855654716</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.1200796961784363</v>
+        <v>0.001883655320852995</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.05327903106808662</v>
+        <v>0.008736975491046906</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.07816842198371887</v>
+        <v>0.02080185525119305</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.02552270703017712</v>
+        <v>0.03623830154538155</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.07185216248035431</v>
+        <v>0.01416419073939323</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.03851582854986191</v>
+        <v>0.003368210745975375</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.03209846466779709</v>
+        <v>0.015471744351089</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.007780205458402634</v>
+        <v>0.008125579915940762</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.03201138600707054</v>
+        <v>0.01068164221942425</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.02062137983739376</v>
+        <v>0.006998496130108833</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.1307327002286911</v>
+        <v>0.009294219315052032</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.06412266194820404</v>
+        <v>0.02102649584412575</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.02198410406708717</v>
+        <v>0.001146538066677749</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.02281517907977104</v>
+        <v>0.009032008238136768</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.04708319157361984</v>
+        <v>0.004679180681705475</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.002430237364023924</v>
+        <v>0.003757583210244775</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.02303418330848217</v>
+        <v>0.01017140783369541</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.04753983020782471</v>
+        <v>0.01864885352551937</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.02927454002201557</v>
+        <v>0.01874043047428131</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.06561359763145447</v>
+        <v>0.01104611158370972</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.04397677257657051</v>
+        <v>0.004829484969377518</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.03254451975226402</v>
+        <v>0.004294215701520443</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.160748079419136</v>
+        <v>0.007483222987502813</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.04335728660225868</v>
+        <v>0.02897566743195057</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.00352026685141027</v>
+        <v>0.009243347682058811</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.07175353914499283</v>
+        <v>0.02087388373911381</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.01812520436942577</v>
+        <v>0.0250528771430254</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.0868840217590332</v>
+        <v>0.01363943330943584</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.00621806038543582</v>
+        <v>0.009630809538066387</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.1834248006343842</v>
+        <v>0.001853821449913085</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.002908061258494854</v>
+        <v>0.005135468207299709</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.02106822282075882</v>
+        <v>0.01397634390741587</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02955778688192368</v>
+        <v>0.01774518564343452</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.04039369150996208</v>
+        <v>0.02271277457475662</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0347389280796051</v>
+        <v>0.009079762734472752</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.1285877823829651</v>
+        <v>0.000198383117094636</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.07245851308107376</v>
+        <v>0.0152704156935215</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.02482985332608223</v>
+        <v>0.004099439363926649</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.1335394531488419</v>
+        <v>0.01015076972544193</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.0188619177788496</v>
+        <v>0.000861691078171134</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0536574199795723</v>
+        <v>0.008470277301967144</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.04884515702724457</v>
+        <v>0.0269777849316597</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.03500949218869209</v>
+        <v>0.00329562509432435</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.08038324862718582</v>
+        <v>0.01970548368990421</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.07096870988607407</v>
+        <v>0.007494853343814611</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.08903408795595169</v>
+        <v>0.01589504443109035</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.01953678391873837</v>
+        <v>0.004638389684259892</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.1863456219434738</v>
+        <v>0.00320394104346633</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.01801222190260887</v>
+        <v>0.002268562093377113</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.01970767043530941</v>
+        <v>0.004786902572959661</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.07418645173311234</v>
+        <v>0.01872094720602036</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.003645056858658791</v>
+        <v>0.006581876892596483</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.112006738781929</v>
+        <v>0.01957047358155251</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.08216021209955215</v>
+        <v>0.01104614604264498</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.0461883470416069</v>
+        <v>0.02305997908115387</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.05627158284187317</v>
+        <v>0.005308635532855988</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.07276520133018494</v>
+        <v>0.006173452828079462</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.01187246851623058</v>
+        <v>0.005810164846479893</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.04756608605384827</v>
+        <v>0.0059739057905972</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.02192790620028973</v>
+        <v>0.003455856814980507</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.03673204779624939</v>
+        <v>0.02359061129391193</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.150003045797348</v>
+        <v>0.04033530503511429</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01728812418878078</v>
+        <v>0.006429431494325399</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.1988550126552582</v>
+        <v>0.0002634755801409483</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.1768196821212769</v>
+        <v>0.0008129812777042389</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.1993994116783142</v>
+        <v>0.02315725199878216</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.04306914284825325</v>
+        <v>0.0110737681388855</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.01074816100299358</v>
+        <v>0.03292453661561012</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.02208523638546467</v>
+        <v>0.0009041429730132222</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.01672336459159851</v>
+        <v>0.01050227135419846</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.00384559016674757</v>
+        <v>0.002034181728959084</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.07078982144594193</v>
+        <v>0.008313224650919437</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.02223571762442589</v>
+        <v>0.02542062476277351</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.03851447254419327</v>
+        <v>0.03284347057342529</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.006814178079366684</v>
+        <v>0.01484792120754719</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.01716072857379913</v>
+        <v>0.008780989795923233</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.391863330965862e-05</v>
+        <v>0.02524782158434391</v>
       </c>
       <c r="B14" t="n">
-        <v>5.086690362077206e-05</v>
+        <v>0.1303757876157761</v>
       </c>
       <c r="C14" t="n">
-        <v>8.582085865782574e-05</v>
+        <v>0.006722026504576206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003744968853425235</v>
+        <v>0.03972155228257179</v>
       </c>
       <c r="E14" t="n">
-        <v>3.418902997509576e-05</v>
+        <v>0.09790734201669693</v>
       </c>
       <c r="F14" t="n">
-        <v>5.236958713794593e-06</v>
+        <v>0.1306960880756378</v>
       </c>
       <c r="G14" t="n">
-        <v>4.64102704427205e-05</v>
+        <v>0.0214594341814518</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000240644410951063</v>
+        <v>0.07852710038423538</v>
       </c>
       <c r="I14" t="n">
-        <v>2.952121394628193e-05</v>
+        <v>0.007322336547076702</v>
       </c>
       <c r="J14" t="n">
-        <v>5.797747144242749e-05</v>
+        <v>0.004807924851775169</v>
       </c>
       <c r="K14" t="n">
-        <v>1.480270839238074e-07</v>
+        <v>0.1109809428453445</v>
       </c>
       <c r="L14" t="n">
-        <v>7.342074241023511e-05</v>
+        <v>0.00269723404198885</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003491102543193847</v>
+        <v>0.01971964165568352</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0001569246669532731</v>
+        <v>0.05802930146455765</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0001181968909804709</v>
+        <v>0.102741040289402</v>
       </c>
       <c r="P14" t="n">
-        <v>1.500792950537289e-05</v>
+        <v>0.01674683950841427</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.0003373591171111912</v>
+        <v>0.04471607133746147</v>
       </c>
       <c r="R14" t="n">
-        <v>1.037718811858213e-05</v>
+        <v>3.90563509427011e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>2.049669319603709e-06</v>
+        <v>0.0002642405452206731</v>
       </c>
       <c r="T14" t="n">
-        <v>6.395356467692181e-05</v>
+        <v>0.002831671619787812</v>
       </c>
       <c r="U14" t="n">
-        <v>4.347003414295614e-05</v>
+        <v>0.01296898536384106</v>
       </c>
       <c r="V14" t="n">
-        <v>4.372524927021004e-05</v>
+        <v>0.02894492819905281</v>
       </c>
       <c r="W14" t="n">
-        <v>0.0001886133395601064</v>
+        <v>0.05524351075291634</v>
       </c>
       <c r="X14" t="n">
-        <v>2.024855530180503e-05</v>
+        <v>0.01099882833659649</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.946842520643258e-06</v>
+        <v>0.004583324305713177</v>
       </c>
       <c r="Z14" t="n">
-        <v>5.076274464954622e-05</v>
+        <v>0.003836886025965214</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.279858224734198e-05</v>
+        <v>0.00408654473721981</v>
       </c>
       <c r="AB14" t="n">
-        <v>2.741027492447756e-05</v>
+        <v>0.002528475597500801</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.396413613809273e-05</v>
+        <v>0.02202625013887882</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.332795262802392e-05</v>
+        <v>0.02877900935709476</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.058271537767723e-05</v>
+        <v>0.01494745071977377</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.169864147726912e-06</v>
+        <v>0.01118509285151958</v>
       </c>
       <c r="AG14" t="n">
-        <v>9.238384336640593e-06</v>
+        <v>0.01424997951835394</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.961539475014433e-05</v>
+        <v>0.008777076378464699</v>
       </c>
       <c r="AI14" t="n">
-        <v>2.78238130704267e-05</v>
+        <v>0.00883212685585022</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2.738388684520032e-05</v>
+        <v>0.002857732586562634</v>
       </c>
       <c r="AK14" t="n">
-        <v>4.043411536258645e-05</v>
+        <v>0.0123122725635767</v>
       </c>
       <c r="AL14" t="n">
-        <v>4.436838207766414e-05</v>
+        <v>0.02681367658078671</v>
       </c>
       <c r="AM14" t="n">
-        <v>7.722464943071827e-07</v>
+        <v>0.01554764434695244</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.393910007318482e-05</v>
+        <v>0.002625781344249845</v>
       </c>
       <c r="AO14" t="n">
-        <v>2.963739461847581e-05</v>
+        <v>0.01532581634819508</v>
       </c>
       <c r="AP14" t="n">
-        <v>3.450019357842393e-05</v>
+        <v>0.01978928036987782</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.647073986532632e-05</v>
+        <v>0.004823486320674419</v>
       </c>
       <c r="AR14" t="n">
-        <v>1.481654726376291e-05</v>
+        <v>0.01295246183872223</v>
       </c>
       <c r="AS14" t="n">
-        <v>5.591286935668904e-06</v>
+        <v>0.002659003715962172</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.239327139046509e-05</v>
+        <v>0.01666098460555077</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.682440026546828e-05</v>
+        <v>0.06388881802558899</v>
       </c>
       <c r="AV14" t="n">
-        <v>8.40198845253326e-06</v>
+        <v>0.002601812593638897</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.0001671032514423132</v>
+        <v>0.02712463960051537</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.421809717314318e-05</v>
+        <v>0.07608740776777267</v>
       </c>
       <c r="AY14" t="n">
-        <v>5.225926543062087e-06</v>
+        <v>0.09039289504289627</v>
       </c>
       <c r="AZ14" t="n">
-        <v>7.541096420027316e-05</v>
+        <v>0.03274998441338539</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.0001285230828216299</v>
+        <v>0.0390361025929451</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.469500693929149e-05</v>
+        <v>0.008375979959964752</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.84512791747693e-05</v>
+        <v>0.004400322213768959</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.146018803410698e-05</v>
+        <v>0.01535755023360252</v>
       </c>
       <c r="BE14" t="n">
-        <v>7.2544498834759e-06</v>
+        <v>0.01097896881401539</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.0001596807705936953</v>
+        <v>0.03461644798517227</v>
       </c>
       <c r="BG14" t="n">
-        <v>2.49459917540662e-05</v>
+        <v>0.05776775628328323</v>
       </c>
       <c r="BH14" t="n">
-        <v>5.730241537094116e-05</v>
+        <v>0.02315036952495575</v>
       </c>
       <c r="BI14" t="n">
-        <v>6.614319136133417e-05</v>
+        <v>0.003632722422480583</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.560700886533596e-05</v>
+        <v>0.0004463023506104946</v>
       </c>
       <c r="BK14" t="n">
-        <v>8.441659701929893e-06</v>
+        <v>0.008764762431383133</v>
       </c>
       <c r="BL14" t="n">
-        <v>5.901138865738176e-05</v>
+        <v>0.005936522968113422</v>
       </c>
       <c r="BM14" t="n">
-        <v>8.148061169777066e-06</v>
+        <v>0.005236169788986444</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.168983676005155e-05</v>
+        <v>0.01064194273203611</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.914954191306606e-05</v>
+        <v>0.01329874619841576</v>
       </c>
       <c r="BP14" t="n">
-        <v>3.405330062378198e-05</v>
+        <v>0.01821459643542767</v>
       </c>
       <c r="BQ14" t="n">
-        <v>6.455673883465352e-06</v>
+        <v>0.008535164408385754</v>
       </c>
       <c r="BR14" t="n">
-        <v>6.707943975925446e-05</v>
+        <v>0.01055534556508064</v>
       </c>
       <c r="BS14" t="n">
-        <v>7.521833322243765e-05</v>
+        <v>0.01192702073603868</v>
       </c>
       <c r="BT14" t="n">
-        <v>5.439135748019908e-06</v>
+        <v>0.03254382684826851</v>
       </c>
       <c r="BU14" t="n">
-        <v>6.660892540821806e-05</v>
+        <v>0.01526597887277603</v>
       </c>
       <c r="BV14" t="n">
-        <v>1.439568586647511e-05</v>
+        <v>0.05375293642282486</v>
       </c>
       <c r="BW14" t="n">
-        <v>5.279871402308345e-07</v>
+        <v>0.002953875809907913</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.0001089675861294381</v>
+        <v>0.02545400336384773</v>
       </c>
       <c r="BY14" t="n">
-        <v>3.695849227369763e-05</v>
+        <v>0.04378441348671913</v>
       </c>
       <c r="BZ14" t="n">
-        <v>1.609037644811906e-05</v>
+        <v>0.03432486206293106</v>
       </c>
       <c r="CA14" t="n">
-        <v>7.60898255975917e-05</v>
+        <v>0.009284813888370991</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.0001156511934823357</v>
+        <v>0.01808484271168709</v>
       </c>
       <c r="CC14" t="n">
-        <v>3.797388490056619e-05</v>
+        <v>0.009264102205634117</v>
       </c>
       <c r="CD14" t="n">
-        <v>6.490567466244102e-05</v>
+        <v>0.003651870414614677</v>
       </c>
       <c r="CE14" t="n">
-        <v>4.59946977571235e-06</v>
+        <v>0.02448890544474125</v>
       </c>
       <c r="CF14" t="n">
-        <v>2.224630588898435e-05</v>
+        <v>0.0007675392553210258</v>
       </c>
       <c r="CG14" t="n">
-        <v>7.913198351161554e-05</v>
+        <v>0.008795634843409061</v>
       </c>
       <c r="CH14" t="n">
-        <v>1.975074337678961e-05</v>
+        <v>0.01762250997126102</v>
       </c>
       <c r="CI14" t="n">
-        <v>1.200010319735156e-05</v>
+        <v>0.03037515468895435</v>
       </c>
       <c r="CJ14" t="n">
-        <v>3.511574504955206e-06</v>
+        <v>0.01019313838332891</v>
       </c>
       <c r="CK14" t="n">
-        <v>5.572047302848659e-05</v>
+        <v>0.009023603983223438</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.156372672994621e-05</v>
+        <v>0.00202913349494338</v>
       </c>
       <c r="CM14" t="n">
-        <v>3.757280865102075e-06</v>
+        <v>0.01397064048796892</v>
       </c>
       <c r="CN14" t="n">
-        <v>5.50934491911903e-05</v>
+        <v>0.01470906101167202</v>
       </c>
       <c r="CO14" t="n">
-        <v>4.292499215807766e-05</v>
+        <v>0.004041110631078482</v>
       </c>
       <c r="CP14" t="n">
-        <v>4.573484693537466e-05</v>
+        <v>0.0453084334731102</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.0001164954082923941</v>
+        <v>0.06429530680179596</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.0001431650453014299</v>
+        <v>0.01967209950089455</v>
       </c>
       <c r="CS14" t="n">
-        <v>2.505167685740162e-06</v>
+        <v>0.02525541558861732</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.717317354632542e-05</v>
+        <v>0.01270213164389133</v>
       </c>
       <c r="CU14" t="n">
-        <v>1.311105643253541e-05</v>
+        <v>0.00731272017583251</v>
       </c>
       <c r="CV14" t="n">
-        <v>6.229333666851744e-05</v>
+        <v>0.003787003457546234</v>
       </c>
       <c r="CW14" t="n">
-        <v>2.36763917200733e-05</v>
+        <v>0.02256537601351738</v>
       </c>
       <c r="CX14" t="n">
-        <v>1.539450386189856e-05</v>
+        <v>0.0009022452868521214</v>
       </c>
       <c r="CY14" t="n">
-        <v>7.877407188061625e-05</v>
+        <v>0.01353077031672001</v>
       </c>
       <c r="CZ14" t="n">
-        <v>2.45940827880986e-05</v>
+        <v>0.01344414614140987</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.488457746745553e-05</v>
+        <v>0.03227673470973969</v>
       </c>
       <c r="DB14" t="n">
-        <v>1.096520190912997e-05</v>
+        <v>0.003929473459720612</v>
       </c>
       <c r="DC14" t="n">
-        <v>5.886869985261001e-05</v>
+        <v>0.01748999953269958</v>
       </c>
       <c r="DD14" t="n">
-        <v>1.6626829165034e-05</v>
+        <v>0.005051915999501944</v>
       </c>
       <c r="DE14" t="n">
-        <v>1.543157850392163e-06</v>
+        <v>0.001383478753268719</v>
       </c>
       <c r="DF14" t="n">
-        <v>7.759960135444999e-05</v>
+        <v>0.03378893435001373</v>
       </c>
       <c r="DG14" t="n">
-        <v>3.002939956786577e-05</v>
+        <v>0.0078912153840065</v>
       </c>
       <c r="DH14" t="n">
-        <v>4.36517657362856e-05</v>
+        <v>0.03532752394676208</v>
       </c>
       <c r="DI14" t="n">
-        <v>7.810101669747382e-05</v>
+        <v>0.03048782423138618</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1.449922274332494e-05</v>
+        <v>0.01501533202826977</v>
       </c>
       <c r="DK14" t="n">
-        <v>1.984179834835231e-05</v>
+        <v>0.002235765568912029</v>
       </c>
       <c r="DL14" t="n">
-        <v>1.483033156546298e-05</v>
+        <v>0.04671092703938484</v>
       </c>
       <c r="DM14" t="n">
-        <v>1.582771801622584e-06</v>
+        <v>0.01296591479331255</v>
       </c>
       <c r="DN14" t="n">
-        <v>2.745898746070452e-05</v>
+        <v>0.01600018888711929</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.763221553119365e-05</v>
+        <v>0.009501366876065731</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.704111309663858e-05</v>
+        <v>0.0006579312030225992</v>
       </c>
       <c r="DQ14" t="n">
-        <v>1.469424933020491e-05</v>
+        <v>0.03449399769306183</v>
       </c>
       <c r="DR14" t="n">
-        <v>3.570586704881862e-05</v>
+        <v>0.01242333929985762</v>
       </c>
       <c r="DS14" t="n">
-        <v>6.605999078601599e-05</v>
+        <v>0.02680950798094273</v>
       </c>
       <c r="DT14" t="n">
-        <v>3.798073157668114e-05</v>
+        <v>0.02285100519657135</v>
       </c>
       <c r="DU14" t="n">
-        <v>8.837453606247436e-06</v>
+        <v>0.01573658548295498</v>
       </c>
       <c r="DV14" t="n">
-        <v>4.592527329805307e-05</v>
+        <v>0.008544019423425198</v>
       </c>
       <c r="DW14" t="n">
-        <v>4.792664913111366e-05</v>
+        <v>0.01053228136152029</v>
       </c>
       <c r="DX14" t="n">
-        <v>6.867123738629743e-05</v>
+        <v>0.007153770886361599</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.519278703199234e-05</v>
+        <v>0.01977644301950932</v>
       </c>
       <c r="DZ14" t="n">
-        <v>7.19608215149492e-05</v>
+        <v>0.01357334945350885</v>
       </c>
       <c r="EA14" t="n">
-        <v>4.272439764463343e-05</v>
+        <v>0.005804050713777542</v>
       </c>
       <c r="EB14" t="n">
-        <v>3.77588949049823e-05</v>
+        <v>0.01270341966301203</v>
       </c>
       <c r="EC14" t="n">
-        <v>1.621297269593924e-05</v>
+        <v>0.007098215632140636</v>
       </c>
       <c r="ED14" t="n">
-        <v>1.457711005059537e-05</v>
+        <v>0.01003769878298044</v>
       </c>
       <c r="EE14" t="n">
-        <v>3.174581070197746e-05</v>
+        <v>0.03858024254441261</v>
       </c>
       <c r="EF14" t="n">
-        <v>1.39098301588092e-05</v>
+        <v>0.008645328693091869</v>
       </c>
       <c r="EG14" t="n">
-        <v>6.314546681096544e-06</v>
+        <v>0.02530700899660587</v>
       </c>
       <c r="EH14" t="n">
-        <v>2.502217830624431e-05</v>
+        <v>0.01803493313491344</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.0001015953530441038</v>
+        <v>0.01792172342538834</v>
       </c>
       <c r="EJ14" t="n">
-        <v>4.848422395298257e-05</v>
+        <v>0.02256375178694725</v>
       </c>
       <c r="EK14" t="n">
-        <v>3.66217500413768e-05</v>
+        <v>0.01455355621874332</v>
       </c>
       <c r="EL14" t="n">
-        <v>3.636101973825134e-05</v>
+        <v>0.006679336540400982</v>
       </c>
       <c r="EM14" t="n">
-        <v>8.564080053474754e-05</v>
+        <v>0.007295989897102118</v>
       </c>
       <c r="EN14" t="n">
-        <v>1.953458922798745e-05</v>
+        <v>0.006342777982354164</v>
       </c>
       <c r="EO14" t="n">
-        <v>9.04197440831922e-05</v>
+        <v>0.01020915620028973</v>
       </c>
       <c r="EP14" t="n">
-        <v>2.92070399154909e-06</v>
+        <v>0.02149817161262035</v>
       </c>
       <c r="EQ14" t="n">
-        <v>5.794432945549488e-05</v>
+        <v>0.0006149951368570328</v>
       </c>
       <c r="ER14" t="n">
-        <v>2.927620698756073e-06</v>
+        <v>0.000967453233897686</v>
       </c>
       <c r="ES14" t="n">
-        <v>3.557873060344718e-05</v>
+        <v>0.01750845648348331</v>
       </c>
       <c r="ET14" t="n">
-        <v>8.59518058859976e-06</v>
+        <v>0.01753291860222816</v>
       </c>
       <c r="EU14" t="n">
-        <v>2.004418820433784e-05</v>
+        <v>0.00112089840695262</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.173691453004722e-05</v>
+        <v>0.0236549973487854</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.798210880428087e-05</v>
+        <v>0.01934952661395073</v>
       </c>
       <c r="EX14" t="n">
-        <v>5.004301419830881e-05</v>
+        <v>0.005441475193947554</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.884031007648446e-05</v>
+        <v>0.02297726459801197</v>
       </c>
       <c r="EZ14" t="n">
-        <v>2.418627445877064e-05</v>
+        <v>0.002497105859220028</v>
       </c>
       <c r="FA14" t="n">
-        <v>6.736417708452791e-05</v>
+        <v>0.01057581324130297</v>
       </c>
       <c r="FB14" t="n">
-        <v>3.518617813824676e-05</v>
+        <v>0.01571355387568474</v>
       </c>
       <c r="FC14" t="n">
-        <v>2.058889549516607e-05</v>
+        <v>0.02897236682474613</v>
       </c>
       <c r="FD14" t="n">
-        <v>7.860725418140646e-06</v>
+        <v>0.01426674611866474</v>
       </c>
       <c r="FE14" t="n">
-        <v>6.446137558668852e-05</v>
+        <v>0.01686317473649979</v>
       </c>
       <c r="FF14" t="n">
-        <v>7.889546395745128e-06</v>
+        <v>0.001917859888635576</v>
       </c>
       <c r="FG14" t="n">
-        <v>7.530462880822597e-06</v>
+        <v>0.008165093138813972</v>
       </c>
       <c r="FH14" t="n">
-        <v>4.912299482384697e-05</v>
+        <v>0.02866269089281559</v>
       </c>
       <c r="FI14" t="n">
-        <v>3.048485632461961e-05</v>
+        <v>0.01572768017649651</v>
       </c>
       <c r="FJ14" t="n">
-        <v>7.66556040616706e-05</v>
+        <v>0.02006899751722813</v>
       </c>
       <c r="FK14" t="n">
-        <v>4.011511555290781e-05</v>
+        <v>0.006000882480293512</v>
       </c>
       <c r="FL14" t="n">
-        <v>3.027705133717973e-06</v>
+        <v>0.01055806037038565</v>
       </c>
       <c r="FM14" t="n">
-        <v>2.890374162234366e-06</v>
+        <v>0.01623314432799816</v>
       </c>
       <c r="FN14" t="n">
-        <v>3.882513556163758e-05</v>
+        <v>0.006325725931674242</v>
       </c>
       <c r="FO14" t="n">
-        <v>9.365383448312059e-06</v>
+        <v>0.01761949993669987</v>
       </c>
       <c r="FP14" t="n">
-        <v>4.968505163560621e-05</v>
+        <v>0.01404507737606764</v>
       </c>
       <c r="FQ14" t="n">
-        <v>3.326925070723519e-05</v>
+        <v>0.001049116486683488</v>
       </c>
       <c r="FR14" t="n">
-        <v>5.105227683088742e-05</v>
+        <v>0.03286956250667572</v>
       </c>
       <c r="FS14" t="n">
-        <v>1.418471219949424e-05</v>
+        <v>0.0007793281693011522</v>
       </c>
       <c r="FT14" t="n">
-        <v>1.054145104717463e-05</v>
+        <v>0.07989814132452011</v>
       </c>
       <c r="FU14" t="n">
-        <v>2.237244189018384e-05</v>
+        <v>0.01668877154588699</v>
       </c>
       <c r="FV14" t="n">
-        <v>4.422056008479558e-05</v>
+        <v>0.00629816111177206</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.0001034453816828318</v>
+        <v>0.007385587319731712</v>
       </c>
       <c r="FX14" t="n">
-        <v>4.811982580577023e-05</v>
+        <v>0.0103613343089819</v>
       </c>
       <c r="FY14" t="n">
-        <v>6.638429476879537e-05</v>
+        <v>0.008741958066821098</v>
       </c>
       <c r="FZ14" t="n">
-        <v>9.601334022590891e-05</v>
+        <v>0.01107775606215</v>
       </c>
       <c r="GA14" t="n">
-        <v>9.336290531791747e-07</v>
+        <v>0.01070161163806915</v>
       </c>
       <c r="GB14" t="n">
-        <v>5.606316699413583e-05</v>
+        <v>0.01465634256601334</v>
       </c>
       <c r="GC14" t="n">
-        <v>2.076184864563402e-05</v>
+        <v>0.07565771788358688</v>
       </c>
       <c r="GD14" t="n">
-        <v>8.589699427830055e-05</v>
+        <v>0.007644249126315117</v>
       </c>
       <c r="GE14" t="n">
-        <v>5.037296796217561e-05</v>
+        <v>0.03719300031661987</v>
       </c>
       <c r="GF14" t="n">
-        <v>2.369339426877559e-07</v>
+        <v>0.01386038772761822</v>
       </c>
       <c r="GG14" t="n">
-        <v>2.738675902946852e-05</v>
+        <v>0.01147606875747442</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.170906369755812e-09</v>
+        <v>4.524459695787186e-10</v>
       </c>
       <c r="B15" t="n">
-        <v>6.30911998200645e-08</v>
+        <v>7.521064659954391e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692005254966716e-09</v>
+        <v>4.780124074343917e-10</v>
       </c>
       <c r="D15" t="n">
-        <v>3.391955161191618e-08</v>
+        <v>3.413837879051584e-09</v>
       </c>
       <c r="E15" t="n">
-        <v>7.254445222315553e-08</v>
+        <v>5.578009720785815e-10</v>
       </c>
       <c r="F15" t="n">
-        <v>3.010748539367114e-09</v>
+        <v>1.08221778205575e-08</v>
       </c>
       <c r="G15" t="n">
-        <v>1.269296845407553e-08</v>
+        <v>1.592919796067349e-09</v>
       </c>
       <c r="H15" t="n">
-        <v>1.535624605253361e-08</v>
+        <v>2.613390837069574e-09</v>
       </c>
       <c r="I15" t="n">
-        <v>5.906638733677028e-09</v>
+        <v>1.795387727376863e-10</v>
       </c>
       <c r="J15" t="n">
-        <v>6.760949133877148e-09</v>
+        <v>7.514170397016073e-10</v>
       </c>
       <c r="K15" t="n">
-        <v>7.036372551283421e-08</v>
+        <v>4.5867496467622e-09</v>
       </c>
       <c r="L15" t="n">
-        <v>8.556722441710463e-09</v>
+        <v>6.167082400310164e-10</v>
       </c>
       <c r="M15" t="n">
-        <v>1.6480104392258e-08</v>
+        <v>7.365036358564225e-10</v>
       </c>
       <c r="N15" t="n">
-        <v>6.570008537210015e-08</v>
+        <v>1.513902003758005e-09</v>
       </c>
       <c r="O15" t="n">
-        <v>3.48160300589484e-09</v>
+        <v>8.58066240283506e-09</v>
       </c>
       <c r="P15" t="n">
-        <v>3.905002099457988e-09</v>
+        <v>1.138167782244182e-09</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.048277547572752e-09</v>
+        <v>2.127094944626151e-09</v>
       </c>
       <c r="R15" t="n">
-        <v>3.485314703510767e-09</v>
+        <v>4.805555953169005e-10</v>
       </c>
       <c r="S15" t="n">
-        <v>4.969486155914637e-09</v>
+        <v>1.703934771057902e-10</v>
       </c>
       <c r="T15" t="n">
-        <v>1.88138482570821e-09</v>
+        <v>4.046699642046292e-10</v>
       </c>
       <c r="U15" t="n">
-        <v>3.374229118335847e-09</v>
+        <v>1.826016560180221e-09</v>
       </c>
       <c r="V15" t="n">
-        <v>8.355435454632243e-09</v>
+        <v>7.559122772171634e-10</v>
       </c>
       <c r="W15" t="n">
-        <v>2.567337453740492e-09</v>
+        <v>1.402773452952033e-09</v>
       </c>
       <c r="X15" t="n">
-        <v>7.379140409824458e-09</v>
+        <v>3.098490075625904e-10</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.010593160496683e-09</v>
+        <v>1.077527789217214e-10</v>
       </c>
       <c r="Z15" t="n">
-        <v>5.671958902553342e-09</v>
+        <v>3.182556995717789e-10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.908451841003966e-09</v>
+        <v>1.897647733395402e-10</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.733526389102735e-08</v>
+        <v>6.82608747304414e-10</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.930633075630794e-08</v>
+        <v>2.108675678513805e-09</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.761740975325665e-08</v>
+        <v>4.977350198664965e-10</v>
       </c>
       <c r="AE15" t="n">
-        <v>3.297877748664746e-09</v>
+        <v>8.92643348127109e-10</v>
       </c>
       <c r="AF15" t="n">
-        <v>6.846514910563428e-09</v>
+        <v>6.599835677967292e-10</v>
       </c>
       <c r="AG15" t="n">
-        <v>5.973288530469745e-11</v>
+        <v>1.272050659251178e-10</v>
       </c>
       <c r="AH15" t="n">
-        <v>2.804134702216743e-09</v>
+        <v>6.038639033256743e-11</v>
       </c>
       <c r="AI15" t="n">
-        <v>4.084441229679214e-09</v>
+        <v>4.504935313676128e-10</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.256275883321223e-08</v>
+        <v>7.182512917758288e-10</v>
       </c>
       <c r="AK15" t="n">
-        <v>8.30917912253426e-09</v>
+        <v>8.489241531961511e-10</v>
       </c>
       <c r="AL15" t="n">
-        <v>2.611972149679787e-08</v>
+        <v>5.4128382331875e-11</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.671334004527125e-08</v>
+        <v>3.317279229086978e-10</v>
       </c>
       <c r="AN15" t="n">
-        <v>1.665765303471289e-09</v>
+        <v>2.364543838506705e-10</v>
       </c>
       <c r="AO15" t="n">
-        <v>1.697544149692476e-08</v>
+        <v>2.234781804055785e-10</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.662575521699239e-09</v>
+        <v>2.349388905642513e-09</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.986816711152528e-09</v>
+        <v>4.833856093178213e-10</v>
       </c>
       <c r="AR15" t="n">
-        <v>5.735353303393254e-10</v>
+        <v>4.195484237801139e-10</v>
       </c>
       <c r="AS15" t="n">
-        <v>6.214215808597601e-09</v>
+        <v>5.067701813743497e-11</v>
       </c>
       <c r="AT15" t="n">
-        <v>9.905359199535724e-09</v>
+        <v>1.591253240285084e-09</v>
       </c>
       <c r="AU15" t="n">
-        <v>4.4988087921638e-08</v>
+        <v>1.82462966957786e-09</v>
       </c>
       <c r="AV15" t="n">
-        <v>2.054997949585413e-09</v>
+        <v>1.476789579513138e-09</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.224929739393701e-09</v>
+        <v>2.034930890459918e-09</v>
       </c>
       <c r="AX15" t="n">
-        <v>2.50239118315676e-08</v>
+        <v>5.445334183562522e-10</v>
       </c>
       <c r="AY15" t="n">
-        <v>5.171409966919782e-10</v>
+        <v>4.994903601840406e-09</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.617807043885477e-08</v>
+        <v>1.423405421308033e-10</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.561726747922876e-08</v>
+        <v>3.790407432369136e-10</v>
       </c>
       <c r="BB15" t="n">
-        <v>6.839563582161645e-09</v>
+        <v>3.038983509284776e-10</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.699818241718276e-08</v>
+        <v>8.052397637570152e-10</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.041657515798988e-08</v>
+        <v>4.453031721141087e-09</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.482081124493106e-09</v>
+        <v>2.202206195178746e-10</v>
       </c>
       <c r="BF15" t="n">
-        <v>4.256060393004191e-09</v>
+        <v>1.70811809141469e-09</v>
       </c>
       <c r="BG15" t="n">
-        <v>8.311678456607297e-09</v>
+        <v>3.16504245034821e-09</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.630361445847939e-08</v>
+        <v>2.424189737837423e-09</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.723419711969655e-09</v>
+        <v>1.724642650913211e-09</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3.425208339180585e-09</v>
+        <v>1.13104203780523e-09</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.876892419261367e-08</v>
+        <v>5.361426302918915e-10</v>
       </c>
       <c r="BL15" t="n">
-        <v>6.747299163833986e-09</v>
+        <v>6.169615929252359e-10</v>
       </c>
       <c r="BM15" t="n">
-        <v>7.749843433657588e-09</v>
+        <v>4.546865106647147e-09</v>
       </c>
       <c r="BN15" t="n">
-        <v>4.688882171421938e-09</v>
+        <v>2.295975631838587e-09</v>
       </c>
       <c r="BO15" t="n">
-        <v>3.034312356930968e-09</v>
+        <v>1.489351975081377e-10</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.247289287993226e-08</v>
+        <v>9.579714799201611e-10</v>
       </c>
       <c r="BQ15" t="n">
-        <v>3.149297711502186e-08</v>
+        <v>1.388082426778681e-09</v>
       </c>
       <c r="BR15" t="n">
-        <v>8.640188120523362e-09</v>
+        <v>7.161813364575664e-10</v>
       </c>
       <c r="BS15" t="n">
-        <v>3.843021012528425e-09</v>
+        <v>1.794305676261487e-10</v>
       </c>
       <c r="BT15" t="n">
-        <v>7.607102725515347e-10</v>
+        <v>5.384696022403546e-10</v>
       </c>
       <c r="BU15" t="n">
-        <v>8.025751618845334e-09</v>
+        <v>3.300893725022291e-10</v>
       </c>
       <c r="BV15" t="n">
-        <v>2.127680787111785e-08</v>
+        <v>1.873350807812812e-09</v>
       </c>
       <c r="BW15" t="n">
-        <v>1.546698991106155e-09</v>
+        <v>3.416775751219348e-10</v>
       </c>
       <c r="BX15" t="n">
-        <v>2.328646786509125e-08</v>
+        <v>6.41574848803117e-10</v>
       </c>
       <c r="BY15" t="n">
-        <v>2.472911830864177e-08</v>
+        <v>1.637240898411108e-10</v>
       </c>
       <c r="BZ15" t="n">
-        <v>9.228952713158378e-09</v>
+        <v>1.431378127136895e-09</v>
       </c>
       <c r="CA15" t="n">
-        <v>1.033682561768501e-08</v>
+        <v>5.829515203892299e-10</v>
       </c>
       <c r="CB15" t="n">
-        <v>3.849406127187649e-09</v>
+        <v>2.14341516757699e-10</v>
       </c>
       <c r="CC15" t="n">
-        <v>7.247824118650215e-09</v>
+        <v>7.208763447286159e-11</v>
       </c>
       <c r="CD15" t="n">
-        <v>2.736263882141543e-09</v>
+        <v>3.027502137875615e-10</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.569418017766111e-08</v>
+        <v>5.017749549196537e-10</v>
       </c>
       <c r="CF15" t="n">
-        <v>7.200732898837714e-09</v>
+        <v>3.381495916610078e-10</v>
       </c>
       <c r="CG15" t="n">
-        <v>1.965347218302327e-09</v>
+        <v>2.23213281191903e-10</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.299083507433352e-08</v>
+        <v>9.373517240174323e-11</v>
       </c>
       <c r="CI15" t="n">
-        <v>4.954317400773789e-09</v>
+        <v>1.693734930086066e-09</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2.267722898352531e-09</v>
+        <v>3.040390161856976e-11</v>
       </c>
       <c r="CK15" t="n">
-        <v>3.539719406475683e-09</v>
+        <v>4.241782480818301e-10</v>
       </c>
       <c r="CL15" t="n">
-        <v>8.822038655154074e-10</v>
+        <v>7.452867489821102e-11</v>
       </c>
       <c r="CM15" t="n">
-        <v>4.128281272386403e-09</v>
+        <v>8.561467645940013e-10</v>
       </c>
       <c r="CN15" t="n">
-        <v>9.986659499361394e-09</v>
+        <v>5.367651462195866e-11</v>
       </c>
       <c r="CO15" t="n">
-        <v>3.686845051475984e-09</v>
+        <v>1.100070146087262e-09</v>
       </c>
       <c r="CP15" t="n">
-        <v>2.157921841217103e-09</v>
+        <v>3.008037374740979e-09</v>
       </c>
       <c r="CQ15" t="n">
-        <v>1.107104985464957e-08</v>
+        <v>1.893925460905166e-09</v>
       </c>
       <c r="CR15" t="n">
-        <v>1.134689497916952e-08</v>
+        <v>1.792028303526649e-09</v>
       </c>
       <c r="CS15" t="n">
-        <v>2.120981168474145e-09</v>
+        <v>2.177157898408666e-10</v>
       </c>
       <c r="CT15" t="n">
-        <v>8.32905477921031e-09</v>
+        <v>4.124250385650896e-10</v>
       </c>
       <c r="CU15" t="n">
-        <v>1.155253315232585e-08</v>
+        <v>3.045416002711576e-11</v>
       </c>
       <c r="CV15" t="n">
-        <v>3.244734703145014e-09</v>
+        <v>1.680697803152498e-10</v>
       </c>
       <c r="CW15" t="n">
-        <v>1.109951064393044e-08</v>
+        <v>2.722692626910828e-10</v>
       </c>
       <c r="CX15" t="n">
-        <v>7.445301264397131e-09</v>
+        <v>2.911558771856448e-10</v>
       </c>
       <c r="CY15" t="n">
-        <v>5.784531964536654e-09</v>
+        <v>3.120332325856623e-10</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.142114047780751e-08</v>
+        <v>6.986487777194128e-11</v>
       </c>
       <c r="DA15" t="n">
-        <v>5.944134073843088e-10</v>
+        <v>2.006524724151859e-09</v>
       </c>
       <c r="DB15" t="n">
-        <v>2.135759125110326e-09</v>
+        <v>9.121917110554989e-11</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.299356400252805e-09</v>
+        <v>5.055448282220709e-10</v>
       </c>
       <c r="DD15" t="n">
-        <v>6.081776748878553e-10</v>
+        <v>2.657940256778346e-10</v>
       </c>
       <c r="DE15" t="n">
-        <v>2.098625806468135e-08</v>
+        <v>1.996587339903044e-09</v>
       </c>
       <c r="DF15" t="n">
-        <v>1.003173455416118e-08</v>
+        <v>4.440249501413973e-09</v>
       </c>
       <c r="DG15" t="n">
-        <v>1.522413661803057e-08</v>
+        <v>1.906506064131008e-09</v>
       </c>
       <c r="DH15" t="n">
-        <v>3.436883444507544e-09</v>
+        <v>2.091120610003827e-09</v>
       </c>
       <c r="DI15" t="n">
-        <v>4.656745211661928e-09</v>
+        <v>1.943453842301324e-09</v>
       </c>
       <c r="DJ15" t="n">
-        <v>9.134426548484953e-09</v>
+        <v>6.172878874721732e-11</v>
       </c>
       <c r="DK15" t="n">
-        <v>4.863457636616886e-09</v>
+        <v>8.086832314901926e-10</v>
       </c>
       <c r="DL15" t="n">
-        <v>7.711273841692901e-10</v>
+        <v>2.791995523665491e-09</v>
       </c>
       <c r="DM15" t="n">
-        <v>7.748601760226848e-09</v>
+        <v>1.299559793110916e-09</v>
       </c>
       <c r="DN15" t="n">
-        <v>2.278023103485793e-09</v>
+        <v>1.326286191982717e-09</v>
       </c>
       <c r="DO15" t="n">
-        <v>1.718192033095534e-09</v>
+        <v>2.156945733133853e-09</v>
       </c>
       <c r="DP15" t="n">
-        <v>1.210582745159172e-08</v>
+        <v>5.50454182235427e-10</v>
       </c>
       <c r="DQ15" t="n">
-        <v>6.463479085283552e-09</v>
+        <v>1.766499724276116e-10</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.143881434018112e-09</v>
+        <v>2.186124059555539e-10</v>
       </c>
       <c r="DS15" t="n">
-        <v>6.396652985074525e-09</v>
+        <v>7.598113249684957e-10</v>
       </c>
       <c r="DT15" t="n">
-        <v>1.8973489446239e-09</v>
+        <v>8.23195678290034e-10</v>
       </c>
       <c r="DU15" t="n">
-        <v>7.104047572425998e-09</v>
+        <v>5.087498755607101e-10</v>
       </c>
       <c r="DV15" t="n">
-        <v>6.949823827540058e-09</v>
+        <v>3.686701222083144e-10</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.296374201904428e-09</v>
+        <v>5.375411782360118e-10</v>
       </c>
       <c r="DX15" t="n">
-        <v>4.238822626234651e-10</v>
+        <v>7.432710003030252e-11</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.713710811619308e-09</v>
+        <v>1.220287870751235e-09</v>
       </c>
       <c r="DZ15" t="n">
-        <v>3.874559784122766e-09</v>
+        <v>3.058521491627886e-10</v>
       </c>
       <c r="EA15" t="n">
-        <v>8.439770660118029e-09</v>
+        <v>1.198921295575417e-09</v>
       </c>
       <c r="EB15" t="n">
-        <v>1.023123474830356e-09</v>
+        <v>2.4461765946171e-09</v>
       </c>
       <c r="EC15" t="n">
-        <v>2.906773266531104e-09</v>
+        <v>7.344835850631171e-10</v>
       </c>
       <c r="ED15" t="n">
-        <v>4.309149481684926e-09</v>
+        <v>4.162018646391985e-11</v>
       </c>
       <c r="EE15" t="n">
-        <v>3.635432399562433e-09</v>
+        <v>1.030604490637188e-09</v>
       </c>
       <c r="EF15" t="n">
-        <v>6.538067864880759e-10</v>
+        <v>5.680120263029664e-11</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.854599401302949e-08</v>
+        <v>2.069351134892372e-09</v>
       </c>
       <c r="EH15" t="n">
-        <v>1.831995888323945e-08</v>
+        <v>1.88059109951233e-10</v>
       </c>
       <c r="EI15" t="n">
-        <v>2.044062519246381e-08</v>
+        <v>1.780177671939498e-09</v>
       </c>
       <c r="EJ15" t="n">
-        <v>2.238070351268107e-08</v>
+        <v>7.164904780587733e-10</v>
       </c>
       <c r="EK15" t="n">
-        <v>5.42604627895571e-10</v>
+        <v>1.321111886554149e-09</v>
       </c>
       <c r="EL15" t="n">
-        <v>1.208659838880521e-10</v>
+        <v>8.360320769007501e-11</v>
       </c>
       <c r="EM15" t="n">
-        <v>6.74989530935477e-09</v>
+        <v>1.753191897213568e-10</v>
       </c>
       <c r="EN15" t="n">
-        <v>6.105175920367856e-09</v>
+        <v>2.703393064962256e-10</v>
       </c>
       <c r="EO15" t="n">
-        <v>1.02498338705459e-08</v>
+        <v>6.428336751795882e-10</v>
       </c>
       <c r="EP15" t="n">
-        <v>6.5455718623042e-10</v>
+        <v>2.114025066113356e-10</v>
       </c>
       <c r="EQ15" t="n">
-        <v>1.011155781327489e-08</v>
+        <v>1.704910546074245e-09</v>
       </c>
       <c r="ER15" t="n">
-        <v>9.705411585514412e-09</v>
+        <v>1.688227779794715e-09</v>
       </c>
       <c r="ES15" t="n">
-        <v>3.915624713357602e-09</v>
+        <v>1.71581093777462e-09</v>
       </c>
       <c r="ET15" t="n">
-        <v>4.355600324856823e-09</v>
+        <v>1.618116862722729e-09</v>
       </c>
       <c r="EU15" t="n">
-        <v>4.224589122969746e-09</v>
+        <v>1.969242685584405e-10</v>
       </c>
       <c r="EV15" t="n">
-        <v>6.214237568968883e-09</v>
+        <v>1.794563275758776e-09</v>
       </c>
       <c r="EW15" t="n">
-        <v>7.549343372659223e-09</v>
+        <v>6.944603225811363e-10</v>
       </c>
       <c r="EX15" t="n">
-        <v>5.637124989021913e-09</v>
+        <v>4.485188331848633e-10</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.042979658194554e-08</v>
+        <v>3.825876282448348e-10</v>
       </c>
       <c r="EZ15" t="n">
-        <v>5.065122543612688e-09</v>
+        <v>7.570893911790222e-10</v>
       </c>
       <c r="FA15" t="n">
-        <v>4.88074114457504e-09</v>
+        <v>7.550906011566383e-10</v>
       </c>
       <c r="FB15" t="n">
-        <v>1.584714048874503e-08</v>
+        <v>2.62408483830967e-10</v>
       </c>
       <c r="FC15" t="n">
-        <v>3.499852185839814e-09</v>
+        <v>1.900675616894887e-09</v>
       </c>
       <c r="FD15" t="n">
-        <v>2.427009704319971e-09</v>
+        <v>5.151093440680654e-11</v>
       </c>
       <c r="FE15" t="n">
-        <v>2.376578045470978e-09</v>
+        <v>5.006866032886137e-10</v>
       </c>
       <c r="FF15" t="n">
-        <v>2.710031754560305e-09</v>
+        <v>1.123434678618196e-11</v>
       </c>
       <c r="FG15" t="n">
-        <v>9.011261070668297e-09</v>
+        <v>8.049910737994992e-10</v>
       </c>
       <c r="FH15" t="n">
-        <v>8.71578009764562e-09</v>
+        <v>9.501381903476158e-10</v>
       </c>
       <c r="FI15" t="n">
-        <v>2.60082639869097e-08</v>
+        <v>2.399766385607904e-09</v>
       </c>
       <c r="FJ15" t="n">
-        <v>8.442507137829125e-09</v>
+        <v>1.301001972819904e-09</v>
       </c>
       <c r="FK15" t="n">
-        <v>1.257721482517127e-09</v>
+        <v>4.447354151615457e-10</v>
       </c>
       <c r="FL15" t="n">
-        <v>9.564182334997895e-09</v>
+        <v>1.47178658149727e-09</v>
       </c>
       <c r="FM15" t="n">
-        <v>6.289395226843908e-09</v>
+        <v>1.285188178101748e-09</v>
       </c>
       <c r="FN15" t="n">
-        <v>3.539023962773058e-09</v>
+        <v>1.075453753829336e-10</v>
       </c>
       <c r="FO15" t="n">
-        <v>9.849933313432757e-09</v>
+        <v>4.185177551740971e-11</v>
       </c>
       <c r="FP15" t="n">
-        <v>4.74535610806015e-09</v>
+        <v>1.491092693761686e-09</v>
       </c>
       <c r="FQ15" t="n">
-        <v>2.271326238201254e-09</v>
+        <v>2.249235464546473e-09</v>
       </c>
       <c r="FR15" t="n">
-        <v>1.034332974825247e-08</v>
+        <v>4.79077777448822e-10</v>
       </c>
       <c r="FS15" t="n">
-        <v>5.130991631574489e-09</v>
+        <v>5.110449285972152e-10</v>
       </c>
       <c r="FT15" t="n">
-        <v>5.611407338790286e-09</v>
+        <v>4.227608041418307e-09</v>
       </c>
       <c r="FU15" t="n">
-        <v>2.206121862968757e-08</v>
+        <v>8.81576894817826e-11</v>
       </c>
       <c r="FV15" t="n">
-        <v>1.082814371500262e-08</v>
+        <v>7.110895761108793e-10</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.448057140862602e-08</v>
+        <v>1.257827175749071e-10</v>
       </c>
       <c r="FX15" t="n">
-        <v>1.798356663584855e-08</v>
+        <v>8.792941930124698e-10</v>
       </c>
       <c r="FY15" t="n">
-        <v>9.097912645472661e-09</v>
+        <v>4.329503422439984e-10</v>
       </c>
       <c r="FZ15" t="n">
-        <v>2.765739415266921e-09</v>
+        <v>1.715913855449003e-09</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.444189390298334e-08</v>
+        <v>1.032416929724889e-09</v>
       </c>
       <c r="GB15" t="n">
-        <v>9.753659213629362e-09</v>
+        <v>1.345378697337196e-09</v>
       </c>
       <c r="GC15" t="n">
-        <v>5.14745490676205e-09</v>
+        <v>6.27718499401908e-09</v>
       </c>
       <c r="GD15" t="n">
-        <v>4.103382966746949e-09</v>
+        <v>1.882137556918906e-09</v>
       </c>
       <c r="GE15" t="n">
-        <v>7.064674178991481e-09</v>
+        <v>6.274571140441054e-11</v>
       </c>
       <c r="GF15" t="n">
-        <v>3.074033805283705e-10</v>
+        <v>2.299600787569744e-11</v>
       </c>
       <c r="GG15" t="n">
-        <v>2.377146701704191e-09</v>
+        <v>1.682700090377409e-10</v>
       </c>
     </row>
   </sheetData>
